--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coemidis\dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\5. COE_TABLERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886ECBB5-C74B-4487-B6FD-222374D6DA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B225B5D-3E63-46EA-9E0D-F966270093B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -73,9 +73,6 @@
     <t>lon</t>
   </si>
   <si>
-    <t>En proceso</t>
-  </si>
-  <si>
     <t>Sin novedad</t>
   </si>
   <si>
@@ -97,58 +94,31 @@
     <t>Lluvias intensas</t>
   </si>
   <si>
-    <t>Picota</t>
-  </si>
-  <si>
-    <t>Pucacaca</t>
-  </si>
-  <si>
-    <t>Personas y viviendas</t>
-  </si>
-  <si>
-    <t>Huancavelica</t>
-  </si>
-  <si>
-    <t>Acobambilla</t>
-  </si>
-  <si>
-    <t>Granizada</t>
-  </si>
-  <si>
-    <t>35 viviendas afectadas y 30 personas afectadas.</t>
-  </si>
-  <si>
-    <t>05 usuarios afectados PN Pensión 65</t>
-  </si>
-  <si>
-    <t>PN Pensión 65: 5 usuarios afectados (San Martín – Pucacaca)</t>
-  </si>
-  <si>
-    <t>Ayacucho</t>
-  </si>
-  <si>
-    <t>Parinacochas</t>
-  </si>
-  <si>
-    <t>Pullo</t>
-  </si>
-  <si>
-    <t>Vientos fuertes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 viviendas afectadas </t>
-  </si>
-  <si>
     <t>En monitoreo</t>
   </si>
   <si>
-    <t>Churcampa</t>
-  </si>
-  <si>
-    <t>Chinchihuasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 viviendas afectadas </t>
+    <t>Chipurana</t>
+  </si>
+  <si>
+    <t>Incendio urbano</t>
+  </si>
+  <si>
+    <t>05 viviendas inhabitables</t>
+  </si>
+  <si>
+    <t>Huallaga</t>
+  </si>
+  <si>
+    <t>Alto Saposoa</t>
+  </si>
+  <si>
+    <t>Viviendas y vías afectadas</t>
+  </si>
+  <si>
+    <t>Bellavista</t>
+  </si>
+  <si>
+    <t>Alto Biavo</t>
   </si>
 </sst>
 </file>
@@ -542,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82E3603-AECB-432D-86C5-3496A76ECB9C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -559,23 +529,21 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4">
       <c r="A2" s="5">
-        <v>45987</v>
+        <v>45988</v>
       </c>
       <c r="B2" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
@@ -600,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -659,37 +627,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>45987</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="E2">
-        <v>45986</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2">
-        <v>-6.8402329999999996</v>
+        <v>-6.4340320000000002</v>
       </c>
       <c r="L2">
-        <v>-76.363045999999997</v>
+        <v>-75.666836000000004</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -697,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -706,28 +674,28 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>45986</v>
+        <v>45988</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
       <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>-12.704091999999999</v>
+        <v>-6.6018619999999997</v>
       </c>
       <c r="L3">
-        <v>-75.371273000000002</v>
+        <v>-76.963115000000002</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -735,76 +703,45 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="5">
-        <v>45987</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>45988</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>-15.333175000000001</v>
+        <v>-7.8221109999999996</v>
       </c>
       <c r="L4">
-        <v>-73.984493000000001</v>
+        <v>-76.274123000000003</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45987</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5">
-        <v>-12.452261999999999</v>
-      </c>
-      <c r="L5">
-        <v>-74.569946999999999</v>
-      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:12">
       <c r="E6" s="5"/>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\5. COE_TABLERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B225B5D-3E63-46EA-9E0D-F966270093B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FF3E94-36CF-4D92-BE0A-7D8BBB7ED88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>Alto Biavo</t>
+  </si>
+  <si>
+    <t>Ucayali</t>
+  </si>
+  <si>
+    <t>Padre Abad</t>
+  </si>
+  <si>
+    <t>1 CIAI afectado (28 niños SCD)</t>
   </si>
 </sst>
 </file>
@@ -513,7 +522,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -541,7 +550,7 @@
         <v>45988</v>
       </c>
       <c r="B2" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -569,7 +578,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -737,11 +746,42 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>45988</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>-8.8943949999999994</v>
+      </c>
+      <c r="L5">
+        <v>-75.641589999999994</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="E6" s="5"/>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\5. COE_TABLERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FF3E94-36CF-4D92-BE0A-7D8BBB7ED88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2FA7EE-7A5D-4682-A2D9-7BBF3DCDA373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -127,7 +127,10 @@
     <t>Padre Abad</t>
   </si>
   <si>
-    <t>1 CIAI afectado (28 niños SCD)</t>
+    <t>PN Cuna Más: 01 CIAI afectado (28 niños SCD) - Ucayali - Padre Abad</t>
+  </si>
+  <si>
+    <t>PN Cuna Más: 1 CIAI afectado (28 niños SCD)</t>
   </si>
 </sst>
 </file>
@@ -521,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82E3603-AECB-432D-86C5-3496A76ECB9C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -545,14 +548,16 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="5">
         <v>45988</v>
       </c>
       <c r="B2" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
@@ -577,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -768,7 +773,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\5. COE_TABLERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2FA7EE-7A5D-4682-A2D9-7BBF3DCDA373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F36046-EEBF-40C1-9372-DE4356345418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -131,6 +131,21 @@
   </si>
   <si>
     <t>PN Cuna Más: 1 CIAI afectado (28 niños SCD)</t>
+  </si>
+  <si>
+    <t>Huánuco</t>
+  </si>
+  <si>
+    <t>Lauricocha</t>
+  </si>
+  <si>
+    <t>San Miguel de Cauri</t>
+  </si>
+  <si>
+    <t>Vientos fuertes</t>
+  </si>
+  <si>
+    <t>En proceso</t>
   </si>
 </sst>
 </file>
@@ -583,7 +598,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -789,14 +804,42 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>45987</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>-10.298932000000001</v>
+      </c>
+      <c r="L6">
+        <v>-76.637589000000006</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="E7" s="5"/>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\5. COE_TABLERO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\5. COE_TABLERO_DIARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F36046-EEBF-40C1-9372-DE4356345418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9A7291-A7FD-4ACC-A997-3243326E3009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -130,9 +130,6 @@
     <t>PN Cuna Más: 01 CIAI afectado (28 niños SCD) - Ucayali - Padre Abad</t>
   </si>
   <si>
-    <t>PN Cuna Más: 1 CIAI afectado (28 niños SCD)</t>
-  </si>
-  <si>
     <t>Huánuco</t>
   </si>
   <si>
@@ -146,6 +143,42 @@
   </si>
   <si>
     <t>En proceso</t>
+  </si>
+  <si>
+    <t>San Pablo</t>
+  </si>
+  <si>
+    <t>El Dorado</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Picota</t>
+  </si>
+  <si>
+    <t>Tres Unidos</t>
+  </si>
+  <si>
+    <t>Rioja</t>
+  </si>
+  <si>
+    <t>1 CIAI afectado (28 niños SCD)</t>
+  </si>
+  <si>
+    <t>Huamalies</t>
+  </si>
+  <si>
+    <t>Monzón</t>
+  </si>
+  <si>
+    <t>Cajamarca</t>
+  </si>
+  <si>
+    <t>Chota</t>
+  </si>
+  <si>
+    <t>Lajas</t>
   </si>
 </sst>
 </file>
@@ -197,13 +230,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -564,28 +594,28 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>45988</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -595,10 +625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -644,10 +674,10 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -770,13 +800,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>45988</v>
@@ -785,10 +815,10 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -797,10 +827,10 @@
         <v>16</v>
       </c>
       <c r="K5">
-        <v>-8.8943949999999994</v>
+        <v>-6.9910240000000003</v>
       </c>
       <c r="L5">
-        <v>-75.641589999999994</v>
+        <v>-76.600607999999994</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -808,66 +838,347 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>45988</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>-6.83887</v>
+      </c>
+      <c r="L6">
+        <v>-76.586524999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>45988</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>-6.7053459999999996</v>
+      </c>
+      <c r="L7">
+        <v>-76.599219000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>45988</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>-6.7053459999999996</v>
+      </c>
+      <c r="L8">
+        <v>-76.599219000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>45988</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>-6.8174330000000003</v>
+      </c>
+      <c r="L9">
+        <v>-76.128618000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>45988</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>-6.8174330000000003</v>
+      </c>
+      <c r="L10">
+        <v>-76.128618000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>45988</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>-8.8943949999999994</v>
+      </c>
+      <c r="L11">
+        <v>-75.641589999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E12">
+        <v>45987</v>
+      </c>
+      <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="E6">
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <v>-10.298932000000001</v>
+      </c>
+      <c r="L12">
+        <v>-76.637589000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
         <v>45987</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6">
-        <v>-10.298932000000001</v>
-      </c>
-      <c r="L6">
-        <v>-76.637589000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>-9.3311069999999994</v>
+      </c>
+      <c r="L13">
+        <v>-76.387878000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <v>45988</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>-6.5744930000000004</v>
+      </c>
+      <c r="L14">
+        <v>-78.727566999999993</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L8">
-    <sortCondition ref="E2:E8"/>
-    <sortCondition ref="B2:B8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L7">
+    <sortCondition ref="E2:E7"/>
+    <sortCondition ref="B2:B7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\5. COE_TABLERO_DIARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9A7291-A7FD-4ACC-A997-3243326E3009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA3F450-3E3D-4642-9847-8B7B4ECE8F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>lon</t>
-  </si>
-  <si>
-    <t>Sin novedad</t>
   </si>
   <si>
     <t>Activa</t>
@@ -586,10 +583,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -601,7 +598,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -628,7 +625,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -686,31 +683,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>45987</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2">
         <v>-6.4340320000000002</v>
@@ -724,37 +721,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E3">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>-6.6018619999999997</v>
+        <v>-10.298932000000001</v>
       </c>
       <c r="L3">
-        <v>-76.963115000000002</v>
+        <v>-76.637589000000006</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -762,37 +759,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E4">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>-7.8221109999999996</v>
+        <v>-9.3311069999999994</v>
       </c>
       <c r="L4">
-        <v>-76.274123000000003</v>
+        <v>-76.387878000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -800,37 +797,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>45988</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>-6.9910240000000003</v>
+        <v>-6.6018619999999997</v>
       </c>
       <c r="L5">
-        <v>-76.600607999999994</v>
+        <v>-76.963115000000002</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -838,37 +835,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
       </c>
       <c r="E6">
         <v>45988</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>-6.83887</v>
+        <v>-7.8221109999999996</v>
       </c>
       <c r="L6">
-        <v>-76.586524999999995</v>
+        <v>-76.274123000000003</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -876,37 +873,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>45988</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <v>-6.7053459999999996</v>
+        <v>-6.9910240000000003</v>
       </c>
       <c r="L7">
-        <v>-76.599219000000005</v>
+        <v>-76.600607999999994</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -914,37 +911,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>45988</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8">
-        <v>-6.7053459999999996</v>
+        <v>-6.83887</v>
       </c>
       <c r="L8">
-        <v>-76.599219000000005</v>
+        <v>-76.586524999999995</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -952,37 +949,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>45988</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9">
-        <v>-6.8174330000000003</v>
+        <v>-6.7053459999999996</v>
       </c>
       <c r="L9">
-        <v>-76.128618000000003</v>
+        <v>-76.599219000000005</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -990,37 +987,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>45988</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10">
-        <v>-6.8174330000000003</v>
+        <v>-6.7053459999999996</v>
       </c>
       <c r="L10">
-        <v>-76.128618000000003</v>
+        <v>-76.599219000000005</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1028,37 +1025,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>45988</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11">
-        <v>-8.8943949999999994</v>
+        <v>-6.8174330000000003</v>
       </c>
       <c r="L11">
-        <v>-75.641589999999994</v>
+        <v>-76.128618000000003</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1066,37 +1063,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>45987</v>
+        <v>45988</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12">
-        <v>-10.298932000000001</v>
+        <v>-6.8174330000000003</v>
       </c>
       <c r="L12">
-        <v>-76.637589000000006</v>
+        <v>-76.128618000000003</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1104,37 +1101,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E13">
-        <v>45987</v>
+        <v>45988</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13">
-        <v>-9.3311069999999994</v>
+        <v>-8.8943949999999994</v>
       </c>
       <c r="L13">
-        <v>-76.387878000000001</v>
+        <v>-75.641589999999994</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1142,31 +1139,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
       </c>
       <c r="E14">
         <v>45988</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14">
         <v>-6.5744930000000004</v>
@@ -1176,9 +1173,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L7">
-    <sortCondition ref="E2:E7"/>
-    <sortCondition ref="B2:B7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L6">
+    <sortCondition ref="E2:E6"/>
+    <sortCondition ref="B2:B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\5. COE_TABLERO_DIARIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHV\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA3F450-3E3D-4642-9847-8B7B4ECE8F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9ED3A4-F2DA-4983-AE50-31FDB550E568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -30,12 +30,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -176,6 +179,12 @@
   </si>
   <si>
     <t>Lajas</t>
+  </si>
+  <si>
+    <t>San José de Sisa</t>
+  </si>
+  <si>
+    <t>Personas afectadas. 1 policía fallecido</t>
   </si>
 </sst>
 </file>
@@ -185,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-280A]hh:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,7 +579,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -578,7 +587,7 @@
     <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -590,7 +599,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45988</v>
       </c>
@@ -602,13 +611,13 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="5"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="6"/>
@@ -622,13 +631,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
@@ -640,7 +649,7 @@
     <col min="10" max="10" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -716,7 +725,7 @@
         <v>-75.666836000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -754,7 +763,7 @@
         <v>-76.637589000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -792,7 +801,7 @@
         <v>-76.387878000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -830,7 +839,7 @@
         <v>-76.963115000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -868,7 +877,7 @@
         <v>-76.274123000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -906,7 +915,7 @@
         <v>-76.600607999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -944,7 +953,7 @@
         <v>-76.586524999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -982,7 +991,7 @@
         <v>-76.599219000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1020,7 +1029,7 @@
         <v>-76.599219000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1028,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>45988</v>
@@ -1040,7 +1049,7 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
@@ -1052,13 +1061,13 @@
         <v>15</v>
       </c>
       <c r="K11">
-        <v>-6.8174330000000003</v>
+        <v>-6.7053459999999996</v>
       </c>
       <c r="L11">
-        <v>-76.128618000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>-76.599219000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1066,10 +1075,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>45988</v>
@@ -1096,18 +1105,18 @@
         <v>-76.128618000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>45988</v>
@@ -1116,10 +1125,10 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1128,24 +1137,24 @@
         <v>15</v>
       </c>
       <c r="K13">
-        <v>-8.8943949999999994</v>
+        <v>-6.8174330000000003</v>
       </c>
       <c r="L13">
-        <v>-75.641589999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>-76.128618000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>45988</v>
@@ -1157,7 +1166,7 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1166,16 +1175,54 @@
         <v>15</v>
       </c>
       <c r="K14">
+        <v>-8.8943949999999994</v>
+      </c>
+      <c r="L14">
+        <v>-75.641589999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>45988</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15">
         <v>-6.5744930000000004</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>-78.727566999999993</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L6">
-    <sortCondition ref="E2:E6"/>
-    <sortCondition ref="B2:B6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L5">
+    <sortCondition ref="E2:E5"/>
+    <sortCondition ref="B2:B5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\5. COE_TABLERO_DIARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ADA5DE-9439-4C64-8B25-242C500A80C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4D55B6-4B9E-424C-AADC-612764E168BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -98,6 +98,21 @@
   </si>
   <si>
     <t>Llamellin</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Bagua</t>
+  </si>
+  <si>
+    <t>Imaza</t>
+  </si>
+  <si>
+    <t>Inundación</t>
+  </si>
+  <si>
+    <t>Activa</t>
   </si>
 </sst>
 </file>
@@ -488,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82E3603-AECB-432D-86C5-3496A76ECB9C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -517,7 +532,7 @@
         <v>45989</v>
       </c>
       <c r="B2" s="7">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -542,10 +557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -636,6 +651,44 @@
         <v>-77.007345000000001</v>
       </c>
     </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>45989</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>-4.9913400000000001</v>
+      </c>
+      <c r="L3">
+        <v>-78.389587000000006</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L2">
     <sortCondition ref="E2"/>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\5. COE_TABLERO_DIARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4D55B6-4B9E-424C-AADC-612764E168BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B99737-F461-4905-8E1B-85BD70649E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,55 @@
     <t>Imaza</t>
   </si>
   <si>
-    <t>Inundación</t>
-  </si>
-  <si>
     <t>Activa</t>
+  </si>
+  <si>
+    <t>Lluvias intensas</t>
+  </si>
+  <si>
+    <t>Aramango</t>
+  </si>
+  <si>
+    <t>Bongará</t>
+  </si>
+  <si>
+    <t>Shipasbamba</t>
+  </si>
+  <si>
+    <t>Valera</t>
+  </si>
+  <si>
+    <t>Luya</t>
+  </si>
+  <si>
+    <t>Lonya Chico</t>
+  </si>
+  <si>
+    <t>Utcubamba</t>
+  </si>
+  <si>
+    <t>Bagua Grande</t>
+  </si>
+  <si>
+    <t>Huancavelica</t>
+  </si>
+  <si>
+    <t>Huaytará</t>
+  </si>
+  <si>
+    <t>Ayavi</t>
+  </si>
+  <si>
+    <t>Incendio forestal</t>
+  </si>
+  <si>
+    <t>1 fallecido</t>
+  </si>
+  <si>
+    <t>PENSION 65: 01 usuario fallecido (Huancavelica-Ayavi)</t>
+  </si>
+  <si>
+    <t>PENSIÓN 65: 1 fallecido</t>
   </si>
 </sst>
 </file>
@@ -503,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82E3603-AECB-432D-86C5-3496A76ECB9C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -527,14 +572,16 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="4">
         <v>45989</v>
       </c>
       <c r="B2" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
@@ -557,10 +604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -668,16 +715,16 @@
         <v>45989</v>
       </c>
       <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -689,11 +736,235 @@
         <v>-78.389587000000006</v>
       </c>
     </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>45989</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>-5.3787710000000004</v>
+      </c>
+      <c r="L4">
+        <v>-78.444390999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>45989</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>-5.8837469999999996</v>
+      </c>
+      <c r="L5">
+        <v>-78.052088999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>45989</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>-6.0806339999999999</v>
+      </c>
+      <c r="L6">
+        <v>-77.869170999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>45989</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7">
+        <v>-6.2074290000000003</v>
+      </c>
+      <c r="L7">
+        <v>-78.012397000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>45989</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>-5.8388419999999996</v>
+      </c>
+      <c r="L8">
+        <v>-78.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>45987</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>-13.714586000000001</v>
+      </c>
+      <c r="L9">
+        <v>-75.368260000000006</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L2">
-    <sortCondition ref="E2"/>
-    <sortCondition ref="B2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\5. COE_TABLERO_DIARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B99737-F461-4905-8E1B-85BD70649E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D1092E-B7AD-4FF7-ADA4-66822DBA9AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>PENSIÓN 65: 1 fallecido</t>
+  </si>
+  <si>
+    <t>Tayacaja</t>
+  </si>
+  <si>
+    <t>Huachocolpa</t>
+  </si>
+  <si>
+    <t>personas y viviendas afectadas y daminificadas</t>
   </si>
 </sst>
 </file>
@@ -604,10 +613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -964,6 +973,44 @@
         <v>-75.368260000000006</v>
       </c>
     </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>45986</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>-12.057719000000001</v>
+      </c>
+      <c r="L10">
+        <v>-74.528165000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4988371-1AB8-4726-BE0E-4C91A3C3411D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C65471-A7ED-48FB-B51E-8D0A845B6CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="214">
   <si>
     <t>departamento</t>
   </si>
@@ -679,6 +679,9 @@
   </si>
   <si>
     <t>fecha_evento</t>
+  </si>
+  <si>
+    <t>CONTIGO</t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -756,7 +759,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1139,7 +1141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -1155,40 +1159,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1196,28 +1200,28 @@
       <c r="A2" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>45985</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>45981</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>34</v>
       </c>
       <c r="J2" t="s">
@@ -1234,28 +1238,28 @@
       <c r="A3" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>45985</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>45983</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>39</v>
       </c>
       <c r="J3" t="s">
@@ -1272,28 +1276,28 @@
       <c r="A4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>45985</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>45981</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>39</v>
       </c>
       <c r="J4" t="s">
@@ -1310,28 +1314,28 @@
       <c r="A5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>45985</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>45981</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>45</v>
       </c>
       <c r="J5" t="s">
@@ -1348,28 +1352,28 @@
       <c r="A6" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>45985</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>45984</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>45</v>
       </c>
       <c r="J6" t="s">
@@ -1386,28 +1390,28 @@
       <c r="A7" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>45985</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>45984</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>45</v>
       </c>
       <c r="J7" t="s">
@@ -1424,28 +1428,28 @@
       <c r="A8" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>45986</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>45985</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J8" t="s">
@@ -1462,28 +1466,28 @@
       <c r="A9" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>45986</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>45985</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J9" t="s">
@@ -1500,28 +1504,28 @@
       <c r="A10" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>45986</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>45985</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J10" t="s">
@@ -1538,28 +1542,28 @@
       <c r="A11" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>45986</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>45985</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J11" t="s">
@@ -1576,28 +1580,28 @@
       <c r="A12" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>45986</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>45985</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J12" t="s">
@@ -1614,28 +1618,28 @@
       <c r="A13" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>45986</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>45985</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J13" t="s">
@@ -1652,28 +1656,28 @@
       <c r="A14" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>45986</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>45986</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>65</v>
       </c>
       <c r="J14" t="s">
@@ -1690,28 +1694,28 @@
       <c r="A15" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>45987</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>45986</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>68</v>
       </c>
       <c r="J15" t="s">
@@ -1728,28 +1732,28 @@
       <c r="A16" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>45987</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>45986</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>72</v>
       </c>
       <c r="J16" t="s">
@@ -1766,28 +1770,28 @@
       <c r="A17" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>45987</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>45987</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>76</v>
       </c>
       <c r="J17" t="s">
@@ -1804,28 +1808,28 @@
       <c r="A18" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>45987</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>45987</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>79</v>
       </c>
       <c r="J18" t="s">
@@ -1842,28 +1846,28 @@
       <c r="A19" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>45988</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>45987</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J19" t="s">
@@ -1880,28 +1884,28 @@
       <c r="A20" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>45988</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>45987</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J20" t="s">
@@ -1918,28 +1922,28 @@
       <c r="A21" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>45988</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>45987</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J21" t="s">
@@ -1956,28 +1960,28 @@
       <c r="A22" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>45988</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>45988</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J22" t="s">
@@ -1994,28 +1998,28 @@
       <c r="A23" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>45988</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>45988</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J23" t="s">
@@ -2032,28 +2036,28 @@
       <c r="A24" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>45988</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>45988</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J24" t="s">
@@ -2070,28 +2074,28 @@
       <c r="A25" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>45988</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>45988</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J25" t="s">
@@ -2108,28 +2112,28 @@
       <c r="A26" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>45988</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>45988</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J26" t="s">
@@ -2146,28 +2150,28 @@
       <c r="A27" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>45988</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>45988</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J27" t="s">
@@ -2184,28 +2188,28 @@
       <c r="A28" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>45988</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>45988</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="10" t="s">
         <v>86</v>
       </c>
       <c r="J28" t="s">
@@ -2222,28 +2226,28 @@
       <c r="A29" t="s">
         <v>175</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>45988</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>45988</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J29" t="s">
@@ -2260,28 +2264,28 @@
       <c r="A30" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>45988</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>45988</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J30" t="s">
@@ -2298,28 +2302,28 @@
       <c r="A31" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>45988</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>45988</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J31" t="s">
@@ -2336,28 +2340,28 @@
       <c r="A32" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>45988</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>45988</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J32" t="s">
@@ -2374,28 +2378,28 @@
       <c r="A33" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>45988</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>45988</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J33" t="s">
@@ -2412,28 +2416,28 @@
       <c r="A34" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>45988</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>45988</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J34" t="s">
@@ -2450,28 +2454,28 @@
       <c r="A35" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>45989</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>45987</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J35" t="s">
@@ -2488,28 +2492,28 @@
       <c r="A36" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>45989</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>45989</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J36" t="s">
@@ -2526,28 +2530,28 @@
       <c r="A37" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>45989</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>45989</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J37" t="s">
@@ -2564,28 +2568,28 @@
       <c r="A38" t="s">
         <v>184</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>45989</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>45989</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J38" t="s">
@@ -2602,28 +2606,28 @@
       <c r="A39" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>45989</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>45989</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J39" t="s">
@@ -2640,28 +2644,28 @@
       <c r="A40" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>45989</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>45989</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J40" t="s">
@@ -2678,28 +2682,28 @@
       <c r="A41" t="s">
         <v>187</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>45989</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>45989</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J41" t="s">
@@ -2716,28 +2720,28 @@
       <c r="A42" t="s">
         <v>188</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>45989</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>45987</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="10" t="s">
         <v>119</v>
       </c>
       <c r="J42" t="s">
@@ -2754,28 +2758,28 @@
       <c r="A43" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>45989</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>45986</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="10" t="s">
         <v>122</v>
       </c>
       <c r="J43" t="s">
@@ -2792,28 +2796,28 @@
       <c r="A44" t="s">
         <v>190</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>45990</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>45989</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="10" t="s">
         <v>125</v>
       </c>
       <c r="J44" t="s">
@@ -2830,28 +2834,28 @@
       <c r="A45" t="s">
         <v>191</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>45990</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>45989</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J45" t="s">
@@ -2868,28 +2872,28 @@
       <c r="A46" t="s">
         <v>192</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>45990</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>45989</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J46" t="s">
@@ -2906,28 +2910,28 @@
       <c r="A47" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>45990</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>45989</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J47" t="s">
@@ -2944,28 +2948,28 @@
       <c r="A48" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>45990</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>45989</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J48" t="s">
@@ -2982,28 +2986,28 @@
       <c r="A49" t="s">
         <v>195</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>45990</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>45990</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J49" t="s">
@@ -3020,28 +3024,28 @@
       <c r="A50" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>45991</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>45990</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J50" t="s">
@@ -3058,28 +3062,28 @@
       <c r="A51" t="s">
         <v>197</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>45991</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>45990</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J51" t="s">
@@ -3096,28 +3100,28 @@
       <c r="A52" t="s">
         <v>198</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>45991</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>45990</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="10" t="s">
         <v>143</v>
       </c>
       <c r="J52" t="s">
@@ -3134,28 +3138,28 @@
       <c r="A53" t="s">
         <v>199</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>45991</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>45991</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J53" t="s">
@@ -3172,28 +3176,28 @@
       <c r="A54" t="s">
         <v>201</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>45991</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>45991</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J54" t="s">
@@ -3210,28 +3214,28 @@
       <c r="A55" t="s">
         <v>202</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>45991</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>45991</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="10" t="s">
         <v>210</v>
       </c>
       <c r="J55" t="s">
@@ -3248,28 +3252,28 @@
       <c r="A56" t="s">
         <v>203</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>45992</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>45992</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="I56" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J56" t="s">
@@ -3286,28 +3290,28 @@
       <c r="A57" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>45992</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>45989</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J57" t="s">
@@ -3332,10 +3336,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76891285-8E10-4C6D-BF97-82D39FCE984A}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3346,22 +3350,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3369,41 +3373,32 @@
       <c r="A2" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
@@ -3411,57 +3406,79 @@
       <c r="A5" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>16</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C65471-A7ED-48FB-B51E-8D0A845B6CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B57333E-7CF2-4C9E-BBA9-0A85AFF633C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3215,7 +3215,7 @@
         <v>202</v>
       </c>
       <c r="B55" s="7">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="C55" s="7">
         <v>45991</v>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B57333E-7CF2-4C9E-BBA9-0A85AFF633C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A553B06-4694-476F-B012-34F31AA448B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">events!$A$1:$L$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">impacto_programa!$A$1:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">impacto_programa!$A$1:$F$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="215">
   <si>
     <t>departamento</t>
   </si>
@@ -682,6 +682,9 @@
   </si>
   <si>
     <t>CONTIGO</t>
+  </si>
+  <si>
+    <t>PAIS</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -3336,10 +3339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76891285-8E10-4C6D-BF97-82D39FCE984A}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3462,13 +3465,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3476,10 +3479,32 @@
         <v>203</v>
       </c>
       <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A553B06-4694-476F-B012-34F31AA448B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC592FB-CE34-4088-A096-9A1E2C980C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="226">
   <si>
     <t>departamento</t>
   </si>
@@ -685,6 +685,39 @@
   </si>
   <si>
     <t>PAIS</t>
+  </si>
+  <si>
+    <t>EV_2025_57</t>
+  </si>
+  <si>
+    <t>Ambo</t>
+  </si>
+  <si>
+    <t>EV_2025_58</t>
+  </si>
+  <si>
+    <t>Codo del Pozuzo</t>
+  </si>
+  <si>
+    <t>Sismo</t>
+  </si>
+  <si>
+    <t>EV_2025_59</t>
+  </si>
+  <si>
+    <t>Huaribamba</t>
+  </si>
+  <si>
+    <t>EV_2025_60</t>
+  </si>
+  <si>
+    <t>EV_2025_61</t>
+  </si>
+  <si>
+    <t>EV_2025_62</t>
+  </si>
+  <si>
+    <t>Pichos</t>
   </si>
 </sst>
 </file>
@@ -1142,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="H31" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3325,6 +3358,234 @@
       </c>
       <c r="L57">
         <v>-76.486845000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" s="7">
+        <v>45992</v>
+      </c>
+      <c r="C58" s="7">
+        <v>45991</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" t="s">
+        <v>216</v>
+      </c>
+      <c r="F58" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s">
+        <v>54</v>
+      </c>
+      <c r="J58" t="s">
+        <v>12</v>
+      </c>
+      <c r="K58">
+        <v>-10.150138999999999</v>
+      </c>
+      <c r="L58">
+        <v>-76.141176999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" s="7">
+        <v>45992</v>
+      </c>
+      <c r="C59" s="7">
+        <v>45992</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" t="s">
+        <v>218</v>
+      </c>
+      <c r="G59" t="s">
+        <v>219</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59">
+        <v>-9.6343639999999997</v>
+      </c>
+      <c r="L59">
+        <v>-75.466538999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="7">
+        <v>45993</v>
+      </c>
+      <c r="C60" s="7">
+        <v>45988</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" t="s">
+        <v>221</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" t="s">
+        <v>54</v>
+      </c>
+      <c r="J60" t="s">
+        <v>12</v>
+      </c>
+      <c r="K60">
+        <v>-12.262100999999999</v>
+      </c>
+      <c r="L60">
+        <v>-74.908894000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="7">
+        <v>45993</v>
+      </c>
+      <c r="C61" s="7">
+        <v>45993</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61">
+        <v>-6.3990600000000004</v>
+      </c>
+      <c r="L61">
+        <v>-76.526042000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" s="7">
+        <v>45993</v>
+      </c>
+      <c r="C62" s="7">
+        <v>45993</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K62">
+        <v>-6.9910240000000003</v>
+      </c>
+      <c r="L62">
+        <v>-76.600607999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>224</v>
+      </c>
+      <c r="B63" s="7">
+        <v>45993</v>
+      </c>
+      <c r="C63" s="7">
+        <v>45989</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
+        <v>225</v>
+      </c>
+      <c r="G63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63">
+        <v>-12.181583</v>
+      </c>
+      <c r="L63">
+        <v>-74.933282000000005</v>
       </c>
     </row>
   </sheetData>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC592FB-CE34-4088-A096-9A1E2C980C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF2F772-9DE1-4B3F-9CE4-5AFFFF2F758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="232">
   <si>
     <t>departamento</t>
   </si>
@@ -718,6 +718,24 @@
   </si>
   <si>
     <t>Pichos</t>
+  </si>
+  <si>
+    <t>EV_2025_63</t>
+  </si>
+  <si>
+    <t>Mariscal Ramon Castilla</t>
+  </si>
+  <si>
+    <t>Ramon Castilla</t>
+  </si>
+  <si>
+    <t>EV_2025_64</t>
+  </si>
+  <si>
+    <t>Yauli</t>
+  </si>
+  <si>
+    <t>Granizadas</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="H31" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3588,6 +3606,82 @@
         <v>-74.933282000000005</v>
       </c>
     </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="7">
+        <v>45993</v>
+      </c>
+      <c r="C64" s="7">
+        <v>45993</v>
+      </c>
+      <c r="D64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" t="s">
+        <v>227</v>
+      </c>
+      <c r="F64" t="s">
+        <v>228</v>
+      </c>
+      <c r="G64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" t="s">
+        <v>54</v>
+      </c>
+      <c r="J64" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64">
+        <v>-3.6774969999999998</v>
+      </c>
+      <c r="L64">
+        <v>-70.836134999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>229</v>
+      </c>
+      <c r="B65" s="7">
+        <v>45993</v>
+      </c>
+      <c r="C65" s="7">
+        <v>45987</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" t="s">
+        <v>230</v>
+      </c>
+      <c r="G65" t="s">
+        <v>231</v>
+      </c>
+      <c r="H65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" t="s">
+        <v>54</v>
+      </c>
+      <c r="J65" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65">
+        <v>-11.678848</v>
+      </c>
+      <c r="L65">
+        <v>-75.471346999999994</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:L7">
     <sortCondition ref="D2:D7"/>
@@ -3602,7 +3696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76891285-8E10-4C6D-BF97-82D39FCE984A}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF2F772-9DE1-4B3F-9CE4-5AFFFF2F758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93358A6-4E53-4ABD-B8CE-A5121CA3B129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="234">
   <si>
     <t>departamento</t>
   </si>
@@ -736,6 +736,12 @@
   </si>
   <si>
     <t>Granizadas</t>
+  </si>
+  <si>
+    <t>EV_2025_65</t>
+  </si>
+  <si>
+    <t>Pardo Miguel</t>
   </si>
 </sst>
 </file>
@@ -781,7 +787,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -789,11 +795,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -821,6 +842,18 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1193,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3644,7 +3677,7 @@
         <v>-70.836134999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" ht="15.75" thickBot="1">
       <c r="A65" t="s">
         <v>229</v>
       </c>
@@ -3680,6 +3713,44 @@
       </c>
       <c r="L65">
         <v>-75.471346999999994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A66" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="12">
+        <v>45994</v>
+      </c>
+      <c r="C66" s="12">
+        <v>45993</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66" s="14">
+        <v>-5.7487069999999996</v>
+      </c>
+      <c r="L66" s="14">
+        <v>-77.634146999999999</v>
       </c>
     </row>
   </sheetData>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93358A6-4E53-4ABD-B8CE-A5121CA3B129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3D8CFB-0CAD-4212-BCDB-D1A858282096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="237">
   <si>
     <t>departamento</t>
   </si>
@@ -742,6 +742,15 @@
   </si>
   <si>
     <t>Pardo Miguel</t>
+  </si>
+  <si>
+    <t>EV_2025_66</t>
+  </si>
+  <si>
+    <t>Pomabamba</t>
+  </si>
+  <si>
+    <t>Huayllán</t>
   </si>
 </sst>
 </file>
@@ -787,7 +796,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -795,26 +804,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -842,18 +836,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1226,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3677,7 +3659,7 @@
         <v>-70.836134999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" thickBot="1">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>229</v>
       </c>
@@ -3715,42 +3697,80 @@
         <v>-75.471346999999994</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A66" s="11" t="s">
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
         <v>232</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="7">
         <v>45994</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="7">
         <v>45993</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" t="s">
         <v>88</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" t="s">
         <v>233</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G66" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H66" t="s">
         <v>31</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="I66" t="s">
         <v>54</v>
       </c>
-      <c r="J66" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K66" s="14">
+      <c r="J66" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66">
         <v>-5.7487069999999996</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L66">
         <v>-77.634146999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" s="7">
+        <v>45994</v>
+      </c>
+      <c r="C67" s="7">
+        <v>45992</v>
+      </c>
+      <c r="D67" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" t="s">
+        <v>235</v>
+      </c>
+      <c r="F67" t="s">
+        <v>236</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" t="s">
+        <v>54</v>
+      </c>
+      <c r="J67" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67">
+        <v>-8.8897169999999992</v>
+      </c>
+      <c r="L67">
+        <v>-77.466279</v>
       </c>
     </row>
   </sheetData>
@@ -3768,7 +3788,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3D8CFB-0CAD-4212-BCDB-D1A858282096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EF9F49-6CEA-4D76-9DF0-6C4E4894ED73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="237">
   <si>
     <t>departamento</t>
   </si>
@@ -1210,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
@@ -3785,10 +3785,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76891285-8E10-4C6D-BF97-82D39FCE984A}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3953,6 +3953,47 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EF9F49-6CEA-4D76-9DF0-6C4E4894ED73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E9ABBC-EBB9-45DB-AF19-5484D5BA141D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="239">
   <si>
     <t>departamento</t>
   </si>
@@ -751,6 +751,12 @@
   </si>
   <si>
     <t>Huayllán</t>
+  </si>
+  <si>
+    <t>EV_2025_67</t>
+  </si>
+  <si>
+    <t>Veintiseis de Octubre</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3739,10 +3745,10 @@
       <c r="A67" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67">
         <v>45994</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67">
         <v>45992</v>
       </c>
       <c r="D67" t="s">
@@ -3771,6 +3777,44 @@
       </c>
       <c r="L67">
         <v>-77.466279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>237</v>
+      </c>
+      <c r="B68">
+        <v>45994</v>
+      </c>
+      <c r="C68">
+        <v>45993</v>
+      </c>
+      <c r="D68" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" t="s">
+        <v>238</v>
+      </c>
+      <c r="G68" t="s">
+        <v>135</v>
+      </c>
+      <c r="H68" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" t="s">
+        <v>54</v>
+      </c>
+      <c r="J68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68">
+        <v>-5.1613850000000001</v>
+      </c>
+      <c r="L68">
+        <v>-80.696541999999994</v>
       </c>
     </row>
   </sheetData>
@@ -3788,7 +3832,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E9ABBC-EBB9-45DB-AF19-5484D5BA141D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CBDE01-79C5-4977-AEFD-A2DEB31CB85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="246">
   <si>
     <t>departamento</t>
   </si>
@@ -757,6 +757,27 @@
   </si>
   <si>
     <t>Veintiseis de Octubre</t>
+  </si>
+  <si>
+    <t>EV_2025_68</t>
+  </si>
+  <si>
+    <t>Pachitea</t>
+  </si>
+  <si>
+    <t>Chaglla</t>
+  </si>
+  <si>
+    <t>EV_2025_69</t>
+  </si>
+  <si>
+    <t>Kimbiri</t>
+  </si>
+  <si>
+    <t>EV_2025_70</t>
+  </si>
+  <si>
+    <t>Pilchaca</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3817,6 +3838,120 @@
         <v>-80.696541999999994</v>
       </c>
     </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>239</v>
+      </c>
+      <c r="B69">
+        <v>45995</v>
+      </c>
+      <c r="C69">
+        <v>45994</v>
+      </c>
+      <c r="D69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" t="s">
+        <v>240</v>
+      </c>
+      <c r="F69" t="s">
+        <v>241</v>
+      </c>
+      <c r="G69" t="s">
+        <v>127</v>
+      </c>
+      <c r="H69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" t="s">
+        <v>54</v>
+      </c>
+      <c r="J69" t="s">
+        <v>12</v>
+      </c>
+      <c r="K69">
+        <v>-9.7371599999999994</v>
+      </c>
+      <c r="L69">
+        <v>-75.797554000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>242</v>
+      </c>
+      <c r="B70">
+        <v>45995</v>
+      </c>
+      <c r="C70">
+        <v>45993</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" t="s">
+        <v>243</v>
+      </c>
+      <c r="G70" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" t="s">
+        <v>31</v>
+      </c>
+      <c r="I70" t="s">
+        <v>54</v>
+      </c>
+      <c r="J70" t="s">
+        <v>12</v>
+      </c>
+      <c r="K70">
+        <v>-12.551551999999999</v>
+      </c>
+      <c r="L70">
+        <v>-73.668769999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71">
+        <v>45995</v>
+      </c>
+      <c r="C71">
+        <v>45994</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71" t="s">
+        <v>245</v>
+      </c>
+      <c r="G71" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" t="s">
+        <v>54</v>
+      </c>
+      <c r="J71" t="s">
+        <v>12</v>
+      </c>
+      <c r="K71">
+        <v>-12.413614000000001</v>
+      </c>
+      <c r="L71">
+        <v>-75.088992000000005</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:L7">
     <sortCondition ref="D2:D7"/>
@@ -3829,10 +3964,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76891285-8E10-4C6D-BF97-82D39FCE984A}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3966,13 +4101,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
+        <v>103</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3980,10 +4115,10 @@
         <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3991,50 +4126,108 @@
         <v>203</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
         <v>101</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
         <v>213</v>
       </c>
       <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
     </row>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CBDE01-79C5-4977-AEFD-A2DEB31CB85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C258ADA7-324D-4E67-84CD-A83818C5BA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="248">
   <si>
     <t>departamento</t>
   </si>
@@ -778,6 +778,12 @@
   </si>
   <si>
     <t>Pilchaca</t>
+  </si>
+  <si>
+    <t>EV_2025_72</t>
+  </si>
+  <si>
+    <t>CUNA MÁS</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1244,7 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3964,10 +3970,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76891285-8E10-4C6D-BF97-82D39FCE984A}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4165,7 +4171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -4176,7 +4182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -4187,7 +4193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>166</v>
       </c>
@@ -4198,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>224</v>
       </c>
@@ -4209,7 +4215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -4220,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>239</v>
       </c>
@@ -4228,6 +4234,17 @@
         <v>101</v>
       </c>
       <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
     </row>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C258ADA7-324D-4E67-84CD-A83818C5BA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9826AF7F-3275-4BF9-8E00-F1207C55AF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="259">
   <si>
     <t>departamento</t>
   </si>
@@ -784,6 +784,39 @@
   </si>
   <si>
     <t>CUNA MÁS</t>
+  </si>
+  <si>
+    <t>EV_2025_71</t>
+  </si>
+  <si>
+    <t>Andaymarca</t>
+  </si>
+  <si>
+    <t>Atalaya</t>
+  </si>
+  <si>
+    <t>Sepahua</t>
+  </si>
+  <si>
+    <t>Limpieza y secado en CIAI</t>
+  </si>
+  <si>
+    <t>EV_2025_73</t>
+  </si>
+  <si>
+    <t>Apurimac</t>
+  </si>
+  <si>
+    <t>San Pedro De Cachora</t>
+  </si>
+  <si>
+    <t>EV_2025_74</t>
+  </si>
+  <si>
+    <t>Huancané</t>
+  </si>
+  <si>
+    <t>Personas heridas y fallecida</t>
   </si>
 </sst>
 </file>
@@ -1241,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3772,10 +3805,10 @@
       <c r="A67" t="s">
         <v>234</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="7">
         <v>45994</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="7">
         <v>45992</v>
       </c>
       <c r="D67" t="s">
@@ -3810,10 +3843,10 @@
       <c r="A68" t="s">
         <v>237</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="7">
         <v>45994</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="7">
         <v>45993</v>
       </c>
       <c r="D68" t="s">
@@ -3848,10 +3881,10 @@
       <c r="A69" t="s">
         <v>239</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="7">
         <v>45995</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="7">
         <v>45994</v>
       </c>
       <c r="D69" t="s">
@@ -3886,10 +3919,10 @@
       <c r="A70" t="s">
         <v>242</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="7">
         <v>45995</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="7">
         <v>45993</v>
       </c>
       <c r="D70" t="s">
@@ -3924,10 +3957,10 @@
       <c r="A71" t="s">
         <v>244</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="7">
         <v>45995</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="7">
         <v>45994</v>
       </c>
       <c r="D71" t="s">
@@ -3956,6 +3989,158 @@
       </c>
       <c r="L71">
         <v>-75.088992000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>248</v>
+      </c>
+      <c r="B72" s="7">
+        <v>45995</v>
+      </c>
+      <c r="C72" s="7">
+        <v>45992</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" t="s">
+        <v>249</v>
+      </c>
+      <c r="G72" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" t="s">
+        <v>54</v>
+      </c>
+      <c r="J72" t="s">
+        <v>12</v>
+      </c>
+      <c r="K72">
+        <v>-12.298541999999999</v>
+      </c>
+      <c r="L72">
+        <v>-74.632737000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>246</v>
+      </c>
+      <c r="B73" s="7">
+        <v>45995</v>
+      </c>
+      <c r="C73" s="7">
+        <v>45994</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" t="s">
+        <v>250</v>
+      </c>
+      <c r="F73" t="s">
+        <v>251</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" t="s">
+        <v>54</v>
+      </c>
+      <c r="J73" t="s">
+        <v>252</v>
+      </c>
+      <c r="K73">
+        <v>-11.083704000000001</v>
+      </c>
+      <c r="L73">
+        <v>-72.813839999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>253</v>
+      </c>
+      <c r="B74" s="7">
+        <v>45995</v>
+      </c>
+      <c r="C74" s="7">
+        <v>45994</v>
+      </c>
+      <c r="D74" t="s">
+        <v>254</v>
+      </c>
+      <c r="E74" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" t="s">
+        <v>255</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K74">
+        <v>-13.488846000000001</v>
+      </c>
+      <c r="L74">
+        <v>-72.814003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>256</v>
+      </c>
+      <c r="B75" s="7">
+        <v>45996</v>
+      </c>
+      <c r="C75" s="7">
+        <v>45995</v>
+      </c>
+      <c r="D75" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" t="s">
+        <v>257</v>
+      </c>
+      <c r="F75" t="s">
+        <v>257</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" t="s">
+        <v>258</v>
+      </c>
+      <c r="J75" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75">
+        <v>-15.183208</v>
+      </c>
+      <c r="L75">
+        <v>-69.809021000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3970,10 +4155,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76891285-8E10-4C6D-BF97-82D39FCE984A}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4248,6 +4433,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9826AF7F-3275-4BF9-8E00-F1207C55AF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDA2346-55F6-48C5-AF02-9C63609C1CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4125,7 +4125,7 @@
         <v>257</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="H75" t="s">
         <v>31</v>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHV\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDA2346-55F6-48C5-AF02-9C63609C1CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA103BCF-E4CE-4AE6-A255-18D6C32E7281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -35,12 +35,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="281">
   <si>
     <t>departamento</t>
   </si>
@@ -817,6 +820,72 @@
   </si>
   <si>
     <t>Personas heridas y fallecida</t>
+  </si>
+  <si>
+    <t>En espera de entrega de BAH a usuarios afectados</t>
+  </si>
+  <si>
+    <t>Culminó labores de limpieza en viviendas de usuarios PN Pension 65 afectados</t>
+  </si>
+  <si>
+    <t>Sin daños en el programa</t>
+  </si>
+  <si>
+    <t>EV_2025_75</t>
+  </si>
+  <si>
+    <t>Manantay</t>
+  </si>
+  <si>
+    <t>EV_2025_76</t>
+  </si>
+  <si>
+    <t>Deslizamiento</t>
+  </si>
+  <si>
+    <t>EV_2025_77</t>
+  </si>
+  <si>
+    <t>Circay</t>
+  </si>
+  <si>
+    <t>Vía afectada</t>
+  </si>
+  <si>
+    <t>EV_2025_78</t>
+  </si>
+  <si>
+    <t>Lucanas</t>
+  </si>
+  <si>
+    <t>Chipao</t>
+  </si>
+  <si>
+    <t>Pastizales y fauna</t>
+  </si>
+  <si>
+    <t>EV_2025_79</t>
+  </si>
+  <si>
+    <t>Canta</t>
+  </si>
+  <si>
+    <t>EV_2025_80</t>
+  </si>
+  <si>
+    <t>Dos de Mayo</t>
+  </si>
+  <si>
+    <t>Sillapata</t>
+  </si>
+  <si>
+    <t>Heladas</t>
+  </si>
+  <si>
+    <t>Cultivos</t>
+  </si>
+  <si>
+    <t>En evaluación en curso</t>
   </si>
 </sst>
 </file>
@@ -826,7 +895,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-280A]hh:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -894,14 +963,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,7 +1284,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -1230,7 +1292,7 @@
     <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1242,7 +1304,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45988</v>
       </c>
@@ -1254,13 +1316,13 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="4"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5"/>
@@ -1274,13 +1336,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
@@ -1293,70 +1355,70 @@
     <col min="10" max="10" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>45985</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>45981</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" t="s">
         <v>34</v>
       </c>
       <c r="J2" t="s">
@@ -1369,32 +1431,32 @@
         <v>-74.966841000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>45985</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>45983</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" t="s">
         <v>39</v>
       </c>
       <c r="J3" t="s">
@@ -1407,32 +1469,32 @@
         <v>-72.732980999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>45985</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>45981</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" t="s">
         <v>39</v>
       </c>
       <c r="J4" t="s">
@@ -1445,32 +1507,32 @@
         <v>-75.641589999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>45985</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>45981</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" t="s">
         <v>45</v>
       </c>
       <c r="J5" t="s">
@@ -1483,32 +1545,32 @@
         <v>-73.229284000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>45985</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>45984</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" t="s">
         <v>45</v>
       </c>
       <c r="J6" t="s">
@@ -1521,32 +1583,32 @@
         <v>-73.031732000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>45985</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>45984</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" t="s">
         <v>45</v>
       </c>
       <c r="J7" t="s">
@@ -1559,32 +1621,32 @@
         <v>-76.468245999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>45986</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>45985</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" t="s">
         <v>54</v>
       </c>
       <c r="J8" t="s">
@@ -1597,32 +1659,32 @@
         <v>-74.319999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>45986</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>45985</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" t="s">
         <v>54</v>
       </c>
       <c r="J9" t="s">
@@ -1635,32 +1697,32 @@
         <v>-70.011899999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>45986</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>45985</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" t="s">
         <v>21</v>
       </c>
       <c r="J10" t="s">
@@ -1673,32 +1735,32 @@
         <v>-76.972292999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>45986</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>45985</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" t="s">
         <v>21</v>
       </c>
       <c r="J11" t="s">
@@ -1711,32 +1773,32 @@
         <v>-76.637243999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>45986</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>45985</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" t="s">
         <v>21</v>
       </c>
       <c r="J12" t="s">
@@ -1749,32 +1811,32 @@
         <v>-76.137507999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>45986</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>45985</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" t="s">
         <v>21</v>
       </c>
       <c r="J13" t="s">
@@ -1787,32 +1849,32 @@
         <v>-76.211016999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <v>45986</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>45986</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" t="s">
         <v>104</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" t="s">
         <v>65</v>
       </c>
       <c r="J14" t="s">
@@ -1825,36 +1887,36 @@
         <v>-77.208600000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>45987</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>45986</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" t="s">
         <v>68</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="K15">
         <v>-6.8402329999999996</v>
@@ -1863,32 +1925,32 @@
         <v>-76.363045999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>45987</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>45986</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" t="s">
         <v>72</v>
       </c>
       <c r="J16" t="s">
@@ -1901,32 +1963,32 @@
         <v>-75.371273000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>45987</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>45987</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" t="s">
         <v>76</v>
       </c>
       <c r="J17" t="s">
@@ -1939,32 +2001,32 @@
         <v>-73.984493000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>45987</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <v>45987</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" t="s">
         <v>79</v>
       </c>
       <c r="J18" t="s">
@@ -1977,32 +2039,32 @@
         <v>-74.569946999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>45988</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19">
         <v>45987</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="H19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" t="s">
         <v>18</v>
       </c>
       <c r="J19" t="s">
@@ -2015,33 +2077,33 @@
         <v>-75.666836000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>45988</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20">
         <v>45987</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="10" t="s">
-        <v>15</v>
+      <c r="I20" t="s">
+        <v>68</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -2053,32 +2115,32 @@
         <v>-76.637589000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>45988</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21">
         <v>45987</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" t="s">
         <v>15</v>
       </c>
       <c r="J21" t="s">
@@ -2091,32 +2153,32 @@
         <v>-76.387878000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>45988</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22">
         <v>45988</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="10" t="s">
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" t="s">
         <v>21</v>
       </c>
       <c r="J22" t="s">
@@ -2129,32 +2191,32 @@
         <v>-76.963115000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>45988</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>45988</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="10" t="s">
+      <c r="H23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" t="s">
         <v>21</v>
       </c>
       <c r="J23" t="s">
@@ -2167,32 +2229,32 @@
         <v>-76.274123000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>45988</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>45988</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="10" t="s">
+      <c r="H24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" t="s">
         <v>21</v>
       </c>
       <c r="J24" t="s">
@@ -2205,32 +2267,32 @@
         <v>-76.600607999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>45988</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25">
         <v>45988</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="H25" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" t="s">
         <v>21</v>
       </c>
       <c r="J25" t="s">
@@ -2243,32 +2305,32 @@
         <v>-76.586524999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>45988</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
         <v>45988</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="10" t="s">
+      <c r="H26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" t="s">
         <v>21</v>
       </c>
       <c r="J26" t="s">
@@ -2281,32 +2343,32 @@
         <v>-76.599219000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>45988</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27">
         <v>45988</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="10" t="s">
+      <c r="H27" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" t="s">
         <v>21</v>
       </c>
       <c r="J27" t="s">
@@ -2319,32 +2381,32 @@
         <v>-76.599219000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>45988</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>45988</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="10" t="s">
+      <c r="H28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" t="s">
         <v>86</v>
       </c>
       <c r="J28" t="s">
@@ -2357,32 +2419,32 @@
         <v>-76.599219000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>175</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>45988</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29">
         <v>45988</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="10" t="s">
+      <c r="H29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" t="s">
         <v>21</v>
       </c>
       <c r="J29" t="s">
@@ -2395,32 +2457,32 @@
         <v>-76.128618000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>45988</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>45988</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" t="s">
         <v>88</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="10" t="s">
+      <c r="H30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" t="s">
         <v>21</v>
       </c>
       <c r="J30" t="s">
@@ -2433,32 +2495,32 @@
         <v>-76.128618000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>45988</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31">
         <v>45988</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="10" t="s">
+      <c r="H31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" t="s">
         <v>54</v>
       </c>
       <c r="J31" t="s">
@@ -2471,32 +2533,32 @@
         <v>-76.468366000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>45988</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <v>45988</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="10" t="s">
+      <c r="H32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" t="s">
         <v>15</v>
       </c>
       <c r="J32" t="s">
@@ -2509,32 +2571,32 @@
         <v>-75.641589999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33">
         <v>45988</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33">
         <v>45988</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" t="s">
         <v>15</v>
       </c>
       <c r="J33" t="s">
@@ -2547,32 +2609,32 @@
         <v>-78.727566999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34">
         <v>45988</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34">
         <v>45988</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" t="s">
         <v>15</v>
       </c>
       <c r="J34" t="s">
@@ -2585,32 +2647,32 @@
         <v>-77.733911000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35">
         <v>45989</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35">
         <v>45987</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="10" t="s">
+      <c r="H35" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" t="s">
         <v>15</v>
       </c>
       <c r="J35" t="s">
@@ -2623,32 +2685,32 @@
         <v>-77.007345000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36">
         <v>45989</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36">
         <v>45989</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" t="s">
         <v>108</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="10" t="s">
+      <c r="H36" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36" t="s">
         <v>15</v>
       </c>
       <c r="J36" t="s">
@@ -2661,32 +2723,32 @@
         <v>-78.389587000000006</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37">
         <v>45989</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37">
         <v>45989</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" t="s">
         <v>109</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="10" t="s">
+      <c r="H37" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" t="s">
         <v>15</v>
       </c>
       <c r="J37" t="s">
@@ -2699,32 +2761,32 @@
         <v>-78.444390999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>184</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38">
         <v>45989</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38">
         <v>45989</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" t="s">
         <v>111</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="10" t="s">
+      <c r="H38" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" t="s">
         <v>15</v>
       </c>
       <c r="J38" t="s">
@@ -2737,32 +2799,32 @@
         <v>-78.052088999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39">
         <v>45989</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39">
         <v>45989</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" t="s">
         <v>112</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="10" t="s">
+      <c r="H39" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" t="s">
         <v>15</v>
       </c>
       <c r="J39" t="s">
@@ -2775,32 +2837,32 @@
         <v>-77.869170999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40">
         <v>45989</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40">
         <v>45989</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" t="s">
         <v>114</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="10" t="s">
+      <c r="H40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" t="s">
         <v>15</v>
       </c>
       <c r="J40" t="s">
@@ -2813,32 +2875,32 @@
         <v>-78.012397000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>187</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41">
         <v>45989</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41">
         <v>45989</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="10" t="s">
+      <c r="H41" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" t="s">
         <v>15</v>
       </c>
       <c r="J41" t="s">
@@ -2851,32 +2913,32 @@
         <v>-78.44</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>188</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42">
         <v>45989</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42">
         <v>45987</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" t="s">
         <v>118</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" t="s">
         <v>119</v>
       </c>
       <c r="J42" t="s">
@@ -2889,32 +2951,32 @@
         <v>-75.368260000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43">
         <v>45989</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43">
         <v>45986</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" t="s">
         <v>120</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" t="s">
         <v>121</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" t="s">
         <v>122</v>
       </c>
       <c r="J43" t="s">
@@ -2927,32 +2989,32 @@
         <v>-74.528165000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>190</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44">
         <v>45990</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44">
         <v>45989</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" t="s">
         <v>124</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" s="10" t="s">
+      <c r="H44" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" t="s">
         <v>125</v>
       </c>
       <c r="J44" t="s">
@@ -2965,32 +3027,32 @@
         <v>-77.220343999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>191</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45">
         <v>45990</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45">
         <v>45989</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" t="s">
         <v>126</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" t="s">
         <v>127</v>
       </c>
-      <c r="H45" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I45" s="10" t="s">
+      <c r="H45" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" t="s">
         <v>54</v>
       </c>
       <c r="J45" t="s">
@@ -3003,32 +3065,32 @@
         <v>-73.387912</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>192</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46">
         <v>45990</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46">
         <v>45989</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" t="s">
         <v>129</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" t="s">
         <v>71</v>
       </c>
-      <c r="H46" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I46" s="10" t="s">
+      <c r="H46" t="s">
+        <v>104</v>
+      </c>
+      <c r="I46" t="s">
         <v>54</v>
       </c>
       <c r="J46" t="s">
@@ -3041,32 +3103,32 @@
         <v>-78.479500000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47">
         <v>45990</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47">
         <v>45989</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" t="s">
         <v>131</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="10" t="s">
+      <c r="H47" t="s">
+        <v>104</v>
+      </c>
+      <c r="I47" t="s">
         <v>54</v>
       </c>
       <c r="J47" t="s">
@@ -3079,32 +3141,32 @@
         <v>-77.930373000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48">
         <v>45990</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48">
         <v>45989</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" t="s">
         <v>132</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I48" s="10" t="s">
+      <c r="H48" t="s">
+        <v>104</v>
+      </c>
+      <c r="I48" t="s">
         <v>54</v>
       </c>
       <c r="J48" t="s">
@@ -3117,32 +3179,32 @@
         <v>-76.495669000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>195</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49">
         <v>45990</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49">
         <v>45990</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" t="s">
         <v>134</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" t="s">
         <v>134</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" t="s">
         <v>135</v>
       </c>
-      <c r="H49" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="10" t="s">
+      <c r="H49" t="s">
+        <v>104</v>
+      </c>
+      <c r="I49" t="s">
         <v>54</v>
       </c>
       <c r="J49" t="s">
@@ -3155,32 +3217,32 @@
         <v>-71.213538</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50">
         <v>45991</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50">
         <v>45990</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" t="s">
         <v>136</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" t="s">
         <v>71</v>
       </c>
-      <c r="H50" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I50" s="10" t="s">
+      <c r="H50" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" t="s">
         <v>54</v>
       </c>
       <c r="J50" t="s">
@@ -3193,32 +3255,32 @@
         <v>-76.755578999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>197</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51">
         <v>45991</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51">
         <v>45990</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" t="s">
         <v>135</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="H51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" t="s">
         <v>54</v>
       </c>
       <c r="J51" t="s">
@@ -3231,32 +3293,32 @@
         <v>-81.043530000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>198</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52">
         <v>45991</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52">
         <v>45990</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" t="s">
         <v>140</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" t="s">
         <v>141</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" t="s">
         <v>142</v>
       </c>
-      <c r="H52" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I52" s="10" t="s">
+      <c r="H52" t="s">
+        <v>104</v>
+      </c>
+      <c r="I52" t="s">
         <v>143</v>
       </c>
       <c r="J52" t="s">
@@ -3269,32 +3331,32 @@
         <v>-69.393176999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>199</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53">
         <v>45991</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53">
         <v>45991</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" t="s">
         <v>144</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" t="s">
         <v>145</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" t="s">
         <v>135</v>
       </c>
-      <c r="H53" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="10" t="s">
+      <c r="H53" t="s">
+        <v>104</v>
+      </c>
+      <c r="I53" t="s">
         <v>54</v>
       </c>
       <c r="J53" t="s">
@@ -3307,32 +3369,32 @@
         <v>-74.160190999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>201</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54">
         <v>45991</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54">
         <v>45991</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" t="s">
         <v>144</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" t="s">
         <v>145</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" t="s">
         <v>135</v>
       </c>
-      <c r="H54" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" s="10" t="s">
+      <c r="H54" t="s">
+        <v>104</v>
+      </c>
+      <c r="I54" t="s">
         <v>54</v>
       </c>
       <c r="J54" t="s">
@@ -3345,32 +3407,32 @@
         <v>-74.160190999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>202</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55">
         <v>45992</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55">
         <v>45991</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" t="s">
         <v>205</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" t="s">
         <v>206</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" t="s">
         <v>33</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" t="s">
         <v>31</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" t="s">
         <v>210</v>
       </c>
       <c r="J55" t="s">
@@ -3383,32 +3445,32 @@
         <v>-77.107757000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>203</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56">
         <v>45992</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56">
         <v>45992</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" t="s">
         <v>207</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" t="s">
         <v>209</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" t="s">
         <v>9</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I56" t="s">
         <v>15</v>
       </c>
       <c r="J56" t="s">
@@ -3421,32 +3483,32 @@
         <v>-74.137224000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57">
         <v>45992</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57">
         <v>45989</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" t="s">
         <v>208</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" t="s">
         <v>33</v>
       </c>
-      <c r="H57" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I57" s="10" t="s">
+      <c r="H57" t="s">
+        <v>104</v>
+      </c>
+      <c r="I57" t="s">
         <v>54</v>
       </c>
       <c r="J57" t="s">
@@ -3459,14 +3521,14 @@
         <v>-76.486845000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>215</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58">
         <v>45992</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58">
         <v>45991</v>
       </c>
       <c r="D58" t="s">
@@ -3497,14 +3559,14 @@
         <v>-76.141176999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>217</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59">
         <v>45992</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59">
         <v>45992</v>
       </c>
       <c r="D59" t="s">
@@ -3535,14 +3597,14 @@
         <v>-75.466538999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>220</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60">
         <v>45993</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60">
         <v>45988</v>
       </c>
       <c r="D60" t="s">
@@ -3573,14 +3635,14 @@
         <v>-74.908894000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>222</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61">
         <v>45993</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61">
         <v>45993</v>
       </c>
       <c r="D61" t="s">
@@ -3611,14 +3673,14 @@
         <v>-76.526042000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>223</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62">
         <v>45993</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62">
         <v>45993</v>
       </c>
       <c r="D62" t="s">
@@ -3649,14 +3711,14 @@
         <v>-76.600607999999994</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>224</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63">
         <v>45993</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63">
         <v>45989</v>
       </c>
       <c r="D63" t="s">
@@ -3687,14 +3749,14 @@
         <v>-74.933282000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>226</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64">
         <v>45993</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64">
         <v>45993</v>
       </c>
       <c r="D64" t="s">
@@ -3725,14 +3787,14 @@
         <v>-70.836134999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>229</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65">
         <v>45993</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65">
         <v>45987</v>
       </c>
       <c r="D65" t="s">
@@ -3763,14 +3825,14 @@
         <v>-75.471346999999994</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>232</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66">
         <v>45994</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66">
         <v>45993</v>
       </c>
       <c r="D66" t="s">
@@ -3792,7 +3854,7 @@
         <v>54</v>
       </c>
       <c r="J66" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="K66">
         <v>-5.7487069999999996</v>
@@ -3801,14 +3863,14 @@
         <v>-77.634146999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67">
         <v>45994</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67">
         <v>45992</v>
       </c>
       <c r="D67" t="s">
@@ -3839,14 +3901,14 @@
         <v>-77.466279</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>237</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68">
         <v>45994</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68">
         <v>45993</v>
       </c>
       <c r="D68" t="s">
@@ -3862,7 +3924,7 @@
         <v>135</v>
       </c>
       <c r="H68" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I68" t="s">
         <v>54</v>
@@ -3877,14 +3939,14 @@
         <v>-80.696541999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>239</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69">
         <v>45995</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69">
         <v>45994</v>
       </c>
       <c r="D69" t="s">
@@ -3915,14 +3977,14 @@
         <v>-75.797554000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>242</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70">
         <v>45995</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70">
         <v>45993</v>
       </c>
       <c r="D70" t="s">
@@ -3953,14 +4015,14 @@
         <v>-73.668769999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>244</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71">
         <v>45995</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71">
         <v>45994</v>
       </c>
       <c r="D71" t="s">
@@ -3991,14 +4053,14 @@
         <v>-75.088992000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>248</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72">
         <v>45995</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72">
         <v>45992</v>
       </c>
       <c r="D72" t="s">
@@ -4029,14 +4091,14 @@
         <v>-74.632737000000006</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>246</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73">
         <v>45995</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73">
         <v>45994</v>
       </c>
       <c r="D73" t="s">
@@ -4067,14 +4129,14 @@
         <v>-72.813839999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>253</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74">
         <v>45995</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74">
         <v>45994</v>
       </c>
       <c r="D74" t="s">
@@ -4105,14 +4167,14 @@
         <v>-72.814003</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>256</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75">
         <v>45996</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75">
         <v>45995</v>
       </c>
       <c r="D75" t="s">
@@ -4134,13 +4196,241 @@
         <v>258</v>
       </c>
       <c r="J75" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="K75">
         <v>-15.183208</v>
       </c>
       <c r="L75">
         <v>-69.809021000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>262</v>
+      </c>
+      <c r="B76">
+        <v>45996</v>
+      </c>
+      <c r="C76">
+        <v>45996</v>
+      </c>
+      <c r="D76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
+        <v>263</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" t="s">
+        <v>12</v>
+      </c>
+      <c r="K76">
+        <v>-8.5384309999999992</v>
+      </c>
+      <c r="L76">
+        <v>-74.509163999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>264</v>
+      </c>
+      <c r="B77">
+        <v>45996</v>
+      </c>
+      <c r="C77">
+        <v>45996</v>
+      </c>
+      <c r="D77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" t="s">
+        <v>46</v>
+      </c>
+      <c r="G77" t="s">
+        <v>265</v>
+      </c>
+      <c r="H77" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" t="s">
+        <v>12</v>
+      </c>
+      <c r="K77">
+        <v>-13.635842</v>
+      </c>
+      <c r="L77">
+        <v>-72.871611999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>266</v>
+      </c>
+      <c r="B78">
+        <v>45996</v>
+      </c>
+      <c r="C78">
+        <v>45996</v>
+      </c>
+      <c r="D78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" t="s">
+        <v>267</v>
+      </c>
+      <c r="G78" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" t="s">
+        <v>268</v>
+      </c>
+      <c r="J78" t="s">
+        <v>261</v>
+      </c>
+      <c r="K78">
+        <v>-13.974194000000001</v>
+      </c>
+      <c r="L78">
+        <v>-72.891520999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>269</v>
+      </c>
+      <c r="B79">
+        <v>45997</v>
+      </c>
+      <c r="C79">
+        <v>45997</v>
+      </c>
+      <c r="D79" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" t="s">
+        <v>270</v>
+      </c>
+      <c r="F79" t="s">
+        <v>271</v>
+      </c>
+      <c r="G79" t="s">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" t="s">
+        <v>272</v>
+      </c>
+      <c r="J79" t="s">
+        <v>261</v>
+      </c>
+      <c r="K79">
+        <v>-14.477164999999999</v>
+      </c>
+      <c r="L79">
+        <v>-73.757418000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>273</v>
+      </c>
+      <c r="B80">
+        <v>45998</v>
+      </c>
+      <c r="C80">
+        <v>45998</v>
+      </c>
+      <c r="D80" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80" t="s">
+        <v>274</v>
+      </c>
+      <c r="F80" t="s">
+        <v>274</v>
+      </c>
+      <c r="G80" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" t="s">
+        <v>45</v>
+      </c>
+      <c r="J80" t="s">
+        <v>261</v>
+      </c>
+      <c r="K80">
+        <v>-11.475307000000001</v>
+      </c>
+      <c r="L80">
+        <v>-76.582296999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>275</v>
+      </c>
+      <c r="B81">
+        <v>45998</v>
+      </c>
+      <c r="C81">
+        <v>45997</v>
+      </c>
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" t="s">
+        <v>276</v>
+      </c>
+      <c r="F81" t="s">
+        <v>277</v>
+      </c>
+      <c r="G81" t="s">
+        <v>278</v>
+      </c>
+      <c r="H81" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" t="s">
+        <v>279</v>
+      </c>
+      <c r="J81" t="s">
+        <v>280</v>
+      </c>
+      <c r="K81">
+        <v>-9.7938259999999993</v>
+      </c>
+      <c r="L81">
+        <v>-76.766863000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4155,20 +4445,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76891285-8E10-4C6D-BF97-82D39FCE984A}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="4" width="19" customWidth="1"/>
     <col min="5" max="9" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -4188,7 +4478,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>148</v>
       </c>
@@ -4199,7 +4489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -4210,7 +4500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -4221,7 +4511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -4232,7 +4522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -4243,7 +4533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -4254,7 +4544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -4268,7 +4558,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -4279,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>202</v>
       </c>
@@ -4290,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>202</v>
       </c>
@@ -4301,7 +4591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -4312,7 +4602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -4323,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -4334,7 +4624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>229</v>
       </c>
@@ -4345,7 +4635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>232</v>
       </c>
@@ -4356,7 +4646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -4367,7 +4657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -4378,7 +4668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>166</v>
       </c>
@@ -4389,7 +4679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>224</v>
       </c>
@@ -4400,7 +4690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -4411,7 +4701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>239</v>
       </c>
@@ -4422,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>246</v>
       </c>
@@ -4433,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -4441,6 +4731,28 @@
         <v>247</v>
       </c>
       <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
     </row>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHV\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA103BCF-E4CE-4AE6-A255-18D6C32E7281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6168BE-77FD-4BC5-98B4-CFF3E1F63DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="283">
   <si>
     <t>departamento</t>
   </si>
@@ -886,6 +886,12 @@
   </si>
   <si>
     <t>En evaluación en curso</t>
+  </si>
+  <si>
+    <t>EV_2025_81</t>
+  </si>
+  <si>
+    <t>Calleria</t>
   </si>
 </sst>
 </file>
@@ -943,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -964,6 +970,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,10 +1404,10 @@
       <c r="A2" t="s">
         <v>148</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>45985</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>45981</v>
       </c>
       <c r="D2" t="s">
@@ -1435,10 +1442,10 @@
       <c r="A3" t="s">
         <v>149</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>45985</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>45983</v>
       </c>
       <c r="D3" t="s">
@@ -1473,10 +1480,10 @@
       <c r="A4" t="s">
         <v>150</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>45985</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>45981</v>
       </c>
       <c r="D4" t="s">
@@ -1511,10 +1518,10 @@
       <c r="A5" t="s">
         <v>151</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>45985</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>45981</v>
       </c>
       <c r="D5" t="s">
@@ -1549,10 +1556,10 @@
       <c r="A6" t="s">
         <v>152</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>45985</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>45984</v>
       </c>
       <c r="D6" t="s">
@@ -1587,10 +1594,10 @@
       <c r="A7" t="s">
         <v>153</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>45985</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>45984</v>
       </c>
       <c r="D7" t="s">
@@ -1625,10 +1632,10 @@
       <c r="A8" t="s">
         <v>154</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>45986</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>45985</v>
       </c>
       <c r="D8" t="s">
@@ -1663,10 +1670,10 @@
       <c r="A9" t="s">
         <v>155</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>45986</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>45985</v>
       </c>
       <c r="D9" t="s">
@@ -1701,10 +1708,10 @@
       <c r="A10" t="s">
         <v>156</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>45986</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>45985</v>
       </c>
       <c r="D10" t="s">
@@ -1739,10 +1746,10 @@
       <c r="A11" t="s">
         <v>157</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>45986</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>45985</v>
       </c>
       <c r="D11" t="s">
@@ -1777,10 +1784,10 @@
       <c r="A12" t="s">
         <v>158</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>45986</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>45985</v>
       </c>
       <c r="D12" t="s">
@@ -1815,10 +1822,10 @@
       <c r="A13" t="s">
         <v>159</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>45986</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>45985</v>
       </c>
       <c r="D13" t="s">
@@ -1853,10 +1860,10 @@
       <c r="A14" t="s">
         <v>160</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>45986</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>45986</v>
       </c>
       <c r="D14" t="s">
@@ -1891,10 +1898,10 @@
       <c r="A15" t="s">
         <v>161</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>45987</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>45986</v>
       </c>
       <c r="D15" t="s">
@@ -1929,10 +1936,10 @@
       <c r="A16" t="s">
         <v>162</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>45987</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>45986</v>
       </c>
       <c r="D16" t="s">
@@ -1967,10 +1974,10 @@
       <c r="A17" t="s">
         <v>163</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>45987</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <v>45987</v>
       </c>
       <c r="D17" t="s">
@@ -2005,10 +2012,10 @@
       <c r="A18" t="s">
         <v>164</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>45987</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <v>45987</v>
       </c>
       <c r="D18" t="s">
@@ -2043,10 +2050,10 @@
       <c r="A19" t="s">
         <v>165</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>45988</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="8">
         <v>45987</v>
       </c>
       <c r="D19" t="s">
@@ -2081,10 +2088,10 @@
       <c r="A20" t="s">
         <v>166</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>45988</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <v>45987</v>
       </c>
       <c r="D20" t="s">
@@ -2119,10 +2126,10 @@
       <c r="A21" t="s">
         <v>167</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>45988</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>45987</v>
       </c>
       <c r="D21" t="s">
@@ -2157,10 +2164,10 @@
       <c r="A22" t="s">
         <v>168</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>45988</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <v>45988</v>
       </c>
       <c r="D22" t="s">
@@ -2195,10 +2202,10 @@
       <c r="A23" t="s">
         <v>169</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>45988</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <v>45988</v>
       </c>
       <c r="D23" t="s">
@@ -2233,10 +2240,10 @@
       <c r="A24" t="s">
         <v>170</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>45988</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <v>45988</v>
       </c>
       <c r="D24" t="s">
@@ -2271,10 +2278,10 @@
       <c r="A25" t="s">
         <v>171</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>45988</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <v>45988</v>
       </c>
       <c r="D25" t="s">
@@ -2309,10 +2316,10 @@
       <c r="A26" t="s">
         <v>172</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>45988</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <v>45988</v>
       </c>
       <c r="D26" t="s">
@@ -2347,10 +2354,10 @@
       <c r="A27" t="s">
         <v>173</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>45988</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <v>45988</v>
       </c>
       <c r="D27" t="s">
@@ -2385,10 +2392,10 @@
       <c r="A28" t="s">
         <v>174</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <v>45988</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="8">
         <v>45988</v>
       </c>
       <c r="D28" t="s">
@@ -2423,10 +2430,10 @@
       <c r="A29" t="s">
         <v>175</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <v>45988</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="8">
         <v>45988</v>
       </c>
       <c r="D29" t="s">
@@ -2461,10 +2468,10 @@
       <c r="A30" t="s">
         <v>176</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>45988</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="8">
         <v>45988</v>
       </c>
       <c r="D30" t="s">
@@ -2499,10 +2506,10 @@
       <c r="A31" t="s">
         <v>177</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>45988</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="8">
         <v>45988</v>
       </c>
       <c r="D31" t="s">
@@ -2537,10 +2544,10 @@
       <c r="A32" t="s">
         <v>178</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="8">
         <v>45988</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="8">
         <v>45988</v>
       </c>
       <c r="D32" t="s">
@@ -2575,10 +2582,10 @@
       <c r="A33" t="s">
         <v>179</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="8">
         <v>45988</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="8">
         <v>45988</v>
       </c>
       <c r="D33" t="s">
@@ -2613,10 +2620,10 @@
       <c r="A34" t="s">
         <v>180</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="8">
         <v>45988</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="8">
         <v>45988</v>
       </c>
       <c r="D34" t="s">
@@ -2651,10 +2658,10 @@
       <c r="A35" t="s">
         <v>181</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="8">
         <v>45989</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="8">
         <v>45987</v>
       </c>
       <c r="D35" t="s">
@@ -2689,10 +2696,10 @@
       <c r="A36" t="s">
         <v>182</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="8">
         <v>45989</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="8">
         <v>45989</v>
       </c>
       <c r="D36" t="s">
@@ -2727,10 +2734,10 @@
       <c r="A37" t="s">
         <v>183</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="8">
         <v>45989</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="8">
         <v>45989</v>
       </c>
       <c r="D37" t="s">
@@ -2765,10 +2772,10 @@
       <c r="A38" t="s">
         <v>184</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="8">
         <v>45989</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="8">
         <v>45989</v>
       </c>
       <c r="D38" t="s">
@@ -2803,10 +2810,10 @@
       <c r="A39" t="s">
         <v>185</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="8">
         <v>45989</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="8">
         <v>45989</v>
       </c>
       <c r="D39" t="s">
@@ -2841,10 +2848,10 @@
       <c r="A40" t="s">
         <v>186</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="8">
         <v>45989</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="8">
         <v>45989</v>
       </c>
       <c r="D40" t="s">
@@ -2879,10 +2886,10 @@
       <c r="A41" t="s">
         <v>187</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="8">
         <v>45989</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="8">
         <v>45989</v>
       </c>
       <c r="D41" t="s">
@@ -2917,10 +2924,10 @@
       <c r="A42" t="s">
         <v>188</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="8">
         <v>45989</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="8">
         <v>45987</v>
       </c>
       <c r="D42" t="s">
@@ -2955,10 +2962,10 @@
       <c r="A43" t="s">
         <v>189</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="8">
         <v>45989</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="8">
         <v>45986</v>
       </c>
       <c r="D43" t="s">
@@ -2993,10 +3000,10 @@
       <c r="A44" t="s">
         <v>190</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="8">
         <v>45990</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="8">
         <v>45989</v>
       </c>
       <c r="D44" t="s">
@@ -3031,10 +3038,10 @@
       <c r="A45" t="s">
         <v>191</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="8">
         <v>45990</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="8">
         <v>45989</v>
       </c>
       <c r="D45" t="s">
@@ -3069,10 +3076,10 @@
       <c r="A46" t="s">
         <v>192</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="8">
         <v>45990</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="8">
         <v>45989</v>
       </c>
       <c r="D46" t="s">
@@ -3107,10 +3114,10 @@
       <c r="A47" t="s">
         <v>193</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="8">
         <v>45990</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="8">
         <v>45989</v>
       </c>
       <c r="D47" t="s">
@@ -3145,10 +3152,10 @@
       <c r="A48" t="s">
         <v>194</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="8">
         <v>45990</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="8">
         <v>45989</v>
       </c>
       <c r="D48" t="s">
@@ -3183,10 +3190,10 @@
       <c r="A49" t="s">
         <v>195</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="8">
         <v>45990</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="8">
         <v>45990</v>
       </c>
       <c r="D49" t="s">
@@ -3221,10 +3228,10 @@
       <c r="A50" t="s">
         <v>196</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="8">
         <v>45991</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="8">
         <v>45990</v>
       </c>
       <c r="D50" t="s">
@@ -3259,10 +3266,10 @@
       <c r="A51" t="s">
         <v>197</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="8">
         <v>45991</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="8">
         <v>45990</v>
       </c>
       <c r="D51" t="s">
@@ -3297,10 +3304,10 @@
       <c r="A52" t="s">
         <v>198</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="8">
         <v>45991</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="8">
         <v>45990</v>
       </c>
       <c r="D52" t="s">
@@ -3335,10 +3342,10 @@
       <c r="A53" t="s">
         <v>199</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="8">
         <v>45991</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="8">
         <v>45991</v>
       </c>
       <c r="D53" t="s">
@@ -3373,10 +3380,10 @@
       <c r="A54" t="s">
         <v>201</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="8">
         <v>45991</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="8">
         <v>45991</v>
       </c>
       <c r="D54" t="s">
@@ -3411,10 +3418,10 @@
       <c r="A55" t="s">
         <v>202</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="8">
         <v>45992</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="8">
         <v>45991</v>
       </c>
       <c r="D55" t="s">
@@ -3449,10 +3456,10 @@
       <c r="A56" t="s">
         <v>203</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="8">
         <v>45992</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="8">
         <v>45992</v>
       </c>
       <c r="D56" t="s">
@@ -3487,10 +3494,10 @@
       <c r="A57" t="s">
         <v>204</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="8">
         <v>45992</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="8">
         <v>45989</v>
       </c>
       <c r="D57" t="s">
@@ -3525,10 +3532,10 @@
       <c r="A58" t="s">
         <v>215</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="8">
         <v>45992</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="8">
         <v>45991</v>
       </c>
       <c r="D58" t="s">
@@ -3563,10 +3570,10 @@
       <c r="A59" t="s">
         <v>217</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="8">
         <v>45992</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="8">
         <v>45992</v>
       </c>
       <c r="D59" t="s">
@@ -3601,10 +3608,10 @@
       <c r="A60" t="s">
         <v>220</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="8">
         <v>45993</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="8">
         <v>45988</v>
       </c>
       <c r="D60" t="s">
@@ -3639,10 +3646,10 @@
       <c r="A61" t="s">
         <v>222</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="8">
         <v>45993</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="8">
         <v>45993</v>
       </c>
       <c r="D61" t="s">
@@ -3677,10 +3684,10 @@
       <c r="A62" t="s">
         <v>223</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="8">
         <v>45993</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="8">
         <v>45993</v>
       </c>
       <c r="D62" t="s">
@@ -3715,10 +3722,10 @@
       <c r="A63" t="s">
         <v>224</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="8">
         <v>45993</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="8">
         <v>45989</v>
       </c>
       <c r="D63" t="s">
@@ -3753,10 +3760,10 @@
       <c r="A64" t="s">
         <v>226</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="8">
         <v>45993</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="8">
         <v>45993</v>
       </c>
       <c r="D64" t="s">
@@ -3791,10 +3798,10 @@
       <c r="A65" t="s">
         <v>229</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="8">
         <v>45993</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="8">
         <v>45987</v>
       </c>
       <c r="D65" t="s">
@@ -3829,10 +3836,10 @@
       <c r="A66" t="s">
         <v>232</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="8">
         <v>45994</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="8">
         <v>45993</v>
       </c>
       <c r="D66" t="s">
@@ -3867,10 +3874,10 @@
       <c r="A67" t="s">
         <v>234</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="8">
         <v>45994</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="8">
         <v>45992</v>
       </c>
       <c r="D67" t="s">
@@ -3905,10 +3912,10 @@
       <c r="A68" t="s">
         <v>237</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="8">
         <v>45994</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="8">
         <v>45993</v>
       </c>
       <c r="D68" t="s">
@@ -3943,10 +3950,10 @@
       <c r="A69" t="s">
         <v>239</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="8">
         <v>45995</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="8">
         <v>45994</v>
       </c>
       <c r="D69" t="s">
@@ -3981,10 +3988,10 @@
       <c r="A70" t="s">
         <v>242</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="8">
         <v>45995</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="8">
         <v>45993</v>
       </c>
       <c r="D70" t="s">
@@ -4019,10 +4026,10 @@
       <c r="A71" t="s">
         <v>244</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="8">
         <v>45995</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="8">
         <v>45994</v>
       </c>
       <c r="D71" t="s">
@@ -4057,10 +4064,10 @@
       <c r="A72" t="s">
         <v>248</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="8">
         <v>45995</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="8">
         <v>45992</v>
       </c>
       <c r="D72" t="s">
@@ -4095,10 +4102,10 @@
       <c r="A73" t="s">
         <v>246</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="8">
         <v>45995</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="8">
         <v>45994</v>
       </c>
       <c r="D73" t="s">
@@ -4133,10 +4140,10 @@
       <c r="A74" t="s">
         <v>253</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="8">
         <v>45995</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="8">
         <v>45994</v>
       </c>
       <c r="D74" t="s">
@@ -4171,10 +4178,10 @@
       <c r="A75" t="s">
         <v>256</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="8">
         <v>45996</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="8">
         <v>45995</v>
       </c>
       <c r="D75" t="s">
@@ -4209,10 +4216,10 @@
       <c r="A76" t="s">
         <v>262</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="8">
         <v>45996</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="8">
         <v>45996</v>
       </c>
       <c r="D76" t="s">
@@ -4247,10 +4254,10 @@
       <c r="A77" t="s">
         <v>264</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="8">
         <v>45996</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="8">
         <v>45996</v>
       </c>
       <c r="D77" t="s">
@@ -4285,10 +4292,10 @@
       <c r="A78" t="s">
         <v>266</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="8">
         <v>45996</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="8">
         <v>45996</v>
       </c>
       <c r="D78" t="s">
@@ -4323,10 +4330,10 @@
       <c r="A79" t="s">
         <v>269</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="8">
         <v>45997</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="8">
         <v>45997</v>
       </c>
       <c r="D79" t="s">
@@ -4361,10 +4368,10 @@
       <c r="A80" t="s">
         <v>273</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="8">
         <v>45998</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="8">
         <v>45998</v>
       </c>
       <c r="D80" t="s">
@@ -4399,10 +4406,10 @@
       <c r="A81" t="s">
         <v>275</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="8">
         <v>45998</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="8">
         <v>45997</v>
       </c>
       <c r="D81" t="s">
@@ -4431,6 +4438,82 @@
       </c>
       <c r="L81">
         <v>-76.766863000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>281</v>
+      </c>
+      <c r="B82">
+        <v>45999</v>
+      </c>
+      <c r="C82">
+        <v>45999</v>
+      </c>
+      <c r="D82" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s">
+        <v>144</v>
+      </c>
+      <c r="F82" t="s">
+        <v>282</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" t="s">
+        <v>280</v>
+      </c>
+      <c r="K82">
+        <v>-7.965052</v>
+      </c>
+      <c r="L82">
+        <v>-74.160190999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>281</v>
+      </c>
+      <c r="B83">
+        <v>45999</v>
+      </c>
+      <c r="C83">
+        <v>45999</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" t="s">
+        <v>144</v>
+      </c>
+      <c r="F83" t="s">
+        <v>263</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>31</v>
+      </c>
+      <c r="I83" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" t="s">
+        <v>280</v>
+      </c>
+      <c r="K83">
+        <v>-8.5384309999999992</v>
+      </c>
+      <c r="L83">
+        <v>-74.509163999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4447,8 +4530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76891285-8E10-4C6D-BF97-82D39FCE984A}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHV\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6168BE-77FD-4BC5-98B4-CFF3E1F63DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EA1977-4BDF-4219-B2BF-DE0D9583FAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -35,15 +35,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="303">
   <si>
     <t>departamento</t>
   </si>
@@ -892,6 +889,66 @@
   </si>
   <si>
     <t>Calleria</t>
+  </si>
+  <si>
+    <t>EV_2025_82</t>
+  </si>
+  <si>
+    <t>EV_2025_83</t>
+  </si>
+  <si>
+    <t>Yauyos</t>
+  </si>
+  <si>
+    <t>Viñac</t>
+  </si>
+  <si>
+    <t>CONTIGO: El Gestor social mantiene contacto con usuarios de la zona para alertar de cualquier ocurrencia o cambio en la situación</t>
+  </si>
+  <si>
+    <t>EV_2025_84</t>
+  </si>
+  <si>
+    <t>Chalamarca</t>
+  </si>
+  <si>
+    <t>Derrumbe de cerro</t>
+  </si>
+  <si>
+    <t>1 fallecido, 1 herido, 1 desaparecido</t>
+  </si>
+  <si>
+    <t>EV_2025_85</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>CUNA MÁS: La UT informó que no se reportan daños a la salud de los usuarios</t>
+  </si>
+  <si>
+    <t>EV_2025_86</t>
+  </si>
+  <si>
+    <t>Yungay</t>
+  </si>
+  <si>
+    <t>Quillo</t>
+  </si>
+  <si>
+    <t>Cultivos perdidos</t>
+  </si>
+  <si>
+    <t>CUNA MÁS: La UT realiza el seguimiento correspondiente</t>
+  </si>
+  <si>
+    <t>EV_2025_87</t>
+  </si>
+  <si>
+    <t>Alexander Von Humboldt</t>
+  </si>
+  <si>
+    <t>Personas y viviendas afectadas</t>
   </si>
 </sst>
 </file>
@@ -901,7 +958,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-280A]hh:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -949,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -969,7 +1026,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,7 +1347,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -1299,7 +1355,7 @@
     <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1311,7 +1367,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="3">
         <v>45988</v>
       </c>
@@ -1323,13 +1379,13 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="4"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5"/>
@@ -1343,13 +1399,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
@@ -1362,52 +1418,52 @@
     <col min="10" max="10" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>45985</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>45981</v>
       </c>
       <c r="D2" t="s">
@@ -1438,14 +1494,14 @@
         <v>-74.966841000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>45985</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>45983</v>
       </c>
       <c r="D3" t="s">
@@ -1476,14 +1532,14 @@
         <v>-72.732980999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>45985</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>45981</v>
       </c>
       <c r="D4" t="s">
@@ -1499,7 +1555,7 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
         <v>39</v>
@@ -1514,14 +1570,14 @@
         <v>-75.641589999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>45985</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>45981</v>
       </c>
       <c r="D5" t="s">
@@ -1537,7 +1593,7 @@
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
         <v>45</v>
@@ -1552,14 +1608,14 @@
         <v>-73.229284000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>45985</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>45984</v>
       </c>
       <c r="D6" t="s">
@@ -1575,7 +1631,7 @@
         <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I6" t="s">
         <v>45</v>
@@ -1590,14 +1646,14 @@
         <v>-73.031732000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>45985</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>45984</v>
       </c>
       <c r="D7" t="s">
@@ -1613,7 +1669,7 @@
         <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
         <v>45</v>
@@ -1628,14 +1684,14 @@
         <v>-76.468245999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>45986</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>45985</v>
       </c>
       <c r="D8" t="s">
@@ -1666,14 +1722,14 @@
         <v>-74.319999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>45986</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>45985</v>
       </c>
       <c r="D9" t="s">
@@ -1704,14 +1760,14 @@
         <v>-70.011899999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>45986</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>45985</v>
       </c>
       <c r="D10" t="s">
@@ -1742,14 +1798,14 @@
         <v>-76.972292999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>45986</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>45985</v>
       </c>
       <c r="D11" t="s">
@@ -1780,14 +1836,14 @@
         <v>-76.637243999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>45986</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>45985</v>
       </c>
       <c r="D12" t="s">
@@ -1818,14 +1874,14 @@
         <v>-76.137507999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>45986</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>45985</v>
       </c>
       <c r="D13" t="s">
@@ -1856,14 +1912,14 @@
         <v>-76.211016999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>45986</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>45986</v>
       </c>
       <c r="D14" t="s">
@@ -1894,14 +1950,14 @@
         <v>-77.208600000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>45987</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>45986</v>
       </c>
       <c r="D15" t="s">
@@ -1917,7 +1973,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I15" t="s">
         <v>68</v>
@@ -1932,14 +1988,14 @@
         <v>-76.363045999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>45987</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>45986</v>
       </c>
       <c r="D16" t="s">
@@ -1955,7 +2011,7 @@
         <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I16" t="s">
         <v>72</v>
@@ -1970,14 +2026,14 @@
         <v>-75.371273000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>45987</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>45987</v>
       </c>
       <c r="D17" t="s">
@@ -1993,7 +2049,7 @@
         <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I17" t="s">
         <v>76</v>
@@ -2008,14 +2064,14 @@
         <v>-73.984493000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>45987</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>45987</v>
       </c>
       <c r="D18" t="s">
@@ -2031,7 +2087,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I18" t="s">
         <v>79</v>
@@ -2046,14 +2102,14 @@
         <v>-74.569946999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>45988</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>45987</v>
       </c>
       <c r="D19" t="s">
@@ -2084,14 +2140,14 @@
         <v>-75.666836000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>45988</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>45987</v>
       </c>
       <c r="D20" t="s">
@@ -2107,7 +2163,7 @@
         <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I20" t="s">
         <v>68</v>
@@ -2122,14 +2178,14 @@
         <v>-76.637589000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>45988</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>45987</v>
       </c>
       <c r="D21" t="s">
@@ -2145,7 +2201,7 @@
         <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
@@ -2160,14 +2216,14 @@
         <v>-76.387878000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>45988</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>45988</v>
       </c>
       <c r="D22" t="s">
@@ -2198,14 +2254,14 @@
         <v>-76.963115000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>45988</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>45988</v>
       </c>
       <c r="D23" t="s">
@@ -2236,14 +2292,14 @@
         <v>-76.274123000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>45988</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>45988</v>
       </c>
       <c r="D24" t="s">
@@ -2274,14 +2330,14 @@
         <v>-76.600607999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>45988</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>45988</v>
       </c>
       <c r="D25" t="s">
@@ -2312,14 +2368,14 @@
         <v>-76.586524999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>45988</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>45988</v>
       </c>
       <c r="D26" t="s">
@@ -2350,14 +2406,14 @@
         <v>-76.599219000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>45988</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>45988</v>
       </c>
       <c r="D27" t="s">
@@ -2388,14 +2444,14 @@
         <v>-76.599219000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>45988</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>45988</v>
       </c>
       <c r="D28" t="s">
@@ -2426,14 +2482,14 @@
         <v>-76.599219000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>175</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>45988</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>45988</v>
       </c>
       <c r="D29" t="s">
@@ -2464,14 +2520,14 @@
         <v>-76.128618000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>45988</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>45988</v>
       </c>
       <c r="D30" t="s">
@@ -2502,14 +2558,14 @@
         <v>-76.128618000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>45988</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>45988</v>
       </c>
       <c r="D31" t="s">
@@ -2540,14 +2596,14 @@
         <v>-76.468366000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>45988</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>45988</v>
       </c>
       <c r="D32" t="s">
@@ -2578,14 +2634,14 @@
         <v>-75.641589999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>45988</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>45988</v>
       </c>
       <c r="D33" t="s">
@@ -2601,7 +2657,7 @@
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
@@ -2616,14 +2672,14 @@
         <v>-78.727566999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>45988</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>45988</v>
       </c>
       <c r="D34" t="s">
@@ -2639,7 +2695,7 @@
         <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I34" t="s">
         <v>15</v>
@@ -2654,14 +2710,14 @@
         <v>-77.733911000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>45989</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>45987</v>
       </c>
       <c r="D35" t="s">
@@ -2692,14 +2748,14 @@
         <v>-77.007345000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>45989</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>45989</v>
       </c>
       <c r="D36" t="s">
@@ -2730,14 +2786,14 @@
         <v>-78.389587000000006</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>45989</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>45989</v>
       </c>
       <c r="D37" t="s">
@@ -2768,14 +2824,14 @@
         <v>-78.444390999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>184</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>45989</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>45989</v>
       </c>
       <c r="D38" t="s">
@@ -2806,14 +2862,14 @@
         <v>-78.052088999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>45989</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>45989</v>
       </c>
       <c r="D39" t="s">
@@ -2844,14 +2900,14 @@
         <v>-77.869170999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>45989</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>45989</v>
       </c>
       <c r="D40" t="s">
@@ -2882,14 +2938,14 @@
         <v>-78.012397000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>187</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>45989</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>45989</v>
       </c>
       <c r="D41" t="s">
@@ -2920,14 +2976,14 @@
         <v>-78.44</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>188</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>45989</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>45987</v>
       </c>
       <c r="D42" t="s">
@@ -2943,7 +2999,7 @@
         <v>44</v>
       </c>
       <c r="H42" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I42" t="s">
         <v>119</v>
@@ -2958,14 +3014,14 @@
         <v>-75.368260000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>45989</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>45986</v>
       </c>
       <c r="D43" t="s">
@@ -2981,7 +3037,7 @@
         <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I43" t="s">
         <v>122</v>
@@ -2996,14 +3052,14 @@
         <v>-74.528165000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>190</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>45990</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>45989</v>
       </c>
       <c r="D44" t="s">
@@ -3034,14 +3090,14 @@
         <v>-77.220343999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>191</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>45990</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>45989</v>
       </c>
       <c r="D45" t="s">
@@ -3072,14 +3128,14 @@
         <v>-73.387912</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>192</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>45990</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>45989</v>
       </c>
       <c r="D46" t="s">
@@ -3110,14 +3166,14 @@
         <v>-78.479500000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>45990</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>45989</v>
       </c>
       <c r="D47" t="s">
@@ -3148,14 +3204,14 @@
         <v>-77.930373000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>45990</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>45989</v>
       </c>
       <c r="D48" t="s">
@@ -3186,14 +3242,14 @@
         <v>-76.495669000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>195</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>45990</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>45990</v>
       </c>
       <c r="D49" t="s">
@@ -3224,14 +3280,14 @@
         <v>-71.213538</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>45991</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>45990</v>
       </c>
       <c r="D50" t="s">
@@ -3262,14 +3318,14 @@
         <v>-76.755578999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>197</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>45991</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>45990</v>
       </c>
       <c r="D51" t="s">
@@ -3300,14 +3356,14 @@
         <v>-81.043530000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>198</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>45991</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>45990</v>
       </c>
       <c r="D52" t="s">
@@ -3338,14 +3394,14 @@
         <v>-69.393176999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>199</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>45991</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>45991</v>
       </c>
       <c r="D53" t="s">
@@ -3376,14 +3432,14 @@
         <v>-74.160190999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>201</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>45991</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>45991</v>
       </c>
       <c r="D54" t="s">
@@ -3414,14 +3470,14 @@
         <v>-74.160190999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>202</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>45992</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>45991</v>
       </c>
       <c r="D55" t="s">
@@ -3437,7 +3493,7 @@
         <v>33</v>
       </c>
       <c r="H55" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I55" t="s">
         <v>210</v>
@@ -3452,14 +3508,14 @@
         <v>-77.107757000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>203</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>45992</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>45992</v>
       </c>
       <c r="D56" t="s">
@@ -3475,7 +3531,7 @@
         <v>209</v>
       </c>
       <c r="H56" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I56" t="s">
         <v>15</v>
@@ -3490,14 +3546,14 @@
         <v>-74.137224000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>45992</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>45989</v>
       </c>
       <c r="D57" t="s">
@@ -3528,14 +3584,14 @@
         <v>-76.486845000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>215</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>45992</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>45991</v>
       </c>
       <c r="D58" t="s">
@@ -3551,7 +3607,7 @@
         <v>30</v>
       </c>
       <c r="H58" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I58" t="s">
         <v>54</v>
@@ -3566,14 +3622,14 @@
         <v>-76.141176999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>217</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>45992</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <v>45992</v>
       </c>
       <c r="D59" t="s">
@@ -3589,7 +3645,7 @@
         <v>219</v>
       </c>
       <c r="H59" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I59" t="s">
         <v>15</v>
@@ -3604,14 +3660,14 @@
         <v>-75.466538999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>220</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>45993</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>45988</v>
       </c>
       <c r="D60" t="s">
@@ -3627,7 +3683,7 @@
         <v>30</v>
       </c>
       <c r="H60" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I60" t="s">
         <v>54</v>
@@ -3642,14 +3698,14 @@
         <v>-74.908894000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>222</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>45993</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>45993</v>
       </c>
       <c r="D61" t="s">
@@ -3665,7 +3721,7 @@
         <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I61" t="s">
         <v>15</v>
@@ -3680,14 +3736,14 @@
         <v>-76.526042000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>223</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>45993</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <v>45993</v>
       </c>
       <c r="D62" t="s">
@@ -3703,7 +3759,7 @@
         <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I62" t="s">
         <v>15</v>
@@ -3718,14 +3774,14 @@
         <v>-76.600607999999994</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>224</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>45993</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="7">
         <v>45989</v>
       </c>
       <c r="D63" t="s">
@@ -3741,7 +3797,7 @@
         <v>30</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I63" t="s">
         <v>15</v>
@@ -3756,14 +3812,14 @@
         <v>-74.933282000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>226</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>45993</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <v>45993</v>
       </c>
       <c r="D64" t="s">
@@ -3779,7 +3835,7 @@
         <v>30</v>
       </c>
       <c r="H64" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I64" t="s">
         <v>54</v>
@@ -3794,14 +3850,14 @@
         <v>-70.836134999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>229</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>45993</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <v>45987</v>
       </c>
       <c r="D65" t="s">
@@ -3817,7 +3873,7 @@
         <v>231</v>
       </c>
       <c r="H65" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I65" t="s">
         <v>54</v>
@@ -3832,14 +3888,14 @@
         <v>-75.471346999999994</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>232</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>45994</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <v>45993</v>
       </c>
       <c r="D66" t="s">
@@ -3855,7 +3911,7 @@
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I66" t="s">
         <v>54</v>
@@ -3870,14 +3926,14 @@
         <v>-77.634146999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>45994</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="7">
         <v>45992</v>
       </c>
       <c r="D67" t="s">
@@ -3893,7 +3949,7 @@
         <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I67" t="s">
         <v>54</v>
@@ -3908,14 +3964,14 @@
         <v>-77.466279</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>237</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>45994</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <v>45993</v>
       </c>
       <c r="D68" t="s">
@@ -3946,14 +4002,14 @@
         <v>-80.696541999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>239</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>45995</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>45994</v>
       </c>
       <c r="D69" t="s">
@@ -3969,7 +4025,7 @@
         <v>127</v>
       </c>
       <c r="H69" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I69" t="s">
         <v>54</v>
@@ -3984,14 +4040,14 @@
         <v>-75.797554000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>242</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>45995</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7">
         <v>45993</v>
       </c>
       <c r="D70" t="s">
@@ -4007,7 +4063,7 @@
         <v>30</v>
       </c>
       <c r="H70" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I70" t="s">
         <v>54</v>
@@ -4022,14 +4078,14 @@
         <v>-73.668769999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>244</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>45995</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="7">
         <v>45994</v>
       </c>
       <c r="D71" t="s">
@@ -4045,7 +4101,7 @@
         <v>71</v>
       </c>
       <c r="H71" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I71" t="s">
         <v>54</v>
@@ -4060,14 +4116,14 @@
         <v>-75.088992000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>248</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>45995</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="7">
         <v>45992</v>
       </c>
       <c r="D72" t="s">
@@ -4083,7 +4139,7 @@
         <v>30</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I72" t="s">
         <v>54</v>
@@ -4098,14 +4154,14 @@
         <v>-74.632737000000006</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>246</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>45995</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7">
         <v>45994</v>
       </c>
       <c r="D73" t="s">
@@ -4121,7 +4177,7 @@
         <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I73" t="s">
         <v>54</v>
@@ -4136,14 +4192,14 @@
         <v>-72.813839999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>253</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>45995</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="7">
         <v>45994</v>
       </c>
       <c r="D74" t="s">
@@ -4159,7 +4215,7 @@
         <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I74" t="s">
         <v>12</v>
@@ -4174,14 +4230,14 @@
         <v>-72.814003</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>256</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>45996</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7">
         <v>45995</v>
       </c>
       <c r="D75" t="s">
@@ -4197,7 +4253,7 @@
         <v>135</v>
       </c>
       <c r="H75" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I75" t="s">
         <v>258</v>
@@ -4212,14 +4268,14 @@
         <v>-69.809021000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>262</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>45996</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="7">
         <v>45996</v>
       </c>
       <c r="D76" t="s">
@@ -4235,7 +4291,7 @@
         <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I76" t="s">
         <v>15</v>
@@ -4250,14 +4306,14 @@
         <v>-74.509163999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>264</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>45996</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="7">
         <v>45996</v>
       </c>
       <c r="D77" t="s">
@@ -4273,7 +4329,7 @@
         <v>265</v>
       </c>
       <c r="H77" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I77" t="s">
         <v>15</v>
@@ -4288,14 +4344,14 @@
         <v>-72.871611999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>266</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="7">
         <v>45996</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="7">
         <v>45996</v>
       </c>
       <c r="D78" t="s">
@@ -4311,7 +4367,7 @@
         <v>44</v>
       </c>
       <c r="H78" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I78" t="s">
         <v>268</v>
@@ -4326,14 +4382,14 @@
         <v>-72.891520999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>269</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>45997</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="7">
         <v>45997</v>
       </c>
       <c r="D79" t="s">
@@ -4364,14 +4420,14 @@
         <v>-73.757418000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>273</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="7">
         <v>45998</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="7">
         <v>45998</v>
       </c>
       <c r="D80" t="s">
@@ -4402,14 +4458,14 @@
         <v>-76.582296999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>275</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>45998</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="7">
         <v>45997</v>
       </c>
       <c r="D81" t="s">
@@ -4440,14 +4496,14 @@
         <v>-76.766863000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>281</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="7">
         <v>45999</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="7">
         <v>45999</v>
       </c>
       <c r="D82" t="s">
@@ -4478,14 +4534,14 @@
         <v>-74.160190999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>281</v>
-      </c>
-      <c r="B83">
+        <v>283</v>
+      </c>
+      <c r="B83" s="7">
         <v>45999</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="7">
         <v>45999</v>
       </c>
       <c r="D83" t="s">
@@ -4514,6 +4570,196 @@
       </c>
       <c r="L83">
         <v>-74.509163999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" t="s">
+        <v>284</v>
+      </c>
+      <c r="B84" s="7">
+        <v>46001</v>
+      </c>
+      <c r="C84" s="7">
+        <v>46000</v>
+      </c>
+      <c r="D84" t="s">
+        <v>61</v>
+      </c>
+      <c r="E84" t="s">
+        <v>285</v>
+      </c>
+      <c r="F84" t="s">
+        <v>286</v>
+      </c>
+      <c r="G84" t="s">
+        <v>44</v>
+      </c>
+      <c r="H84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" t="s">
+        <v>287</v>
+      </c>
+      <c r="K84">
+        <v>-12.887559</v>
+      </c>
+      <c r="L84">
+        <v>-75.770426999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" t="s">
+        <v>288</v>
+      </c>
+      <c r="B85" s="7">
+        <v>46001</v>
+      </c>
+      <c r="C85" s="7">
+        <v>46000</v>
+      </c>
+      <c r="D85" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" t="s">
+        <v>289</v>
+      </c>
+      <c r="G85" t="s">
+        <v>290</v>
+      </c>
+      <c r="H85" t="s">
+        <v>31</v>
+      </c>
+      <c r="I85" t="s">
+        <v>291</v>
+      </c>
+      <c r="J85" t="s">
+        <v>280</v>
+      </c>
+      <c r="K85">
+        <v>-6.5176100000000003</v>
+      </c>
+      <c r="L85">
+        <v>-78.495239999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" t="s">
+        <v>292</v>
+      </c>
+      <c r="B86" s="7">
+        <v>46001</v>
+      </c>
+      <c r="C86" s="7">
+        <v>46001</v>
+      </c>
+      <c r="D86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" t="s">
+        <v>293</v>
+      </c>
+      <c r="F86" t="s">
+        <v>293</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
+      </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" t="s">
+        <v>294</v>
+      </c>
+      <c r="K86">
+        <v>-5.7701840000000004</v>
+      </c>
+      <c r="L86">
+        <v>-78.852553</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" t="s">
+        <v>295</v>
+      </c>
+      <c r="B87" s="7">
+        <v>46001</v>
+      </c>
+      <c r="C87" s="7">
+        <v>45998</v>
+      </c>
+      <c r="D87" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" t="s">
+        <v>296</v>
+      </c>
+      <c r="F87" t="s">
+        <v>297</v>
+      </c>
+      <c r="G87" t="s">
+        <v>44</v>
+      </c>
+      <c r="H87" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" t="s">
+        <v>298</v>
+      </c>
+      <c r="J87" t="s">
+        <v>299</v>
+      </c>
+      <c r="K87">
+        <v>-6.5176100000000003</v>
+      </c>
+      <c r="L87">
+        <v>-78.495239999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" t="s">
+        <v>300</v>
+      </c>
+      <c r="B88" s="7">
+        <v>46001</v>
+      </c>
+      <c r="C88" s="7">
+        <v>45999</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>301</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" t="s">
+        <v>302</v>
+      </c>
+      <c r="J88" t="s">
+        <v>280</v>
+      </c>
+      <c r="K88">
+        <v>-8.8249340000000007</v>
+      </c>
+      <c r="L88">
+        <v>-75.047983000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4528,20 +4774,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76891285-8E10-4C6D-BF97-82D39FCE984A}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="4" width="19" customWidth="1"/>
     <col min="5" max="9" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -4561,7 +4807,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>148</v>
       </c>
@@ -4572,7 +4818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -4583,7 +4829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -4594,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -4605,7 +4851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -4616,7 +4862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -4627,7 +4873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -4641,7 +4887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -4652,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>202</v>
       </c>
@@ -4663,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>202</v>
       </c>
@@ -4674,7 +4920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -4685,7 +4931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -4696,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -4707,7 +4953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>229</v>
       </c>
@@ -4718,7 +4964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>232</v>
       </c>
@@ -4729,7 +4975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -4740,7 +4986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -4751,7 +4997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>166</v>
       </c>
@@ -4762,7 +5008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>224</v>
       </c>
@@ -4773,7 +5019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -4784,7 +5030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>239</v>
       </c>
@@ -4795,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>246</v>
       </c>
@@ -4806,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -4817,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>234</v>
       </c>
@@ -4828,7 +5074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>262</v>
       </c>
@@ -4836,6 +5082,17 @@
         <v>247</v>
       </c>
       <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
     </row>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EA1977-4BDF-4219-B2BF-DE0D9583FAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D9B48D-F3B3-46C0-9838-64B3D6203928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="308">
   <si>
     <t>departamento</t>
   </si>
@@ -949,6 +949,21 @@
   </si>
   <si>
     <t>Personas y viviendas afectadas</t>
+  </si>
+  <si>
+    <t>EV_2025_88</t>
+  </si>
+  <si>
+    <t>Huari</t>
+  </si>
+  <si>
+    <t>San Pedro de Chana</t>
+  </si>
+  <si>
+    <t>Descenso de Temperatura</t>
+  </si>
+  <si>
+    <t>personas y cultivos</t>
   </si>
 </sst>
 </file>
@@ -1399,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4762,6 +4777,44 @@
         <v>-75.047983000000002</v>
       </c>
     </row>
+    <row r="89" spans="1:12">
+      <c r="A89" t="s">
+        <v>303</v>
+      </c>
+      <c r="B89" s="7">
+        <v>46002</v>
+      </c>
+      <c r="C89" s="7">
+        <v>46000</v>
+      </c>
+      <c r="D89" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" t="s">
+        <v>304</v>
+      </c>
+      <c r="F89" t="s">
+        <v>305</v>
+      </c>
+      <c r="G89" t="s">
+        <v>306</v>
+      </c>
+      <c r="H89" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" t="s">
+        <v>307</v>
+      </c>
+      <c r="J89" t="s">
+        <v>280</v>
+      </c>
+      <c r="K89">
+        <v>-9.4665780000000002</v>
+      </c>
+      <c r="L89">
+        <v>-76.982342000000003</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:L7">
     <sortCondition ref="D2:D7"/>
@@ -4776,7 +4829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76891285-8E10-4C6D-BF97-82D39FCE984A}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D9B48D-F3B3-46C0-9838-64B3D6203928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4E84F8-2C4A-4D59-9BCC-94AB6E6E5A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="312">
   <si>
     <t>departamento</t>
   </si>
@@ -964,6 +964,18 @@
   </si>
   <si>
     <t>personas y cultivos</t>
+  </si>
+  <si>
+    <t>EV_2025_89</t>
+  </si>
+  <si>
+    <t>Alto Amazonas</t>
+  </si>
+  <si>
+    <t>Yurimaguas</t>
+  </si>
+  <si>
+    <t>personas afectadas y damnificadas</t>
   </si>
 </sst>
 </file>
@@ -1414,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4781,10 +4793,10 @@
       <c r="A89" t="s">
         <v>303</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89">
         <v>46002</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89">
         <v>46000</v>
       </c>
       <c r="D89" t="s">
@@ -4813,6 +4825,44 @@
       </c>
       <c r="L89">
         <v>-76.982342000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" t="s">
+        <v>308</v>
+      </c>
+      <c r="B90">
+        <v>46002</v>
+      </c>
+      <c r="C90">
+        <v>46001</v>
+      </c>
+      <c r="D90" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" t="s">
+        <v>309</v>
+      </c>
+      <c r="F90" t="s">
+        <v>310</v>
+      </c>
+      <c r="G90" t="s">
+        <v>135</v>
+      </c>
+      <c r="H90" t="s">
+        <v>31</v>
+      </c>
+      <c r="I90" t="s">
+        <v>311</v>
+      </c>
+      <c r="J90" t="s">
+        <v>280</v>
+      </c>
+      <c r="K90">
+        <v>-5.8458800000000002</v>
+      </c>
+      <c r="L90">
+        <v>-76.161581999999996</v>
       </c>
     </row>
   </sheetData>
@@ -4827,10 +4877,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76891285-8E10-4C6D-BF97-82D39FCE984A}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5149,6 +5199,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4E84F8-2C4A-4D59-9BCC-94AB6E6E5A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115D362C-5E45-4176-9BB7-7F4A1735666C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="impacto_programa" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">events!$A$1:$L$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">impacto_programa!$A$1:$F$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">events!$A$1:$L$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">impacto_programa!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="307">
   <si>
     <t>departamento</t>
   </si>
@@ -462,9 +462,6 @@
     <t>Pariñas</t>
   </si>
   <si>
-    <t>Huancane</t>
-  </si>
-  <si>
     <t>Cojata</t>
   </si>
   <si>
@@ -723,9 +720,6 @@
     <t>EV_2025_63</t>
   </si>
   <si>
-    <t>Mariscal Ramon Castilla</t>
-  </si>
-  <si>
     <t>Ramon Castilla</t>
   </si>
   <si>
@@ -735,9 +729,6 @@
     <t>Yauli</t>
   </si>
   <si>
-    <t>Granizadas</t>
-  </si>
-  <si>
     <t>EV_2025_65</t>
   </si>
   <si>
@@ -783,9 +774,6 @@
     <t>EV_2025_72</t>
   </si>
   <si>
-    <t>CUNA MÁS</t>
-  </si>
-  <si>
     <t>EV_2025_71</t>
   </si>
   <si>
@@ -804,9 +792,6 @@
     <t>EV_2025_73</t>
   </si>
   <si>
-    <t>Apurimac</t>
-  </si>
-  <si>
     <t>San Pedro De Cachora</t>
   </si>
   <si>
@@ -888,9 +873,6 @@
     <t>EV_2025_81</t>
   </si>
   <si>
-    <t>Calleria</t>
-  </si>
-  <si>
     <t>EV_2025_82</t>
   </si>
   <si>
@@ -921,9 +903,6 @@
     <t>EV_2025_85</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
     <t>CUNA MÁS: La UT informó que no se reportan daños a la salud de los usuarios</t>
   </si>
   <si>
@@ -976,6 +955,12 @@
   </si>
   <si>
     <t>personas afectadas y damnificadas</t>
+  </si>
+  <si>
+    <t>Mariscal Ramón Castilla</t>
+  </si>
+  <si>
+    <t>Jaén</t>
   </si>
 </sst>
 </file>
@@ -1428,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
   <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1447,13 +1432,13 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" t="s">
         <v>211</v>
-      </c>
-      <c r="C1" t="s">
-        <v>212</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1471,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -1485,7 +1470,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="7">
         <v>45985</v>
@@ -1523,7 +1508,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="7">
         <v>45985</v>
@@ -1561,7 +1546,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="7">
         <v>45985</v>
@@ -1599,7 +1584,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="7">
         <v>45985</v>
@@ -1637,7 +1622,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="7">
         <v>45985</v>
@@ -1675,7 +1660,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="7">
         <v>45985</v>
@@ -1713,7 +1698,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="7">
         <v>45986</v>
@@ -1751,7 +1736,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="7">
         <v>45986</v>
@@ -1789,7 +1774,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="7">
         <v>45986</v>
@@ -1827,7 +1812,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="7">
         <v>45986</v>
@@ -1865,7 +1850,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="7">
         <v>45986</v>
@@ -1903,7 +1888,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="7">
         <v>45986</v>
@@ -1941,7 +1926,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="7">
         <v>45986</v>
@@ -1979,7 +1964,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="7">
         <v>45987</v>
@@ -2006,7 +1991,7 @@
         <v>68</v>
       </c>
       <c r="J15" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K15">
         <v>-6.8402329999999996</v>
@@ -2017,7 +2002,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="7">
         <v>45987</v>
@@ -2055,7 +2040,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="7">
         <v>45987</v>
@@ -2093,7 +2078,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="7">
         <v>45987</v>
@@ -2131,7 +2116,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="7">
         <v>45988</v>
@@ -2169,7 +2154,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="7">
         <v>45988</v>
@@ -2207,7 +2192,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="7">
         <v>45988</v>
@@ -2245,7 +2230,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="7">
         <v>45988</v>
@@ -2283,7 +2268,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="7">
         <v>45988</v>
@@ -2321,7 +2306,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="7">
         <v>45988</v>
@@ -2359,7 +2344,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="7">
         <v>45988</v>
@@ -2397,7 +2382,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="7">
         <v>45988</v>
@@ -2435,7 +2420,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="7">
         <v>45988</v>
@@ -2473,7 +2458,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="7">
         <v>45988</v>
@@ -2511,7 +2496,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="7">
         <v>45988</v>
@@ -2549,7 +2534,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="7">
         <v>45988</v>
@@ -2587,7 +2572,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="7">
         <v>45988</v>
@@ -2625,7 +2610,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B32" s="7">
         <v>45988</v>
@@ -2663,7 +2648,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33" s="7">
         <v>45988</v>
@@ -2701,7 +2686,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" s="7">
         <v>45988</v>
@@ -2739,7 +2724,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35" s="7">
         <v>45989</v>
@@ -2777,7 +2762,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="7">
         <v>45989</v>
@@ -2815,7 +2800,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" s="7">
         <v>45989</v>
@@ -2853,7 +2838,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B38" s="7">
         <v>45989</v>
@@ -2891,7 +2876,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B39" s="7">
         <v>45989</v>
@@ -2929,7 +2914,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B40" s="7">
         <v>45989</v>
@@ -2967,7 +2952,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B41" s="7">
         <v>45989</v>
@@ -3005,7 +2990,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B42" s="7">
         <v>45989</v>
@@ -3043,7 +3028,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B43" s="7">
         <v>45989</v>
@@ -3081,7 +3066,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B44" s="7">
         <v>45990</v>
@@ -3119,7 +3104,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B45" s="7">
         <v>45990</v>
@@ -3157,7 +3142,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B46" s="7">
         <v>45990</v>
@@ -3195,7 +3180,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B47" s="7">
         <v>45990</v>
@@ -3233,7 +3218,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B48" s="7">
         <v>45990</v>
@@ -3271,7 +3256,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B49" s="7">
         <v>45990</v>
@@ -3309,7 +3294,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B50" s="7">
         <v>45991</v>
@@ -3347,7 +3332,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B51" s="7">
         <v>45991</v>
@@ -3385,7 +3370,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B52" s="7">
         <v>45991</v>
@@ -3397,19 +3382,19 @@
         <v>55</v>
       </c>
       <c r="E52" t="s">
+        <v>252</v>
+      </c>
+      <c r="F52" t="s">
         <v>140</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>141</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
+        <v>104</v>
+      </c>
+      <c r="I52" t="s">
         <v>142</v>
-      </c>
-      <c r="H52" t="s">
-        <v>104</v>
-      </c>
-      <c r="I52" t="s">
-        <v>143</v>
       </c>
       <c r="J52" t="s">
         <v>12</v>
@@ -3423,7 +3408,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B53" s="7">
         <v>45991</v>
@@ -3435,10 +3420,10 @@
         <v>24</v>
       </c>
       <c r="E53" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" t="s">
         <v>144</v>
-      </c>
-      <c r="F53" t="s">
-        <v>145</v>
       </c>
       <c r="G53" t="s">
         <v>135</v>
@@ -3461,7 +3446,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B54" s="7">
         <v>45991</v>
@@ -3473,10 +3458,10 @@
         <v>24</v>
       </c>
       <c r="E54" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" t="s">
         <v>144</v>
-      </c>
-      <c r="F54" t="s">
-        <v>145</v>
       </c>
       <c r="G54" t="s">
         <v>135</v>
@@ -3499,7 +3484,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B55" s="7">
         <v>45992</v>
@@ -3511,10 +3496,10 @@
         <v>27</v>
       </c>
       <c r="E55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" t="s">
         <v>205</v>
-      </c>
-      <c r="F55" t="s">
-        <v>206</v>
       </c>
       <c r="G55" t="s">
         <v>33</v>
@@ -3523,7 +3508,7 @@
         <v>104</v>
       </c>
       <c r="I55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J55" t="s">
         <v>12</v>
@@ -3537,7 +3522,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B56" s="7">
         <v>45992</v>
@@ -3549,13 +3534,13 @@
         <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H56" t="s">
         <v>104</v>
@@ -3575,7 +3560,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B57" s="7">
         <v>45992</v>
@@ -3590,7 +3575,7 @@
         <v>66</v>
       </c>
       <c r="F57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G57" t="s">
         <v>33</v>
@@ -3613,7 +3598,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B58" s="7">
         <v>45992</v>
@@ -3625,10 +3610,10 @@
         <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G58" t="s">
         <v>30</v>
@@ -3651,7 +3636,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B59" s="7">
         <v>45992</v>
@@ -3666,10 +3651,10 @@
         <v>32</v>
       </c>
       <c r="F59" t="s">
+        <v>217</v>
+      </c>
+      <c r="G59" t="s">
         <v>218</v>
-      </c>
-      <c r="G59" t="s">
-        <v>219</v>
       </c>
       <c r="H59" t="s">
         <v>104</v>
@@ -3689,7 +3674,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B60" s="7">
         <v>45993</v>
@@ -3704,7 +3689,7 @@
         <v>120</v>
       </c>
       <c r="F60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G60" t="s">
         <v>30</v>
@@ -3727,7 +3712,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B61" s="7">
         <v>45993</v>
@@ -3765,7 +3750,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B62" s="7">
         <v>45993</v>
@@ -3803,7 +3788,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B63" s="7">
         <v>45993</v>
@@ -3818,7 +3803,7 @@
         <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G63" t="s">
         <v>30</v>
@@ -3841,7 +3826,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B64" s="7">
         <v>45993</v>
@@ -3853,10 +3838,10 @@
         <v>51</v>
       </c>
       <c r="E64" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="F64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G64" t="s">
         <v>30</v>
@@ -3879,7 +3864,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B65" s="7">
         <v>45993</v>
@@ -3894,10 +3879,10 @@
         <v>69</v>
       </c>
       <c r="F65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G65" t="s">
-        <v>231</v>
+        <v>71</v>
       </c>
       <c r="H65" t="s">
         <v>104</v>
@@ -3917,7 +3902,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B66" s="7">
         <v>45994</v>
@@ -3932,7 +3917,7 @@
         <v>88</v>
       </c>
       <c r="F66" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G66" t="s">
         <v>14</v>
@@ -3944,7 +3929,7 @@
         <v>54</v>
       </c>
       <c r="J66" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K66">
         <v>-5.7487069999999996</v>
@@ -3955,7 +3940,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B67" s="7">
         <v>45994</v>
@@ -3967,10 +3952,10 @@
         <v>95</v>
       </c>
       <c r="E67" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F67" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G67" t="s">
         <v>14</v>
@@ -3993,7 +3978,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B68" s="7">
         <v>45994</v>
@@ -4008,7 +3993,7 @@
         <v>137</v>
       </c>
       <c r="F68" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G68" t="s">
         <v>135</v>
@@ -4031,7 +4016,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B69" s="7">
         <v>45995</v>
@@ -4043,10 +4028,10 @@
         <v>27</v>
       </c>
       <c r="E69" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F69" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G69" t="s">
         <v>127</v>
@@ -4069,7 +4054,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B70" s="7">
         <v>45995</v>
@@ -4084,7 +4069,7 @@
         <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G70" t="s">
         <v>30</v>
@@ -4107,7 +4092,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B71" s="7">
         <v>45995</v>
@@ -4122,7 +4107,7 @@
         <v>69</v>
       </c>
       <c r="F71" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G71" t="s">
         <v>71</v>
@@ -4145,7 +4130,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B72" s="7">
         <v>45995</v>
@@ -4160,7 +4145,7 @@
         <v>120</v>
       </c>
       <c r="F72" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G72" t="s">
         <v>30</v>
@@ -4183,7 +4168,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B73" s="7">
         <v>45995</v>
@@ -4195,10 +4180,10 @@
         <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F73" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G73" t="s">
         <v>14</v>
@@ -4210,7 +4195,7 @@
         <v>54</v>
       </c>
       <c r="J73" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K73">
         <v>-11.083704000000001</v>
@@ -4221,7 +4206,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B74" s="7">
         <v>45995</v>
@@ -4230,13 +4215,13 @@
         <v>45994</v>
       </c>
       <c r="D74" t="s">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="E74" t="s">
         <v>46</v>
       </c>
       <c r="F74" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G74" t="s">
         <v>14</v>
@@ -4259,7 +4244,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B75" s="7">
         <v>45996</v>
@@ -4271,10 +4256,10 @@
         <v>55</v>
       </c>
       <c r="E75" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F75" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G75" t="s">
         <v>135</v>
@@ -4283,10 +4268,10 @@
         <v>104</v>
       </c>
       <c r="I75" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J75" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K75">
         <v>-15.183208</v>
@@ -4297,7 +4282,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B76" s="7">
         <v>45996</v>
@@ -4309,10 +4294,10 @@
         <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G76" t="s">
         <v>14</v>
@@ -4335,7 +4320,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B77" s="7">
         <v>45996</v>
@@ -4353,7 +4338,7 @@
         <v>46</v>
       </c>
       <c r="G77" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H77" t="s">
         <v>104</v>
@@ -4373,7 +4358,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B78" s="7">
         <v>45996</v>
@@ -4388,7 +4373,7 @@
         <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G78" t="s">
         <v>44</v>
@@ -4397,10 +4382,10 @@
         <v>104</v>
       </c>
       <c r="I78" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J78" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K78">
         <v>-13.974194000000001</v>
@@ -4411,7 +4396,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B79" s="7">
         <v>45997</v>
@@ -4423,10 +4408,10 @@
         <v>73</v>
       </c>
       <c r="E79" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F79" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G79" t="s">
         <v>44</v>
@@ -4435,10 +4420,10 @@
         <v>31</v>
       </c>
       <c r="I79" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="J79" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K79">
         <v>-14.477164999999999</v>
@@ -4449,7 +4434,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B80" s="7">
         <v>45998</v>
@@ -4461,10 +4446,10 @@
         <v>61</v>
       </c>
       <c r="E80" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F80" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G80" t="s">
         <v>44</v>
@@ -4476,7 +4461,7 @@
         <v>45</v>
       </c>
       <c r="J80" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K80">
         <v>-11.475307000000001</v>
@@ -4487,7 +4472,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B81" s="7">
         <v>45998</v>
@@ -4499,22 +4484,22 @@
         <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F81" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G81" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H81" t="s">
         <v>31</v>
       </c>
       <c r="I81" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J81" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K81">
         <v>-9.7938259999999993</v>
@@ -4525,7 +4510,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B82" s="7">
         <v>45999</v>
@@ -4537,10 +4522,10 @@
         <v>24</v>
       </c>
       <c r="E82" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" t="s">
         <v>144</v>
-      </c>
-      <c r="F82" t="s">
-        <v>282</v>
       </c>
       <c r="G82" t="s">
         <v>14</v>
@@ -4552,7 +4537,7 @@
         <v>15</v>
       </c>
       <c r="J82" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K82">
         <v>-7.965052</v>
@@ -4563,7 +4548,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B83" s="7">
         <v>45999</v>
@@ -4575,10 +4560,10 @@
         <v>24</v>
       </c>
       <c r="E83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F83" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G83" t="s">
         <v>14</v>
@@ -4590,7 +4575,7 @@
         <v>15</v>
       </c>
       <c r="J83" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K83">
         <v>-8.5384309999999992</v>
@@ -4601,7 +4586,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B84" s="7">
         <v>46001</v>
@@ -4613,10 +4598,10 @@
         <v>61</v>
       </c>
       <c r="E84" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F84" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G84" t="s">
         <v>44</v>
@@ -4628,7 +4613,7 @@
         <v>15</v>
       </c>
       <c r="J84" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K84">
         <v>-12.887559</v>
@@ -4639,7 +4624,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B85" s="7">
         <v>46001</v>
@@ -4654,19 +4639,19 @@
         <v>91</v>
       </c>
       <c r="F85" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G85" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H85" t="s">
         <v>31</v>
       </c>
       <c r="I85" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J85" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K85">
         <v>-6.5176100000000003</v>
@@ -4677,7 +4662,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B86" s="7">
         <v>46001</v>
@@ -4689,10 +4674,10 @@
         <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F86" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="G86" t="s">
         <v>14</v>
@@ -4704,7 +4689,7 @@
         <v>15</v>
       </c>
       <c r="J86" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="K86">
         <v>-5.7701840000000004</v>
@@ -4715,7 +4700,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B87" s="7">
         <v>46001</v>
@@ -4727,10 +4712,10 @@
         <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F87" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G87" t="s">
         <v>44</v>
@@ -4739,10 +4724,10 @@
         <v>31</v>
       </c>
       <c r="I87" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="J87" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K87">
         <v>-6.5176100000000003</v>
@@ -4753,7 +4738,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B88" s="7">
         <v>46001</v>
@@ -4768,7 +4753,7 @@
         <v>25</v>
       </c>
       <c r="F88" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -4777,10 +4762,10 @@
         <v>31</v>
       </c>
       <c r="I88" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J88" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K88">
         <v>-8.8249340000000007</v>
@@ -4791,7 +4776,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B89">
         <v>46002</v>
@@ -4803,22 +4788,22 @@
         <v>95</v>
       </c>
       <c r="E89" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F89" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G89" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H89" t="s">
         <v>31</v>
       </c>
       <c r="I89" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J89" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K89">
         <v>-9.4665780000000002</v>
@@ -4829,7 +4814,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B90">
         <v>46002</v>
@@ -4841,10 +4826,10 @@
         <v>51</v>
       </c>
       <c r="E90" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F90" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G90" t="s">
         <v>135</v>
@@ -4853,10 +4838,10 @@
         <v>31</v>
       </c>
       <c r="I90" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="J90" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K90">
         <v>-5.8458800000000002</v>
@@ -4880,7 +4865,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4892,7 +4877,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
         <v>100</v>
@@ -4904,7 +4889,7 @@
         <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
         <v>105</v>
@@ -4912,7 +4897,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>103</v>
@@ -4923,7 +4908,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>101</v>
@@ -4934,7 +4919,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>103</v>
@@ -4945,7 +4930,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
         <v>101</v>
@@ -4956,7 +4941,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
         <v>103</v>
@@ -4967,10 +4952,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -4978,7 +4963,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
         <v>102</v>
@@ -4992,7 +4977,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
         <v>101</v>
@@ -5003,7 +4988,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
         <v>101</v>
@@ -5014,7 +4999,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
         <v>103</v>
@@ -5025,7 +5010,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
         <v>102</v>
@@ -5036,7 +5021,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
         <v>101</v>
@@ -5047,10 +5032,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14">
         <v>12</v>
@@ -5058,7 +5043,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
         <v>103</v>
@@ -5069,7 +5054,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
         <v>101</v>
@@ -5080,10 +5065,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -5091,7 +5076,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
         <v>101</v>
@@ -5102,10 +5087,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -5113,7 +5098,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
         <v>103</v>
@@ -5124,7 +5109,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
         <v>101</v>
@@ -5135,7 +5120,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s">
         <v>101</v>
@@ -5146,10 +5131,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -5157,10 +5142,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -5168,10 +5153,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="C25">
         <v>13</v>
@@ -5179,10 +5164,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5190,10 +5175,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B27" t="s">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5201,10 +5186,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C28">
         <v>30</v>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115D362C-5E45-4176-9BB7-7F4A1735666C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90D26F3-3449-4E95-8177-C47AC8450995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="306">
   <si>
     <t>departamento</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Chipurana</t>
-  </si>
-  <si>
-    <t>Incendio urbano</t>
   </si>
   <si>
     <t>05 viviendas inhabitables</t>
@@ -970,7 +967,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-280A]hh:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,6 +994,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1018,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1039,6 +1043,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1387,7 +1392,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1414,7 +1419,7 @@
   <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1432,13 +1437,13 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
         <v>210</v>
-      </c>
-      <c r="C1" t="s">
-        <v>211</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1456,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -1470,7 +1475,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="7">
         <v>45985</v>
@@ -1479,22 +1484,22 @@
         <v>45981</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
         <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -1508,7 +1513,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="7">
         <v>45985</v>
@@ -1517,25 +1522,25 @@
         <v>45983</v>
       </c>
       <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
       </c>
       <c r="K3">
         <v>-13.244382</v>
@@ -1546,7 +1551,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="7">
         <v>45985</v>
@@ -1555,22 +1560,22 @@
         <v>45981</v>
       </c>
       <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -1584,7 +1589,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="7">
         <v>45985</v>
@@ -1593,22 +1598,22 @@
         <v>45981</v>
       </c>
       <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" t="s">
         <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -1622,7 +1627,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="7">
         <v>45985</v>
@@ -1631,22 +1636,22 @@
         <v>45984</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
       <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
         <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" t="s">
-        <v>45</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -1660,7 +1665,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="7">
         <v>45985</v>
@@ -1669,22 +1674,22 @@
         <v>45984</v>
       </c>
       <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
       <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
         <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -1698,7 +1703,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="7">
         <v>45986</v>
@@ -1707,25 +1712,25 @@
         <v>45985</v>
       </c>
       <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" t="s">
         <v>53</v>
       </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>-4</v>
@@ -1736,7 +1741,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="7">
         <v>45986</v>
@@ -1745,22 +1750,22 @@
         <v>45985</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -1774,7 +1779,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="7">
         <v>45986</v>
@@ -1786,19 +1791,19 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -1812,7 +1817,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="7">
         <v>45986</v>
@@ -1824,19 +1829,19 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
         <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -1850,7 +1855,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="7">
         <v>45986</v>
@@ -1865,16 +1870,16 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -1888,7 +1893,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="7">
         <v>45986</v>
@@ -1903,16 +1908,16 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -1926,7 +1931,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="7">
         <v>45986</v>
@@ -1935,22 +1940,22 @@
         <v>45986</v>
       </c>
       <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
         <v>61</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>62</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>63</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
         <v>64</v>
-      </c>
-      <c r="H14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" t="s">
-        <v>65</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -1964,7 +1969,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="7">
         <v>45987</v>
@@ -1976,22 +1981,22 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
         <v>66</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K15">
         <v>-6.8402329999999996</v>
@@ -2002,7 +2007,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="7">
         <v>45987</v>
@@ -2011,22 +2016,22 @@
         <v>45986</v>
       </c>
       <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
         <v>69</v>
       </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>70</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" t="s">
         <v>71</v>
-      </c>
-      <c r="H16" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" t="s">
-        <v>72</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -2040,7 +2045,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="7">
         <v>45987</v>
@@ -2049,22 +2054,22 @@
         <v>45987</v>
       </c>
       <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
         <v>73</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>74</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" t="s">
         <v>75</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" t="s">
-        <v>76</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -2078,7 +2083,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="7">
         <v>45987</v>
@@ -2087,22 +2092,22 @@
         <v>45987</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
         <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -2116,7 +2121,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="7">
         <v>45988</v>
@@ -2134,13 +2139,13 @@
         <v>16</v>
       </c>
       <c r="G19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
         <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -2154,7 +2159,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="7">
         <v>45988</v>
@@ -2163,22 +2168,22 @@
         <v>45987</v>
       </c>
       <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>28</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>29</v>
       </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -2192,7 +2197,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="7">
         <v>45988</v>
@@ -2201,19 +2206,19 @@
         <v>45987</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
         <v>80</v>
       </c>
-      <c r="F21" t="s">
-        <v>81</v>
-      </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
@@ -2230,7 +2235,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" s="7">
         <v>45988</v>
@@ -2242,19 +2247,19 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
         <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -2268,7 +2273,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" s="7">
         <v>45988</v>
@@ -2280,19 +2285,19 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
         <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -2306,7 +2311,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="7">
         <v>45988</v>
@@ -2318,19 +2323,19 @@
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -2344,7 +2349,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="7">
         <v>45988</v>
@@ -2356,19 +2361,19 @@
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -2382,7 +2387,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" s="7">
         <v>45988</v>
@@ -2394,19 +2399,19 @@
         <v>13</v>
       </c>
       <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" t="s">
         <v>83</v>
-      </c>
-      <c r="F26" t="s">
-        <v>84</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -2420,7 +2425,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" s="7">
         <v>45988</v>
@@ -2432,7 +2437,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -2441,10 +2446,10 @@
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -2458,7 +2463,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" s="7">
         <v>45988</v>
@@ -2470,19 +2475,19 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -2496,7 +2501,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" s="7">
         <v>45988</v>
@@ -2508,19 +2513,19 @@
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -2534,7 +2539,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" s="7">
         <v>45988</v>
@@ -2546,19 +2551,19 @@
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -2572,7 +2577,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B31" s="7">
         <v>45988</v>
@@ -2584,19 +2589,19 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -2610,7 +2615,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B32" s="7">
         <v>45988</v>
@@ -2619,19 +2624,19 @@
         <v>45988</v>
       </c>
       <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
         <v>24</v>
       </c>
-      <c r="E32" t="s">
-        <v>25</v>
-      </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I32" t="s">
         <v>15</v>
@@ -2648,7 +2653,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B33" s="7">
         <v>45988</v>
@@ -2657,19 +2662,19 @@
         <v>45988</v>
       </c>
       <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" t="s">
         <v>90</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>91</v>
-      </c>
-      <c r="F33" t="s">
-        <v>92</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
@@ -2686,7 +2691,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B34" s="7">
         <v>45988</v>
@@ -2695,19 +2700,19 @@
         <v>45988</v>
       </c>
       <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
         <v>93</v>
       </c>
-      <c r="E34" t="s">
-        <v>94</v>
-      </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I34" t="s">
         <v>15</v>
@@ -2724,7 +2729,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B35" s="7">
         <v>45989</v>
@@ -2733,19 +2738,19 @@
         <v>45987</v>
       </c>
       <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
         <v>95</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>96</v>
       </c>
-      <c r="F35" t="s">
-        <v>97</v>
-      </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
@@ -2762,7 +2767,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B36" s="7">
         <v>45989</v>
@@ -2771,19 +2776,19 @@
         <v>45989</v>
       </c>
       <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" t="s">
         <v>106</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>107</v>
-      </c>
-      <c r="F36" t="s">
-        <v>108</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I36" t="s">
         <v>15</v>
@@ -2800,7 +2805,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B37" s="7">
         <v>45989</v>
@@ -2809,19 +2814,19 @@
         <v>45989</v>
       </c>
       <c r="D37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" t="s">
         <v>106</v>
       </c>
-      <c r="E37" t="s">
-        <v>107</v>
-      </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I37" t="s">
         <v>15</v>
@@ -2838,7 +2843,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B38" s="7">
         <v>45989</v>
@@ -2847,19 +2852,19 @@
         <v>45989</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" t="s">
         <v>110</v>
-      </c>
-      <c r="F38" t="s">
-        <v>111</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I38" t="s">
         <v>15</v>
@@ -2876,7 +2881,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B39" s="7">
         <v>45989</v>
@@ -2885,19 +2890,19 @@
         <v>45989</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I39" t="s">
         <v>15</v>
@@ -2914,7 +2919,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B40" s="7">
         <v>45989</v>
@@ -2923,19 +2928,19 @@
         <v>45989</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" t="s">
         <v>113</v>
-      </c>
-      <c r="F40" t="s">
-        <v>114</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I40" t="s">
         <v>15</v>
@@ -2952,7 +2957,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B41" s="7">
         <v>45989</v>
@@ -2961,19 +2966,19 @@
         <v>45989</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" t="s">
         <v>115</v>
-      </c>
-      <c r="F41" t="s">
-        <v>116</v>
       </c>
       <c r="G41" t="s">
         <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I41" t="s">
         <v>15</v>
@@ -2990,7 +2995,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B42" s="7">
         <v>45989</v>
@@ -2999,22 +3004,22 @@
         <v>45987</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" t="s">
         <v>117</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" t="s">
         <v>118</v>
-      </c>
-      <c r="G42" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I42" t="s">
-        <v>119</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -3028,7 +3033,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B43" s="7">
         <v>45989</v>
@@ -3037,22 +3042,22 @@
         <v>45986</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" t="s">
         <v>120</v>
-      </c>
-      <c r="F43" t="s">
-        <v>121</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -3066,7 +3071,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B44" s="7">
         <v>45990</v>
@@ -3075,22 +3080,22 @@
         <v>45989</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" t="s">
         <v>123</v>
-      </c>
-      <c r="F44" t="s">
-        <v>124</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -3104,7 +3109,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B45" s="7">
         <v>45990</v>
@@ -3113,22 +3118,22 @@
         <v>45989</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" t="s">
         <v>126</v>
       </c>
-      <c r="F45" t="s">
-        <v>126</v>
-      </c>
-      <c r="G45" t="s">
-        <v>127</v>
-      </c>
       <c r="H45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -3142,7 +3147,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B46" s="7">
         <v>45990</v>
@@ -3151,22 +3156,22 @@
         <v>45989</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" t="s">
         <v>128</v>
       </c>
-      <c r="F46" t="s">
-        <v>129</v>
-      </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -3180,7 +3185,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B47" s="7">
         <v>45990</v>
@@ -3189,22 +3194,22 @@
         <v>45989</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" t="s">
         <v>130</v>
       </c>
-      <c r="F47" t="s">
-        <v>131</v>
-      </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -3218,7 +3223,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48" s="7">
         <v>45990</v>
@@ -3230,19 +3235,19 @@
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -3256,7 +3261,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49" s="7">
         <v>45990</v>
@@ -3265,22 +3270,22 @@
         <v>45990</v>
       </c>
       <c r="D49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" t="s">
         <v>133</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" t="s">
         <v>134</v>
       </c>
-      <c r="F49" t="s">
-        <v>134</v>
-      </c>
-      <c r="G49" t="s">
-        <v>135</v>
-      </c>
       <c r="H49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
@@ -3294,7 +3299,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50" s="7">
         <v>45991</v>
@@ -3303,22 +3308,22 @@
         <v>45990</v>
       </c>
       <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s">
         <v>27</v>
       </c>
-      <c r="E50" t="s">
-        <v>28</v>
-      </c>
       <c r="F50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s">
         <v>12</v>
@@ -3332,7 +3337,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B51" s="7">
         <v>45991</v>
@@ -3341,22 +3346,22 @@
         <v>45990</v>
       </c>
       <c r="D51" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" t="s">
         <v>137</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>138</v>
       </c>
-      <c r="F51" t="s">
-        <v>139</v>
-      </c>
       <c r="G51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s">
         <v>12</v>
@@ -3370,7 +3375,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B52" s="7">
         <v>45991</v>
@@ -3379,22 +3384,22 @@
         <v>45990</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F52" t="s">
+        <v>139</v>
+      </c>
+      <c r="G52" t="s">
         <v>140</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" t="s">
         <v>141</v>
-      </c>
-      <c r="H52" t="s">
-        <v>104</v>
-      </c>
-      <c r="I52" t="s">
-        <v>142</v>
       </c>
       <c r="J52" t="s">
         <v>12</v>
@@ -3408,7 +3413,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B53" s="7">
         <v>45991</v>
@@ -3417,22 +3422,22 @@
         <v>45991</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" t="s">
         <v>143</v>
       </c>
-      <c r="F53" t="s">
-        <v>144</v>
-      </c>
       <c r="G53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J53" t="s">
         <v>12</v>
@@ -3446,7 +3451,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B54" s="7">
         <v>45991</v>
@@ -3455,22 +3460,22 @@
         <v>45991</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" t="s">
         <v>143</v>
       </c>
-      <c r="F54" t="s">
-        <v>144</v>
-      </c>
       <c r="G54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s">
         <v>12</v>
@@ -3484,7 +3489,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B55" s="7">
         <v>45992</v>
@@ -3493,22 +3498,22 @@
         <v>45991</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" t="s">
         <v>204</v>
       </c>
-      <c r="F55" t="s">
-        <v>205</v>
-      </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J55" t="s">
         <v>12</v>
@@ -3522,7 +3527,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B56" s="7">
         <v>45992</v>
@@ -3531,19 +3536,19 @@
         <v>45992</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I56" t="s">
         <v>15</v>
@@ -3560,7 +3565,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B57" s="7">
         <v>45992</v>
@@ -3572,19 +3577,19 @@
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J57" t="s">
         <v>12</v>
@@ -3598,7 +3603,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B58" s="7">
         <v>45992</v>
@@ -3607,22 +3612,22 @@
         <v>45991</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J58" t="s">
         <v>12</v>
@@ -3636,7 +3641,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B59" s="7">
         <v>45992</v>
@@ -3645,19 +3650,19 @@
         <v>45992</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
+        <v>216</v>
+      </c>
+      <c r="G59" t="s">
         <v>217</v>
       </c>
-      <c r="G59" t="s">
-        <v>218</v>
-      </c>
       <c r="H59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I59" t="s">
         <v>15</v>
@@ -3674,7 +3679,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B60" s="7">
         <v>45993</v>
@@ -3683,22 +3688,22 @@
         <v>45988</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J60" t="s">
         <v>12</v>
@@ -3712,7 +3717,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B61" s="7">
         <v>45993</v>
@@ -3724,16 +3729,16 @@
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I61" t="s">
         <v>15</v>
@@ -3750,7 +3755,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B62" s="7">
         <v>45993</v>
@@ -3762,16 +3767,16 @@
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G62" t="s">
         <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I62" t="s">
         <v>15</v>
@@ -3788,7 +3793,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B63" s="7">
         <v>45993</v>
@@ -3797,19 +3802,19 @@
         <v>45989</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I63" t="s">
         <v>15</v>
@@ -3826,7 +3831,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B64" s="7">
         <v>45993</v>
@@ -3835,22 +3840,22 @@
         <v>45993</v>
       </c>
       <c r="D64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J64" t="s">
         <v>12</v>
@@ -3864,7 +3869,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B65" s="7">
         <v>45993</v>
@@ -3873,22 +3878,22 @@
         <v>45987</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J65" t="s">
         <v>12</v>
@@ -3902,7 +3907,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B66" s="7">
         <v>45994</v>
@@ -3914,22 +3919,22 @@
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G66" t="s">
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K66">
         <v>-5.7487069999999996</v>
@@ -3940,7 +3945,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B67" s="7">
         <v>45994</v>
@@ -3949,22 +3954,22 @@
         <v>45992</v>
       </c>
       <c r="D67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E67" t="s">
+        <v>231</v>
+      </c>
+      <c r="F67" t="s">
         <v>232</v>
-      </c>
-      <c r="F67" t="s">
-        <v>233</v>
       </c>
       <c r="G67" t="s">
         <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J67" t="s">
         <v>12</v>
@@ -3978,7 +3983,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B68" s="7">
         <v>45994</v>
@@ -3987,22 +3992,22 @@
         <v>45993</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J68" t="s">
         <v>12</v>
@@ -4016,7 +4021,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B69" s="7">
         <v>45995</v>
@@ -4025,22 +4030,22 @@
         <v>45994</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E69" t="s">
+        <v>236</v>
+      </c>
+      <c r="F69" t="s">
         <v>237</v>
       </c>
-      <c r="F69" t="s">
-        <v>238</v>
-      </c>
       <c r="G69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J69" t="s">
         <v>12</v>
@@ -4054,7 +4059,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B70" s="7">
         <v>45995</v>
@@ -4063,22 +4068,22 @@
         <v>45993</v>
       </c>
       <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" t="s">
         <v>35</v>
       </c>
-      <c r="E70" t="s">
-        <v>36</v>
-      </c>
       <c r="F70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J70" t="s">
         <v>12</v>
@@ -4092,7 +4097,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B71" s="7">
         <v>45995</v>
@@ -4101,22 +4106,22 @@
         <v>45994</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J71" t="s">
         <v>12</v>
@@ -4130,7 +4135,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B72" s="7">
         <v>45995</v>
@@ -4139,22 +4144,22 @@
         <v>45992</v>
       </c>
       <c r="D72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J72" t="s">
         <v>12</v>
@@ -4168,7 +4173,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B73" s="7">
         <v>45995</v>
@@ -4177,25 +4182,25 @@
         <v>45994</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E73" t="s">
+        <v>245</v>
+      </c>
+      <c r="F73" t="s">
         <v>246</v>
-      </c>
-      <c r="F73" t="s">
-        <v>247</v>
       </c>
       <c r="G73" t="s">
         <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J73" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K73">
         <v>-11.083704000000001</v>
@@ -4206,7 +4211,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B74" s="7">
         <v>45995</v>
@@ -4215,19 +4220,19 @@
         <v>45994</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G74" t="s">
         <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I74" t="s">
         <v>12</v>
@@ -4244,7 +4249,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B75" s="7">
         <v>45996</v>
@@ -4253,25 +4258,25 @@
         <v>45995</v>
       </c>
       <c r="D75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E75" t="s">
+        <v>251</v>
+      </c>
+      <c r="F75" t="s">
+        <v>251</v>
+      </c>
+      <c r="G75" t="s">
+        <v>134</v>
+      </c>
+      <c r="H75" t="s">
+        <v>103</v>
+      </c>
+      <c r="I75" t="s">
         <v>252</v>
       </c>
-      <c r="F75" t="s">
-        <v>252</v>
-      </c>
-      <c r="G75" t="s">
-        <v>135</v>
-      </c>
-      <c r="H75" t="s">
-        <v>104</v>
-      </c>
-      <c r="I75" t="s">
-        <v>253</v>
-      </c>
       <c r="J75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K75">
         <v>-15.183208</v>
@@ -4282,7 +4287,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B76" s="7">
         <v>45996</v>
@@ -4291,19 +4296,19 @@
         <v>45996</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G76" t="s">
         <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I76" t="s">
         <v>15</v>
@@ -4320,7 +4325,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B77" s="7">
         <v>45996</v>
@@ -4329,19 +4334,19 @@
         <v>45996</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I77" t="s">
         <v>15</v>
@@ -4358,7 +4363,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B78" s="7">
         <v>45996</v>
@@ -4367,25 +4372,25 @@
         <v>45996</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
+        <v>261</v>
+      </c>
+      <c r="G78" t="s">
+        <v>43</v>
+      </c>
+      <c r="H78" t="s">
+        <v>103</v>
+      </c>
+      <c r="I78" t="s">
         <v>262</v>
       </c>
-      <c r="G78" t="s">
-        <v>44</v>
-      </c>
-      <c r="H78" t="s">
-        <v>104</v>
-      </c>
-      <c r="I78" t="s">
-        <v>263</v>
-      </c>
       <c r="J78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K78">
         <v>-13.974194000000001</v>
@@ -4396,7 +4401,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B79" s="7">
         <v>45997</v>
@@ -4405,25 +4410,25 @@
         <v>45997</v>
       </c>
       <c r="D79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E79" t="s">
+        <v>264</v>
+      </c>
+      <c r="F79" t="s">
         <v>265</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
+        <v>43</v>
+      </c>
+      <c r="H79" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" t="s">
         <v>266</v>
       </c>
-      <c r="G79" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" t="s">
-        <v>31</v>
-      </c>
-      <c r="I79" t="s">
-        <v>267</v>
-      </c>
       <c r="J79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K79">
         <v>-14.477164999999999</v>
@@ -4434,7 +4439,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B80" s="7">
         <v>45998</v>
@@ -4443,25 +4448,25 @@
         <v>45998</v>
       </c>
       <c r="D80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E80" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F80" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G80" t="s">
+        <v>43</v>
+      </c>
+      <c r="H80" t="s">
+        <v>30</v>
+      </c>
+      <c r="I80" t="s">
         <v>44</v>
       </c>
-      <c r="H80" t="s">
-        <v>31</v>
-      </c>
-      <c r="I80" t="s">
-        <v>45</v>
-      </c>
       <c r="J80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K80">
         <v>-11.475307000000001</v>
@@ -4472,7 +4477,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B81" s="7">
         <v>45998</v>
@@ -4481,25 +4486,25 @@
         <v>45997</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E81" t="s">
+        <v>270</v>
+      </c>
+      <c r="F81" t="s">
         <v>271</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>272</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
+        <v>30</v>
+      </c>
+      <c r="I81" t="s">
         <v>273</v>
       </c>
-      <c r="H81" t="s">
-        <v>31</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>274</v>
-      </c>
-      <c r="J81" t="s">
-        <v>275</v>
       </c>
       <c r="K81">
         <v>-9.7938259999999993</v>
@@ -4510,7 +4515,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B82" s="7">
         <v>45999</v>
@@ -4519,25 +4524,25 @@
         <v>45999</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E82" t="s">
+        <v>142</v>
+      </c>
+      <c r="F82" t="s">
         <v>143</v>
-      </c>
-      <c r="F82" t="s">
-        <v>144</v>
       </c>
       <c r="G82" t="s">
         <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I82" t="s">
         <v>15</v>
       </c>
       <c r="J82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K82">
         <v>-7.965052</v>
@@ -4548,7 +4553,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B83" s="7">
         <v>45999</v>
@@ -4557,25 +4562,25 @@
         <v>45999</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G83" t="s">
         <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I83" t="s">
         <v>15</v>
       </c>
       <c r="J83" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K83">
         <v>-8.5384309999999992</v>
@@ -4586,7 +4591,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B84" s="7">
         <v>46001</v>
@@ -4595,25 +4600,25 @@
         <v>46000</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E84" t="s">
+        <v>278</v>
+      </c>
+      <c r="F84" t="s">
         <v>279</v>
       </c>
-      <c r="F84" t="s">
-        <v>280</v>
-      </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I84" t="s">
         <v>15</v>
       </c>
       <c r="J84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K84">
         <v>-12.887559</v>
@@ -4624,7 +4629,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B85" s="7">
         <v>46001</v>
@@ -4633,25 +4638,25 @@
         <v>46000</v>
       </c>
       <c r="D85" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" t="s">
         <v>90</v>
       </c>
-      <c r="E85" t="s">
-        <v>91</v>
-      </c>
       <c r="F85" t="s">
+        <v>282</v>
+      </c>
+      <c r="G85" t="s">
         <v>283</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
+        <v>30</v>
+      </c>
+      <c r="I85" t="s">
         <v>284</v>
       </c>
-      <c r="H85" t="s">
-        <v>31</v>
-      </c>
-      <c r="I85" t="s">
-        <v>285</v>
-      </c>
       <c r="J85" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K85">
         <v>-6.5176100000000003</v>
@@ -4662,7 +4667,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B86" s="7">
         <v>46001</v>
@@ -4671,13 +4676,13 @@
         <v>46001</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F86" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G86" t="s">
         <v>14</v>
@@ -4689,7 +4694,7 @@
         <v>15</v>
       </c>
       <c r="J86" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K86">
         <v>-5.7701840000000004</v>
@@ -4700,7 +4705,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B87" s="7">
         <v>46001</v>
@@ -4709,25 +4714,25 @@
         <v>45998</v>
       </c>
       <c r="D87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E87" t="s">
+        <v>288</v>
+      </c>
+      <c r="F87" t="s">
         <v>289</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" t="s">
+        <v>30</v>
+      </c>
+      <c r="I87" t="s">
         <v>290</v>
       </c>
-      <c r="G87" t="s">
-        <v>44</v>
-      </c>
-      <c r="H87" t="s">
-        <v>31</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>291</v>
-      </c>
-      <c r="J87" t="s">
-        <v>292</v>
       </c>
       <c r="K87">
         <v>-6.5176100000000003</v>
@@ -4738,7 +4743,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B88" s="7">
         <v>46001</v>
@@ -4747,25 +4752,25 @@
         <v>45999</v>
       </c>
       <c r="D88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" t="s">
         <v>24</v>
       </c>
-      <c r="E88" t="s">
-        <v>25</v>
-      </c>
       <c r="F88" t="s">
+        <v>293</v>
+      </c>
+      <c r="G88" t="s">
+        <v>32</v>
+      </c>
+      <c r="H88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I88" t="s">
         <v>294</v>
       </c>
-      <c r="G88" t="s">
-        <v>33</v>
-      </c>
-      <c r="H88" t="s">
-        <v>31</v>
-      </c>
-      <c r="I88" t="s">
-        <v>295</v>
-      </c>
       <c r="J88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K88">
         <v>-8.8249340000000007</v>
@@ -4776,7 +4781,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B89">
         <v>46002</v>
@@ -4785,25 +4790,25 @@
         <v>46000</v>
       </c>
       <c r="D89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E89" t="s">
+        <v>296</v>
+      </c>
+      <c r="F89" t="s">
         <v>297</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>298</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
+        <v>30</v>
+      </c>
+      <c r="I89" t="s">
         <v>299</v>
       </c>
-      <c r="H89" t="s">
-        <v>31</v>
-      </c>
-      <c r="I89" t="s">
-        <v>300</v>
-      </c>
       <c r="J89" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K89">
         <v>-9.4665780000000002</v>
@@ -4814,7 +4819,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B90">
         <v>46002</v>
@@ -4823,25 +4828,25 @@
         <v>46001</v>
       </c>
       <c r="D90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E90" t="s">
+        <v>301</v>
+      </c>
+      <c r="F90" t="s">
         <v>302</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
+        <v>134</v>
+      </c>
+      <c r="H90" t="s">
+        <v>30</v>
+      </c>
+      <c r="I90" t="s">
         <v>303</v>
       </c>
-      <c r="G90" t="s">
-        <v>135</v>
-      </c>
-      <c r="H90" t="s">
-        <v>31</v>
-      </c>
-      <c r="I90" t="s">
-        <v>304</v>
-      </c>
       <c r="J90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K90">
         <v>-5.8458800000000002</v>
@@ -4865,7 +4870,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4877,30 +4882,30 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
-        <v>99</v>
-      </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4908,10 +4913,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -4919,10 +4924,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4930,10 +4935,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -4941,10 +4946,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -4952,10 +4957,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -4963,35 +4968,32 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>28</v>
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9">
+        <v>211</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4999,203 +5001,215 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
+        <v>101</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+        <v>211</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
-      </c>
-      <c r="F14">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
         <v>101</v>
       </c>
-      <c r="C16">
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17">
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" t="s">
         <v>101</v>
       </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19">
+      <c r="C23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>223</v>
-      </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" t="s">
         <v>101</v>
       </c>
-      <c r="C21">
+      <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>236</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="E25" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" t="s">
         <v>101</v>
       </c>
-      <c r="C22">
+      <c r="D26">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>243</v>
-      </c>
-      <c r="B23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>249</v>
-      </c>
-      <c r="B24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>231</v>
-      </c>
-      <c r="B25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>257</v>
-      </c>
-      <c r="B26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
+    <sortCondition ref="A2:A28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\6. COE_TABLERO_SEMANAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E9C503-EB42-4C00-BD83-88D09E0E6474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="meta" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="events" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="impacto_programa" sheetId="3" r:id="rId6"/>
+    <sheet name="meta" sheetId="1" r:id="rId1"/>
+    <sheet name="events" sheetId="2" r:id="rId2"/>
+    <sheet name="impacto_programa" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="4iWjnzOfOGPHSi/U+1150bvwc3li0ue47uJfuskbaKE="/>
@@ -18,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="317">
   <si>
     <t>fecha</t>
   </si>
@@ -957,46 +966,58 @@
   </si>
   <si>
     <t>PAIS</t>
+  </si>
+  <si>
+    <t>EV_2025_92</t>
+  </si>
+  <si>
+    <t>Ninacaca</t>
+  </si>
+  <si>
+    <t>Accidente transprote terrestre</t>
+  </si>
+  <si>
+    <t>PENSIÓN 65</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-280A]hh:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arimo"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
@@ -1006,73 +1027,63 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1262,27 +1273,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.0"/>
-    <col customWidth="1" min="2" max="2" width="22.0"/>
-    <col customWidth="1" min="3" max="3" width="32.0"/>
-    <col customWidth="1" min="4" max="4" width="46.57"/>
-    <col customWidth="1" min="5" max="26" width="10.71"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="5" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,25 +1307,25 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="2">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="B2" s="3">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="6"/>
@@ -2299,37 +2312,35 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="15.86"/>
-    <col customWidth="1" min="3" max="3" width="17.14"/>
-    <col customWidth="1" min="4" max="4" width="17.29"/>
-    <col customWidth="1" min="5" max="5" width="13.29"/>
-    <col customWidth="1" min="6" max="6" width="13.0"/>
-    <col customWidth="1" min="7" max="7" width="33.29"/>
-    <col customWidth="1" min="8" max="8" width="18.14"/>
-    <col customWidth="1" min="9" max="9" width="24.0"/>
-    <col customWidth="1" min="10" max="10" width="25.29"/>
-    <col customWidth="1" min="11" max="26" width="10.71"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="11" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -2367,15 +2378,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="8">
-        <v>45985.0</v>
+        <v>45985</v>
       </c>
       <c r="C2" s="8">
-        <v>45981.0</v>
+        <v>45981</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
@@ -2399,21 +2410,21 @@
         <v>22</v>
       </c>
       <c r="K2" s="7">
-        <v>-9.288933</v>
+        <v>-9.2889330000000001</v>
       </c>
       <c r="L2" s="7">
-        <v>-74.966841</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>-74.966841000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="8">
-        <v>45985.0</v>
+        <v>45985</v>
       </c>
       <c r="C3" s="8">
-        <v>45983.0</v>
+        <v>45983</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>24</v>
@@ -2440,18 +2451,18 @@
         <v>-13.244382</v>
       </c>
       <c r="L3" s="7">
-        <v>-72.732981</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>-72.732980999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="8">
-        <v>45985.0</v>
+        <v>45985</v>
       </c>
       <c r="C4" s="8">
-        <v>45981.0</v>
+        <v>45981</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>32</v>
@@ -2475,21 +2486,21 @@
         <v>22</v>
       </c>
       <c r="K4" s="7">
-        <v>-8.894395</v>
+        <v>-8.8943949999999994</v>
       </c>
       <c r="L4" s="7">
-        <v>-75.64159</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>-75.641589999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="8">
-        <v>45985.0</v>
+        <v>45985</v>
       </c>
       <c r="C5" s="8">
-        <v>45981.0</v>
+        <v>45981</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>35</v>
@@ -2516,18 +2527,18 @@
         <v>-14.294255</v>
       </c>
       <c r="L5" s="7">
-        <v>-73.229284</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>-73.229284000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="8">
-        <v>45985.0</v>
+        <v>45985</v>
       </c>
       <c r="C6" s="8">
-        <v>45984.0</v>
+        <v>45984</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>35</v>
@@ -2551,21 +2562,21 @@
         <v>22</v>
       </c>
       <c r="K6" s="7">
-        <v>-13.784788</v>
+        <v>-13.784788000000001</v>
       </c>
       <c r="L6" s="7">
-        <v>-73.031732</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>-73.031732000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="8">
-        <v>45985.0</v>
+        <v>45985</v>
       </c>
       <c r="C7" s="8">
-        <v>45984.0</v>
+        <v>45984</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>44</v>
@@ -2592,18 +2603,18 @@
         <v>-10.41896</v>
       </c>
       <c r="L7" s="7">
-        <v>-76.468246</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>-76.468245999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="8">
-        <v>45986.0</v>
+        <v>45986</v>
       </c>
       <c r="C8" s="8">
-        <v>45985.0</v>
+        <v>45985</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>48</v>
@@ -2627,21 +2638,21 @@
         <v>30</v>
       </c>
       <c r="K8" s="7">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="L8" s="7">
-        <v>-74.32</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>-74.319999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="8">
-        <v>45986.0</v>
+        <v>45986</v>
       </c>
       <c r="C9" s="8">
-        <v>45985.0</v>
+        <v>45985</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>54</v>
@@ -2668,18 +2679,18 @@
         <v>-15.8546</v>
       </c>
       <c r="L9" s="7">
-        <v>-70.0119</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>-70.011899999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="8">
-        <v>45986.0</v>
+        <v>45986</v>
       </c>
       <c r="C10" s="8">
-        <v>45985.0</v>
+        <v>45985</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>56</v>
@@ -2703,21 +2714,21 @@
         <v>22</v>
       </c>
       <c r="K10" s="7">
-        <v>-6.035735</v>
+        <v>-6.0357349999999999</v>
       </c>
       <c r="L10" s="7">
-        <v>-76.972293</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>-76.972292999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="8">
-        <v>45986.0</v>
+        <v>45986</v>
       </c>
       <c r="C11" s="8">
-        <v>45985.0</v>
+        <v>45985</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>56</v>
@@ -2741,21 +2752,21 @@
         <v>22</v>
       </c>
       <c r="K11" s="7">
-        <v>-6.390434</v>
+        <v>-6.3904339999999999</v>
       </c>
       <c r="L11" s="7">
-        <v>-76.637244</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>-76.637243999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="8">
-        <v>45986.0</v>
+        <v>45986</v>
       </c>
       <c r="C12" s="8">
-        <v>45985.0</v>
+        <v>45985</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>56</v>
@@ -2779,21 +2790,21 @@
         <v>22</v>
       </c>
       <c r="K12" s="7">
-        <v>-6.574644</v>
+        <v>-6.5746440000000002</v>
       </c>
       <c r="L12" s="7">
-        <v>-76.137508</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>-76.137507999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="8">
-        <v>45986.0</v>
+        <v>45986</v>
       </c>
       <c r="C13" s="8">
-        <v>45985.0</v>
+        <v>45985</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>56</v>
@@ -2817,21 +2828,21 @@
         <v>22</v>
       </c>
       <c r="K13" s="7">
-        <v>-6.709185</v>
+        <v>-6.7091849999999997</v>
       </c>
       <c r="L13" s="7">
-        <v>-76.211017</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>-76.211016999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="8">
-        <v>45986.0</v>
+        <v>45986</v>
       </c>
       <c r="C14" s="8">
-        <v>45986.0</v>
+        <v>45986</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>68</v>
@@ -2858,18 +2869,18 @@
         <v>-11.5008</v>
       </c>
       <c r="L14" s="7">
-        <v>-77.2086</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>-77.208600000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="8">
-        <v>45987.0</v>
+        <v>45987</v>
       </c>
       <c r="C15" s="8">
-        <v>45986.0</v>
+        <v>45986</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>56</v>
@@ -2893,21 +2904,21 @@
         <v>77</v>
       </c>
       <c r="K15" s="7">
-        <v>-6.840233</v>
+        <v>-6.8402329999999996</v>
       </c>
       <c r="L15" s="7">
-        <v>-76.363046</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>-76.363045999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="8">
-        <v>45987.0</v>
+        <v>45987</v>
       </c>
       <c r="C16" s="8">
-        <v>45986.0</v>
+        <v>45986</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>79</v>
@@ -2931,21 +2942,21 @@
         <v>22</v>
       </c>
       <c r="K16" s="7">
-        <v>-12.704092</v>
+        <v>-12.704091999999999</v>
       </c>
       <c r="L16" s="7">
-        <v>-75.371273</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>-75.371273000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B17" s="8">
-        <v>45987.0</v>
+        <v>45987</v>
       </c>
       <c r="C17" s="8">
-        <v>45987.0</v>
+        <v>45987</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>84</v>
@@ -2969,21 +2980,21 @@
         <v>22</v>
       </c>
       <c r="K17" s="7">
-        <v>-15.333175</v>
+        <v>-15.333175000000001</v>
       </c>
       <c r="L17" s="7">
-        <v>-73.984493</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>-73.984493000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="8">
-        <v>45987.0</v>
+        <v>45987</v>
       </c>
       <c r="C18" s="8">
-        <v>45987.0</v>
+        <v>45987</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>79</v>
@@ -3007,21 +3018,21 @@
         <v>22</v>
       </c>
       <c r="K18" s="7">
-        <v>-12.452262</v>
+        <v>-12.452261999999999</v>
       </c>
       <c r="L18" s="7">
-        <v>-74.569947</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>-74.569946999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C19" s="8">
-        <v>45987.0</v>
+        <v>45987</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>56</v>
@@ -3045,21 +3056,21 @@
         <v>22</v>
       </c>
       <c r="K19" s="7">
-        <v>-6.434032</v>
+        <v>-6.4340320000000002</v>
       </c>
       <c r="L19" s="7">
-        <v>-75.666836</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>-75.666836000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B20" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C20" s="8">
-        <v>45987.0</v>
+        <v>45987</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>17</v>
@@ -3083,21 +3094,21 @@
         <v>22</v>
       </c>
       <c r="K20" s="7">
-        <v>-10.298932</v>
+        <v>-10.298932000000001</v>
       </c>
       <c r="L20" s="7">
-        <v>-76.637589</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>-76.637589000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B21" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C21" s="8">
-        <v>45987.0</v>
+        <v>45987</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>17</v>
@@ -3121,21 +3132,21 @@
         <v>22</v>
       </c>
       <c r="K21" s="7">
-        <v>-9.331107</v>
+        <v>-9.3311069999999994</v>
       </c>
       <c r="L21" s="7">
-        <v>-76.387878</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>-76.387878000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B22" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C22" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>56</v>
@@ -3159,21 +3170,21 @@
         <v>22</v>
       </c>
       <c r="K22" s="7">
-        <v>-6.601862</v>
+        <v>-6.6018619999999997</v>
       </c>
       <c r="L22" s="7">
-        <v>-76.963115</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>-76.963115000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B23" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C23" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>56</v>
@@ -3197,21 +3208,21 @@
         <v>22</v>
       </c>
       <c r="K23" s="7">
-        <v>-7.822111</v>
+        <v>-7.8221109999999996</v>
       </c>
       <c r="L23" s="7">
-        <v>-76.274123</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>-76.274123000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B24" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C24" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>56</v>
@@ -3235,21 +3246,21 @@
         <v>22</v>
       </c>
       <c r="K24" s="7">
-        <v>-6.991024</v>
+        <v>-6.9910240000000003</v>
       </c>
       <c r="L24" s="7">
-        <v>-76.600608</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>-76.600607999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B25" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C25" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>56</v>
@@ -3276,18 +3287,18 @@
         <v>-6.83887</v>
       </c>
       <c r="L25" s="7">
-        <v>-76.586525</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>-76.586524999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B26" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C26" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>56</v>
@@ -3311,21 +3322,21 @@
         <v>22</v>
       </c>
       <c r="K26" s="7">
-        <v>-6.705346</v>
+        <v>-6.7053459999999996</v>
       </c>
       <c r="L26" s="7">
-        <v>-76.599219</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>-76.599219000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B27" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C27" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>56</v>
@@ -3349,21 +3360,21 @@
         <v>22</v>
       </c>
       <c r="K27" s="7">
-        <v>-6.705346</v>
+        <v>-6.7053459999999996</v>
       </c>
       <c r="L27" s="7">
-        <v>-76.599219</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>-76.599219000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B28" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C28" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>56</v>
@@ -3387,21 +3398,21 @@
         <v>22</v>
       </c>
       <c r="K28" s="7">
-        <v>-6.705346</v>
+        <v>-6.7053459999999996</v>
       </c>
       <c r="L28" s="7">
-        <v>-76.599219</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>-76.599219000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B29" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C29" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>56</v>
@@ -3425,21 +3436,21 @@
         <v>22</v>
       </c>
       <c r="K29" s="7">
-        <v>-6.817433</v>
+        <v>-6.8174330000000003</v>
       </c>
       <c r="L29" s="7">
-        <v>-76.128618</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>-76.128618000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B30" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C30" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>56</v>
@@ -3463,21 +3474,21 @@
         <v>22</v>
       </c>
       <c r="K30" s="7">
-        <v>-6.817433</v>
+        <v>-6.8174330000000003</v>
       </c>
       <c r="L30" s="7">
-        <v>-76.128618</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>-76.128618000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B31" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C31" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>56</v>
@@ -3501,21 +3512,21 @@
         <v>22</v>
       </c>
       <c r="K31" s="7">
-        <v>-6.615654</v>
+        <v>-6.6156540000000001</v>
       </c>
       <c r="L31" s="7">
-        <v>-76.468366</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>-76.468366000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B32" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C32" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>32</v>
@@ -3539,21 +3550,21 @@
         <v>22</v>
       </c>
       <c r="K32" s="7">
-        <v>-8.894395</v>
+        <v>-8.8943949999999994</v>
       </c>
       <c r="L32" s="7">
-        <v>-75.64159</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>-75.641589999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B33" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C33" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>127</v>
@@ -3577,21 +3588,21 @@
         <v>22</v>
       </c>
       <c r="K33" s="7">
-        <v>-6.574493</v>
+        <v>-6.5744930000000004</v>
       </c>
       <c r="L33" s="7">
-        <v>-78.727567</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>-78.727566999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B34" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="C34" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>131</v>
@@ -3615,21 +3626,21 @@
         <v>22</v>
       </c>
       <c r="K34" s="7">
-        <v>-7.264636</v>
+        <v>-7.2646360000000003</v>
       </c>
       <c r="L34" s="7">
-        <v>-77.733911</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>-77.733911000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B35" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="C35" s="8">
-        <v>45987.0</v>
+        <v>45987</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>134</v>
@@ -3653,21 +3664,21 @@
         <v>22</v>
       </c>
       <c r="K35" s="7">
-        <v>-9.081831</v>
+        <v>-9.0818309999999993</v>
       </c>
       <c r="L35" s="7">
-        <v>-77.007345</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>-77.007345000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B36" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="C36" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>138</v>
@@ -3691,21 +3702,21 @@
         <v>22</v>
       </c>
       <c r="K36" s="7">
-        <v>-4.99134</v>
+        <v>-4.9913400000000001</v>
       </c>
       <c r="L36" s="7">
-        <v>-78.389587</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>-78.389587000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B37" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="C37" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>138</v>
@@ -3729,21 +3740,21 @@
         <v>22</v>
       </c>
       <c r="K37" s="7">
-        <v>-5.378771</v>
+        <v>-5.3787710000000004</v>
       </c>
       <c r="L37" s="7">
-        <v>-78.444391</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>-78.444390999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B38" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="C38" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>138</v>
@@ -3767,21 +3778,21 @@
         <v>22</v>
       </c>
       <c r="K38" s="7">
-        <v>-5.883747</v>
+        <v>-5.8837469999999996</v>
       </c>
       <c r="L38" s="7">
-        <v>-78.052089</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>-78.052088999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B39" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="C39" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>138</v>
@@ -3805,21 +3816,21 @@
         <v>22</v>
       </c>
       <c r="K39" s="7">
-        <v>-6.080634</v>
+        <v>-6.0806339999999999</v>
       </c>
       <c r="L39" s="7">
-        <v>-77.869171</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>-77.869170999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B40" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="C40" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>138</v>
@@ -3843,21 +3854,21 @@
         <v>22</v>
       </c>
       <c r="K40" s="7">
-        <v>-6.207429</v>
+        <v>-6.2074290000000003</v>
       </c>
       <c r="L40" s="7">
-        <v>-78.012397</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>-78.012397000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B41" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="C41" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>138</v>
@@ -3881,21 +3892,21 @@
         <v>22</v>
       </c>
       <c r="K41" s="7">
-        <v>-5.838842</v>
+        <v>-5.8388419999999996</v>
       </c>
       <c r="L41" s="7">
         <v>-78.44</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B42" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="C42" s="8">
-        <v>45987.0</v>
+        <v>45987</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>79</v>
@@ -3919,21 +3930,21 @@
         <v>22</v>
       </c>
       <c r="K42" s="7">
-        <v>-13.714586</v>
+        <v>-13.714586000000001</v>
       </c>
       <c r="L42" s="7">
-        <v>-75.36826</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>-75.368260000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B43" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="C43" s="8">
-        <v>45986.0</v>
+        <v>45986</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>79</v>
@@ -3957,21 +3968,21 @@
         <v>22</v>
       </c>
       <c r="K43" s="7">
-        <v>-12.057719</v>
+        <v>-12.057719000000001</v>
       </c>
       <c r="L43" s="7">
-        <v>-74.528165</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>-74.528165000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B44" s="8">
-        <v>45990.0</v>
+        <v>45990</v>
       </c>
       <c r="C44" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>134</v>
@@ -3995,21 +4006,21 @@
         <v>22</v>
       </c>
       <c r="K44" s="7">
-        <v>-8.886066</v>
+        <v>-8.8860659999999996</v>
       </c>
       <c r="L44" s="7">
-        <v>-77.220344</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>-77.220343999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B45" s="8">
-        <v>45990.0</v>
+        <v>45990</v>
       </c>
       <c r="C45" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>35</v>
@@ -4039,15 +4050,15 @@
         <v>-73.387912</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B46" s="8">
-        <v>45990.0</v>
+        <v>45990</v>
       </c>
       <c r="C46" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>127</v>
@@ -4071,21 +4082,21 @@
         <v>22</v>
       </c>
       <c r="K46" s="7">
-        <v>-6.693068</v>
+        <v>-6.6930680000000002</v>
       </c>
       <c r="L46" s="7">
-        <v>-78.4795</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>-78.479500000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B47" s="8">
-        <v>45990.0</v>
+        <v>45990</v>
       </c>
       <c r="C47" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>138</v>
@@ -4109,21 +4120,21 @@
         <v>22</v>
       </c>
       <c r="K47" s="7">
-        <v>-4.845424</v>
+        <v>-4.8454240000000004</v>
       </c>
       <c r="L47" s="7">
-        <v>-77.930373</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>-77.930373000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B48" s="8">
-        <v>45990.0</v>
+        <v>45990</v>
       </c>
       <c r="C48" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>56</v>
@@ -4147,21 +4158,21 @@
         <v>22</v>
       </c>
       <c r="K48" s="7">
-        <v>-7.026494</v>
+        <v>-7.0264939999999996</v>
       </c>
       <c r="L48" s="7">
-        <v>-76.495669</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>-76.495669000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="A49" s="7" t="s">
         <v>177</v>
       </c>
       <c r="B49" s="8">
-        <v>45990.0</v>
+        <v>45990</v>
       </c>
       <c r="C49" s="8">
-        <v>45990.0</v>
+        <v>45990</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>178</v>
@@ -4191,15 +4202,15 @@
         <v>-71.213538</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B50" s="8">
-        <v>45991.0</v>
+        <v>45991</v>
       </c>
       <c r="C50" s="8">
-        <v>45990.0</v>
+        <v>45990</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>17</v>
@@ -4226,18 +4237,18 @@
         <v>-10.218532</v>
       </c>
       <c r="L50" s="7">
-        <v>-76.755579</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>-76.755578999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B51" s="8">
-        <v>45991.0</v>
+        <v>45991</v>
       </c>
       <c r="C51" s="8">
-        <v>45990.0</v>
+        <v>45990</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>183</v>
@@ -4261,21 +4272,21 @@
         <v>22</v>
       </c>
       <c r="K51" s="7">
-        <v>-4.498849</v>
+        <v>-4.4988489999999999</v>
       </c>
       <c r="L51" s="7">
-        <v>-81.04353</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>-81.043530000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B52" s="8">
-        <v>45991.0</v>
+        <v>45991</v>
       </c>
       <c r="C52" s="8">
-        <v>45990.0</v>
+        <v>45990</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>54</v>
@@ -4299,21 +4310,21 @@
         <v>22</v>
       </c>
       <c r="K52" s="7">
-        <v>-15.008176</v>
+        <v>-15.008176000000001</v>
       </c>
       <c r="L52" s="7">
-        <v>-69.393177</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>-69.393176999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B53" s="8">
-        <v>45991.0</v>
+        <v>45991</v>
       </c>
       <c r="C53" s="8">
-        <v>45991.0</v>
+        <v>45991</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>32</v>
@@ -4340,18 +4351,18 @@
         <v>-7.965052</v>
       </c>
       <c r="L53" s="7">
-        <v>-74.160191</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+        <v>-74.160190999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>194</v>
       </c>
       <c r="B54" s="8">
-        <v>45991.0</v>
+        <v>45991</v>
       </c>
       <c r="C54" s="8">
-        <v>45991.0</v>
+        <v>45991</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>32</v>
@@ -4378,18 +4389,18 @@
         <v>-7.965052</v>
       </c>
       <c r="L54" s="7">
-        <v>-74.160191</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+        <v>-74.160190999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>195</v>
       </c>
       <c r="B55" s="8">
-        <v>45992.0</v>
+        <v>45992</v>
       </c>
       <c r="C55" s="8">
-        <v>45991.0</v>
+        <v>45991</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>17</v>
@@ -4413,21 +4424,21 @@
         <v>22</v>
       </c>
       <c r="K55" s="7">
-        <v>-8.847418</v>
+        <v>-8.8474179999999993</v>
       </c>
       <c r="L55" s="7">
-        <v>-77.107757</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+        <v>-77.107757000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B56" s="8">
-        <v>45992.0</v>
+        <v>45992</v>
       </c>
       <c r="C56" s="8">
-        <v>45992.0</v>
+        <v>45992</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>32</v>
@@ -4451,21 +4462,21 @@
         <v>22</v>
       </c>
       <c r="K56" s="7">
-        <v>-9.442988</v>
+        <v>-9.4429879999999997</v>
       </c>
       <c r="L56" s="7">
-        <v>-74.137224</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <v>-74.137224000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>202</v>
       </c>
       <c r="B57" s="8">
-        <v>45992.0</v>
+        <v>45992</v>
       </c>
       <c r="C57" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>56</v>
@@ -4489,21 +4500,21 @@
         <v>22</v>
       </c>
       <c r="K57" s="7">
-        <v>-6.939492</v>
+        <v>-6.9394920000000004</v>
       </c>
       <c r="L57" s="7">
-        <v>-76.486845</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+        <v>-76.486845000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>204</v>
       </c>
       <c r="B58" s="8">
-        <v>45992.0</v>
+        <v>45992</v>
       </c>
       <c r="C58" s="8">
-        <v>45991.0</v>
+        <v>45991</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>17</v>
@@ -4527,21 +4538,21 @@
         <v>22</v>
       </c>
       <c r="K58" s="7">
-        <v>-10.150139</v>
+        <v>-10.150138999999999</v>
       </c>
       <c r="L58" s="7">
-        <v>-76.141177</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>-76.141176999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>206</v>
       </c>
       <c r="B59" s="8">
-        <v>45992.0</v>
+        <v>45992</v>
       </c>
       <c r="C59" s="8">
-        <v>45992.0</v>
+        <v>45992</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>17</v>
@@ -4565,21 +4576,21 @@
         <v>22</v>
       </c>
       <c r="K59" s="7">
-        <v>-9.634364</v>
+        <v>-9.6343639999999997</v>
       </c>
       <c r="L59" s="7">
-        <v>-75.466539</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+        <v>-75.466538999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>209</v>
       </c>
       <c r="B60" s="8">
-        <v>45993.0</v>
+        <v>45993</v>
       </c>
       <c r="C60" s="8">
-        <v>45988.0</v>
+        <v>45988</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>79</v>
@@ -4603,21 +4614,21 @@
         <v>22</v>
       </c>
       <c r="K60" s="7">
-        <v>-12.262101</v>
+        <v>-12.262100999999999</v>
       </c>
       <c r="L60" s="7">
-        <v>-74.908894</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <v>-74.908894000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>211</v>
       </c>
       <c r="B61" s="8">
-        <v>45993.0</v>
+        <v>45993</v>
       </c>
       <c r="C61" s="8">
-        <v>45993.0</v>
+        <v>45993</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>56</v>
@@ -4641,21 +4652,21 @@
         <v>22</v>
       </c>
       <c r="K61" s="7">
-        <v>-6.39906</v>
+        <v>-6.3990600000000004</v>
       </c>
       <c r="L61" s="7">
-        <v>-76.526042</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>-76.526042000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>212</v>
       </c>
       <c r="B62" s="8">
-        <v>45993.0</v>
+        <v>45993</v>
       </c>
       <c r="C62" s="8">
-        <v>45993.0</v>
+        <v>45993</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>56</v>
@@ -4679,21 +4690,21 @@
         <v>22</v>
       </c>
       <c r="K62" s="7">
-        <v>-6.991024</v>
+        <v>-6.9910240000000003</v>
       </c>
       <c r="L62" s="7">
-        <v>-76.600608</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <v>-76.600607999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>213</v>
       </c>
       <c r="B63" s="8">
-        <v>45993.0</v>
+        <v>45993</v>
       </c>
       <c r="C63" s="8">
-        <v>45989.0</v>
+        <v>45989</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>79</v>
@@ -4720,18 +4731,18 @@
         <v>-12.181583</v>
       </c>
       <c r="L63" s="7">
-        <v>-74.933282</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <v>-74.933282000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
       <c r="A64" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B64" s="8">
-        <v>45993.0</v>
+        <v>45993</v>
       </c>
       <c r="C64" s="8">
-        <v>45993.0</v>
+        <v>45993</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>48</v>
@@ -4755,21 +4766,21 @@
         <v>22</v>
       </c>
       <c r="K64" s="7">
-        <v>-3.677497</v>
+        <v>-3.6774969999999998</v>
       </c>
       <c r="L64" s="7">
-        <v>-70.836135</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <v>-70.836134999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>218</v>
       </c>
       <c r="B65" s="8">
-        <v>45993.0</v>
+        <v>45993</v>
       </c>
       <c r="C65" s="8">
-        <v>45987.0</v>
+        <v>45987</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>79</v>
@@ -4796,18 +4807,18 @@
         <v>-11.678848</v>
       </c>
       <c r="L65" s="7">
-        <v>-75.471347</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>-75.471346999999994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>220</v>
       </c>
       <c r="B66" s="8">
-        <v>45994.0</v>
+        <v>45994</v>
       </c>
       <c r="C66" s="8">
-        <v>45993.0</v>
+        <v>45993</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>56</v>
@@ -4831,21 +4842,21 @@
         <v>222</v>
       </c>
       <c r="K66" s="7">
-        <v>-5.748707</v>
+        <v>-5.7487069999999996</v>
       </c>
       <c r="L66" s="7">
-        <v>-77.634147</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>-77.634146999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>223</v>
       </c>
       <c r="B67" s="8">
-        <v>45994.0</v>
+        <v>45994</v>
       </c>
       <c r="C67" s="8">
-        <v>45992.0</v>
+        <v>45992</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>134</v>
@@ -4869,21 +4880,21 @@
         <v>22</v>
       </c>
       <c r="K67" s="7">
-        <v>-8.889717</v>
+        <v>-8.8897169999999992</v>
       </c>
       <c r="L67" s="7">
         <v>-77.466279</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B68" s="8">
-        <v>45994.0</v>
+        <v>45994</v>
       </c>
       <c r="C68" s="8">
-        <v>45993.0</v>
+        <v>45993</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>183</v>
@@ -4907,21 +4918,21 @@
         <v>22</v>
       </c>
       <c r="K68" s="7">
-        <v>-5.161385</v>
+        <v>-5.1613850000000001</v>
       </c>
       <c r="L68" s="7">
-        <v>-80.696542</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+        <v>-80.696541999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>228</v>
       </c>
       <c r="B69" s="8">
-        <v>45995.0</v>
+        <v>45995</v>
       </c>
       <c r="C69" s="8">
-        <v>45994.0</v>
+        <v>45994</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>17</v>
@@ -4945,21 +4956,21 @@
         <v>22</v>
       </c>
       <c r="K69" s="7">
-        <v>-9.73716</v>
+        <v>-9.7371599999999994</v>
       </c>
       <c r="L69" s="7">
-        <v>-75.797554</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+        <v>-75.797554000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" customHeight="1">
       <c r="A70" s="7" t="s">
         <v>231</v>
       </c>
       <c r="B70" s="8">
-        <v>45995.0</v>
+        <v>45995</v>
       </c>
       <c r="C70" s="8">
-        <v>45993.0</v>
+        <v>45993</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>24</v>
@@ -4983,21 +4994,21 @@
         <v>22</v>
       </c>
       <c r="K70" s="7">
-        <v>-12.551552</v>
+        <v>-12.551551999999999</v>
       </c>
       <c r="L70" s="7">
-        <v>-73.66877</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+        <v>-73.668769999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1">
       <c r="A71" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B71" s="8">
-        <v>45995.0</v>
+        <v>45995</v>
       </c>
       <c r="C71" s="8">
-        <v>45994.0</v>
+        <v>45994</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>79</v>
@@ -5021,21 +5032,21 @@
         <v>22</v>
       </c>
       <c r="K71" s="7">
-        <v>-12.413614</v>
+        <v>-12.413614000000001</v>
       </c>
       <c r="L71" s="7">
-        <v>-75.088992</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+        <v>-75.088992000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1">
       <c r="A72" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B72" s="8">
-        <v>45995.0</v>
+        <v>45995</v>
       </c>
       <c r="C72" s="8">
-        <v>45992.0</v>
+        <v>45992</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>79</v>
@@ -5059,21 +5070,21 @@
         <v>22</v>
       </c>
       <c r="K72" s="7">
-        <v>-12.298542</v>
+        <v>-12.298541999999999</v>
       </c>
       <c r="L72" s="7">
-        <v>-74.632737</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+        <v>-74.632737000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1">
       <c r="A73" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B73" s="8">
-        <v>45995.0</v>
+        <v>45995</v>
       </c>
       <c r="C73" s="8">
-        <v>45994.0</v>
+        <v>45994</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>32</v>
@@ -5100,18 +5111,18 @@
         <v>-11.083704000000001</v>
       </c>
       <c r="L73" s="7">
-        <v>-72.81384</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+        <v>-72.813839999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1">
       <c r="A74" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B74" s="8">
-        <v>45995.0</v>
+        <v>45995</v>
       </c>
       <c r="C74" s="8">
-        <v>45994.0</v>
+        <v>45994</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>35</v>
@@ -5135,21 +5146,21 @@
         <v>22</v>
       </c>
       <c r="K74" s="7">
-        <v>-13.488846</v>
+        <v>-13.488846000000001</v>
       </c>
       <c r="L74" s="7">
         <v>-72.814003</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1">
       <c r="A75" s="7" t="s">
         <v>243</v>
       </c>
       <c r="B75" s="8">
-        <v>45996.0</v>
+        <v>45996</v>
       </c>
       <c r="C75" s="8">
-        <v>45995.0</v>
+        <v>45995</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>54</v>
@@ -5176,18 +5187,18 @@
         <v>-15.183208</v>
       </c>
       <c r="L75" s="7">
-        <v>-69.809021</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+        <v>-69.809021000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1">
       <c r="A76" s="7" t="s">
         <v>246</v>
       </c>
       <c r="B76" s="8">
-        <v>45996.0</v>
+        <v>45996</v>
       </c>
       <c r="C76" s="8">
-        <v>45996.0</v>
+        <v>45996</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>32</v>
@@ -5211,21 +5222,21 @@
         <v>22</v>
       </c>
       <c r="K76" s="7">
-        <v>-8.538431</v>
+        <v>-8.5384309999999992</v>
       </c>
       <c r="L76" s="7">
-        <v>-74.509164</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+        <v>-74.509163999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1">
       <c r="A77" s="7" t="s">
         <v>248</v>
       </c>
       <c r="B77" s="8">
-        <v>45996.0</v>
+        <v>45996</v>
       </c>
       <c r="C77" s="8">
-        <v>45996.0</v>
+        <v>45996</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>35</v>
@@ -5252,18 +5263,18 @@
         <v>-13.635842</v>
       </c>
       <c r="L77" s="7">
-        <v>-72.871612</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+        <v>-72.871611999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1">
       <c r="A78" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B78" s="8">
-        <v>45996.0</v>
+        <v>45996</v>
       </c>
       <c r="C78" s="8">
-        <v>45996.0</v>
+        <v>45996</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>35</v>
@@ -5287,21 +5298,21 @@
         <v>245</v>
       </c>
       <c r="K78" s="7">
-        <v>-13.974194</v>
+        <v>-13.974194000000001</v>
       </c>
       <c r="L78" s="7">
-        <v>-72.891521</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+        <v>-72.891520999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1">
       <c r="A79" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B79" s="8">
-        <v>45997.0</v>
+        <v>45997</v>
       </c>
       <c r="C79" s="8">
-        <v>45997.0</v>
+        <v>45997</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>84</v>
@@ -5325,21 +5336,21 @@
         <v>245</v>
       </c>
       <c r="K79" s="7">
-        <v>-14.477165</v>
+        <v>-14.477164999999999</v>
       </c>
       <c r="L79" s="7">
-        <v>-73.757418</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+        <v>-73.757418000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1">
       <c r="A80" s="7" t="s">
         <v>257</v>
       </c>
       <c r="B80" s="8">
-        <v>45998.0</v>
+        <v>45998</v>
       </c>
       <c r="C80" s="8">
-        <v>45998.0</v>
+        <v>45998</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>68</v>
@@ -5363,21 +5374,21 @@
         <v>245</v>
       </c>
       <c r="K80" s="7">
-        <v>-11.475307</v>
+        <v>-11.475307000000001</v>
       </c>
       <c r="L80" s="7">
-        <v>-76.582297</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+        <v>-76.582296999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" customHeight="1">
       <c r="A81" s="7" t="s">
         <v>259</v>
       </c>
       <c r="B81" s="8">
-        <v>45998.0</v>
+        <v>45998</v>
       </c>
       <c r="C81" s="8">
-        <v>45997.0</v>
+        <v>45997</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>17</v>
@@ -5401,21 +5412,21 @@
         <v>264</v>
       </c>
       <c r="K81" s="7">
-        <v>-9.793826</v>
+        <v>-9.7938259999999993</v>
       </c>
       <c r="L81" s="7">
-        <v>-76.766863</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+        <v>-76.766863000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" customHeight="1">
       <c r="A82" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B82" s="8">
-        <v>45999.0</v>
+        <v>45999</v>
       </c>
       <c r="C82" s="8">
-        <v>45999.0</v>
+        <v>45999</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>32</v>
@@ -5442,18 +5453,18 @@
         <v>-7.965052</v>
       </c>
       <c r="L82" s="7">
-        <v>-74.160191</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+        <v>-74.160190999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" customHeight="1">
       <c r="A83" s="7" t="s">
         <v>266</v>
       </c>
       <c r="B83" s="8">
-        <v>45999.0</v>
+        <v>45999</v>
       </c>
       <c r="C83" s="8">
-        <v>45999.0</v>
+        <v>45999</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>32</v>
@@ -5477,21 +5488,21 @@
         <v>264</v>
       </c>
       <c r="K83" s="7">
-        <v>-8.538431</v>
+        <v>-8.5384309999999992</v>
       </c>
       <c r="L83" s="7">
-        <v>-74.509164</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+        <v>-74.509163999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" customHeight="1">
       <c r="A84" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B84" s="8">
-        <v>46001.0</v>
+        <v>46001</v>
       </c>
       <c r="C84" s="8">
-        <v>46000.0</v>
+        <v>46000</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>68</v>
@@ -5518,18 +5529,18 @@
         <v>-12.887559</v>
       </c>
       <c r="L84" s="7">
-        <v>-75.770427</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+        <v>-75.770426999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" customHeight="1">
       <c r="A85" s="7" t="s">
         <v>271</v>
       </c>
       <c r="B85" s="8">
-        <v>46001.0</v>
+        <v>46001</v>
       </c>
       <c r="C85" s="8">
-        <v>46000.0</v>
+        <v>46000</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>127</v>
@@ -5553,21 +5564,21 @@
         <v>264</v>
       </c>
       <c r="K85" s="7">
-        <v>-6.51761</v>
+        <v>-6.5176100000000003</v>
       </c>
       <c r="L85" s="7">
-        <v>-78.49524</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+        <v>-78.495239999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.75" customHeight="1">
       <c r="A86" s="7" t="s">
         <v>275</v>
       </c>
       <c r="B86" s="8">
-        <v>46001.0</v>
+        <v>46001</v>
       </c>
       <c r="C86" s="8">
-        <v>46001.0</v>
+        <v>46001</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>127</v>
@@ -5591,21 +5602,21 @@
         <v>278</v>
       </c>
       <c r="K86" s="7">
-        <v>-5.770184</v>
+        <v>-5.7701840000000004</v>
       </c>
       <c r="L86" s="7">
         <v>-78.852553</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1">
       <c r="A87" s="7" t="s">
         <v>279</v>
       </c>
       <c r="B87" s="8">
-        <v>46001.0</v>
+        <v>46001</v>
       </c>
       <c r="C87" s="8">
-        <v>45998.0</v>
+        <v>45998</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>134</v>
@@ -5629,21 +5640,21 @@
         <v>283</v>
       </c>
       <c r="K87" s="7">
-        <v>-6.51761</v>
+        <v>-6.5176100000000003</v>
       </c>
       <c r="L87" s="7">
-        <v>-78.49524</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+        <v>-78.495239999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" customHeight="1">
       <c r="A88" s="7" t="s">
         <v>284</v>
       </c>
       <c r="B88" s="8">
-        <v>46001.0</v>
+        <v>46001</v>
       </c>
       <c r="C88" s="8">
-        <v>45999.0</v>
+        <v>45999</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>32</v>
@@ -5667,21 +5678,21 @@
         <v>264</v>
       </c>
       <c r="K88" s="7">
-        <v>-8.824934</v>
+        <v>-8.8249340000000007</v>
       </c>
       <c r="L88" s="7">
-        <v>-75.047983</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
+        <v>-75.047983000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" customHeight="1">
       <c r="A89" s="7" t="s">
         <v>287</v>
       </c>
       <c r="B89" s="8">
-        <v>46002.0</v>
+        <v>46002</v>
       </c>
       <c r="C89" s="7">
-        <v>46000.0</v>
+        <v>46000</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>134</v>
@@ -5705,126 +5716,161 @@
         <v>264</v>
       </c>
       <c r="K89" s="7">
-        <v>-9.466578</v>
+        <v>-9.4665780000000002</v>
       </c>
       <c r="L89" s="7">
-        <v>-76.982342</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="7" t="s">
+        <v>-76.982342000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A90" t="s">
         <v>292</v>
       </c>
-      <c r="B90" s="8">
-        <v>46002.0</v>
-      </c>
-      <c r="C90" s="7">
-        <v>46001.0</v>
-      </c>
-      <c r="D90" s="7" t="s">
+      <c r="B90">
+        <v>46002</v>
+      </c>
+      <c r="C90">
+        <v>46001</v>
+      </c>
+      <c r="D90" t="s">
         <v>48</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" t="s">
         <v>293</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" t="s">
         <v>294</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G90" t="s">
         <v>94</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" t="s">
         <v>20</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="I90" t="s">
         <v>295</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="J90" t="s">
         <v>264</v>
       </c>
-      <c r="K90" s="7">
-        <v>-5.84588</v>
-      </c>
-      <c r="L90" s="7">
-        <v>-76.161582</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="9" t="s">
+      <c r="K90">
+        <v>-5.8458800000000002</v>
+      </c>
+      <c r="L90">
+        <v>-76.161581999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A91" t="s">
         <v>296</v>
       </c>
-      <c r="B91" s="10">
-        <v>46002.0</v>
-      </c>
-      <c r="C91" s="10">
-        <v>46000.0</v>
-      </c>
-      <c r="D91" s="11" t="s">
+      <c r="B91">
+        <v>46002</v>
+      </c>
+      <c r="C91">
+        <v>46000</v>
+      </c>
+      <c r="D91" t="s">
         <v>297</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" t="s">
         <v>298</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="F91" t="s">
         <v>299</v>
       </c>
-      <c r="G91" s="12" t="s">
+      <c r="G91" t="s">
         <v>58</v>
       </c>
-      <c r="H91" s="12" t="s">
+      <c r="H91" t="s">
         <v>20</v>
       </c>
-      <c r="I91" s="12" t="s">
+      <c r="I91" t="s">
         <v>300</v>
       </c>
-      <c r="J91" s="12" t="s">
+      <c r="J91" t="s">
         <v>264</v>
       </c>
-      <c r="K91" s="13">
+      <c r="K91">
         <v>-11.530968</v>
       </c>
-      <c r="L91" s="13">
-        <v>-73.814445</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="9" t="s">
+      <c r="L91">
+        <v>-73.814445000000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A92" t="s">
         <v>301</v>
       </c>
-      <c r="B92" s="10">
-        <v>46002.0</v>
-      </c>
-      <c r="C92" s="10">
-        <v>46001.0</v>
-      </c>
-      <c r="D92" s="12" t="s">
+      <c r="B92">
+        <v>46002</v>
+      </c>
+      <c r="C92">
+        <v>46001</v>
+      </c>
+      <c r="D92" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12" t="s">
+      <c r="G92" t="s">
         <v>302</v>
       </c>
-      <c r="H92" s="12" t="s">
+      <c r="H92" t="s">
         <v>20</v>
       </c>
-      <c r="I92" s="12" t="s">
+      <c r="I92" t="s">
         <v>102</v>
       </c>
-      <c r="J92" s="12" t="s">
+      <c r="J92" t="s">
         <v>264</v>
       </c>
-      <c r="K92" s="13">
-        <v>-9.896571</v>
-      </c>
-      <c r="L92" s="13">
-        <v>-76.296697</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
+      <c r="K92">
+        <v>-9.8965709999999998</v>
+      </c>
+      <c r="L92">
+        <v>-76.296696999999995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A93" t="s">
+        <v>313</v>
+      </c>
+      <c r="B93">
+        <v>46003</v>
+      </c>
+      <c r="C93">
+        <v>46002</v>
+      </c>
+      <c r="D93" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>314</v>
+      </c>
+      <c r="G93" t="s">
+        <v>315</v>
+      </c>
+      <c r="H93" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" t="s">
+        <v>102</v>
+      </c>
+      <c r="J93" t="s">
+        <v>264</v>
+      </c>
+      <c r="K93">
+        <v>-10.792036</v>
+      </c>
+      <c r="L93">
+        <v>-76.060196000000005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -6730,31 +6776,29 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="17.14"/>
-    <col customWidth="1" min="3" max="4" width="19.0"/>
-    <col customWidth="1" min="5" max="6" width="30.0"/>
-    <col customWidth="1" min="7" max="26" width="10.71"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="4" width="19" customWidth="1"/>
+    <col min="5" max="6" width="30" customWidth="1"/>
+    <col min="7" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -6774,7 +6818,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -6782,10 +6826,10 @@
         <v>308</v>
       </c>
       <c r="C2" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -6793,10 +6837,10 @@
         <v>309</v>
       </c>
       <c r="C3" s="7">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>67</v>
       </c>
@@ -6804,10 +6848,10 @@
         <v>308</v>
       </c>
       <c r="F4" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
@@ -6815,10 +6859,10 @@
         <v>309</v>
       </c>
       <c r="C5" s="7">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
         <v>78</v>
       </c>
@@ -6826,10 +6870,10 @@
         <v>308</v>
       </c>
       <c r="C6" s="7">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>78</v>
       </c>
@@ -6837,10 +6881,10 @@
         <v>310</v>
       </c>
       <c r="C7" s="7">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>96</v>
       </c>
@@ -6848,10 +6892,10 @@
         <v>309</v>
       </c>
       <c r="C8" s="7">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>96</v>
       </c>
@@ -6859,10 +6903,10 @@
         <v>310</v>
       </c>
       <c r="C9" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
         <v>99</v>
       </c>
@@ -6870,10 +6914,10 @@
         <v>309</v>
       </c>
       <c r="C10" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
         <v>125</v>
       </c>
@@ -6881,13 +6925,13 @@
         <v>311</v>
       </c>
       <c r="D11" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
         <v>154</v>
       </c>
@@ -6895,10 +6939,10 @@
         <v>309</v>
       </c>
       <c r="F12" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
         <v>158</v>
       </c>
@@ -6906,10 +6950,10 @@
         <v>310</v>
       </c>
       <c r="C13" s="7">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
         <v>195</v>
       </c>
@@ -6917,10 +6961,10 @@
         <v>309</v>
       </c>
       <c r="C14" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
         <v>195</v>
       </c>
@@ -6928,10 +6972,10 @@
         <v>308</v>
       </c>
       <c r="C15" s="7">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
         <v>199</v>
       </c>
@@ -6939,10 +6983,10 @@
         <v>311</v>
       </c>
       <c r="F16" s="7">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
         <v>199</v>
       </c>
@@ -6950,10 +6994,10 @@
         <v>309</v>
       </c>
       <c r="F17" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
         <v>199</v>
       </c>
@@ -6961,10 +7005,10 @@
         <v>312</v>
       </c>
       <c r="F18" s="7">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
         <v>213</v>
       </c>
@@ -6972,10 +7016,10 @@
         <v>308</v>
       </c>
       <c r="C19" s="7">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
         <v>218</v>
       </c>
@@ -6983,10 +7027,10 @@
         <v>308</v>
       </c>
       <c r="C20" s="7">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>220</v>
       </c>
@@ -6994,10 +7038,10 @@
         <v>309</v>
       </c>
       <c r="C21" s="7">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>220</v>
       </c>
@@ -7005,10 +7049,10 @@
         <v>310</v>
       </c>
       <c r="C22" s="7">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>223</v>
       </c>
@@ -7016,10 +7060,10 @@
         <v>311</v>
       </c>
       <c r="C23" s="7">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>228</v>
       </c>
@@ -7027,10 +7071,10 @@
         <v>309</v>
       </c>
       <c r="C24" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>237</v>
       </c>
@@ -7038,13 +7082,13 @@
         <v>311</v>
       </c>
       <c r="D25" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E25" s="14">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>241</v>
       </c>
@@ -7052,13 +7096,13 @@
         <v>311</v>
       </c>
       <c r="D26" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E26" s="14">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>246</v>
       </c>
@@ -7066,10 +7110,10 @@
         <v>311</v>
       </c>
       <c r="C27" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>279</v>
       </c>
@@ -7077,13 +7121,23 @@
         <v>311</v>
       </c>
       <c r="C28" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A29" t="s">
+        <v>292</v>
+      </c>
+      <c r="B29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -8053,9 +8107,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>